--- a/Reports/SAOCOM1A_transmitterCBA.xlsx
+++ b/Reports/SAOCOM1A_transmitterCBA.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>33.64990075334488</v>
+        <v>-71.57602848943586</v>
       </c>
       <c r="C2">
-        <v>21.60870092678563</v>
+        <v>-74.58632844607567</v>
       </c>
       <c r="D2">
-        <v>5.425079538065221e-30</v>
+        <v>0.3332868371111377</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>34.35761856983104</v>
+        <v>-63.74400209742213</v>
       </c>
       <c r="C3">
-        <v>22.31641874327179</v>
+        <v>-66.75430205406194</v>
       </c>
       <c r="D3">
-        <v>1e-30</v>
+        <v>0.3332187770337841</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>34.95287175001573</v>
+        <v>-75.40853371503825</v>
       </c>
       <c r="C4">
-        <v>22.91167192345648</v>
+        <v>-78.41883367167806</v>
       </c>
       <c r="D4">
-        <v>1e-30</v>
+        <v>0.333303424986519</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -444,13 +444,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>35.35694961111478</v>
+        <v>-40.33072408921573</v>
       </c>
       <c r="C5">
-        <v>23.31574978455553</v>
+        <v>-43.34102404585553</v>
       </c>
       <c r="D5">
-        <v>1e-30</v>
+        <v>0.3316363407533768</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -458,13 +458,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>35.50385606802033</v>
+        <v>-39.63364539082762</v>
       </c>
       <c r="C6">
-        <v>23.46265624146108</v>
+        <v>-42.64394534746744</v>
       </c>
       <c r="D6">
-        <v>1e-30</v>
+        <v>0.3314945381170822</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -472,13 +472,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>35.3657562445538</v>
+        <v>-39.30334663843478</v>
       </c>
       <c r="C7">
-        <v>23.32455641799455</v>
+        <v>-42.31364659507459</v>
       </c>
       <c r="D7">
-        <v>1e-30</v>
+        <v>0.3314232688488085</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -486,13 +486,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>34.968093445655</v>
+        <v>-39.43295143386769</v>
       </c>
       <c r="C8">
-        <v>22.92689361909575</v>
+        <v>-42.4432513905075</v>
       </c>
       <c r="D8">
-        <v>1e-30</v>
+        <v>0.3314515574452878</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -500,13 +500,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>34.37570560767842</v>
+        <v>-39.98478359745749</v>
       </c>
       <c r="C9">
-        <v>22.33450578111917</v>
+        <v>-42.99508355409731</v>
       </c>
       <c r="D9">
-        <v>1e-30</v>
+        <v>0.3315673901623383</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -514,13 +514,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.66353841812195</v>
+        <v>-40.82100037613047</v>
       </c>
       <c r="C10">
-        <v>21.6223385915627</v>
+        <v>-43.83130033277028</v>
       </c>
       <c r="D10">
-        <v>4.434247479664277e-30</v>
+        <v>0.3317294733801343</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -528,13 +528,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.57258612977238</v>
+        <v>-41.79420158594538</v>
       </c>
       <c r="C11">
-        <v>21.53138630321313</v>
+        <v>-44.80450154258519</v>
       </c>
       <c r="D11">
-        <v>1.681986561142067e-29</v>
+        <v>0.331899472798313</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -542,13 +542,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.70575634784054</v>
+        <v>-42.80037587380158</v>
       </c>
       <c r="C12">
-        <v>21.66455652128129</v>
+        <v>-45.8106758304414</v>
       </c>
       <c r="D12">
-        <v>2.365612732829581e-30</v>
+        <v>0.3320563105891604</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -556,13 +556,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.03854241623402</v>
+        <v>-43.31457912975397</v>
       </c>
       <c r="C13">
-        <v>22.99734258967478</v>
+        <v>-46.32487908639378</v>
       </c>
       <c r="D13">
-        <v>1e-30</v>
+        <v>0.3321297153836754</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -570,13 +570,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>36.62262621090457</v>
+        <v>-66.00261455120828</v>
       </c>
       <c r="C14">
-        <v>24.58142638434533</v>
+        <v>-69.01291450784809</v>
       </c>
       <c r="D14">
-        <v>1e-30</v>
+        <v>0.3332450073748061</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -584,13 +584,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>38.52508101755301</v>
+        <v>-62.89581078137089</v>
       </c>
       <c r="C15">
-        <v>26.48388119099376</v>
+        <v>-65.9061107380107</v>
       </c>
       <c r="D15">
-        <v>1e-30</v>
+        <v>0.3332070260078142</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -598,13 +598,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>40.85348963035867</v>
+        <v>-60.68783901314663</v>
       </c>
       <c r="C16">
-        <v>28.81228980379942</v>
+        <v>-63.69813896978644</v>
       </c>
       <c r="D16">
-        <v>1e-30</v>
+        <v>0.3331704685758571</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -612,13 +612,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>43.66210487459657</v>
+        <v>-59.13447728546039</v>
       </c>
       <c r="C17">
-        <v>31.62090504803733</v>
+        <v>-62.1447772421002</v>
       </c>
       <c r="D17">
-        <v>1e-30</v>
+        <v>0.3331385753846528</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -626,13 +626,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>46.34202664067607</v>
+        <v>-71.38897340971266</v>
       </c>
       <c r="C18">
-        <v>34.30082681411682</v>
+        <v>-74.39927336635247</v>
       </c>
       <c r="D18">
-        <v>1e-30</v>
+        <v>0.3332858249314159</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -640,13 +640,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>46.42369442326733</v>
+        <v>-34.47577591810828</v>
       </c>
       <c r="C19">
-        <v>34.38249459670809</v>
+        <v>-37.48607587474809</v>
       </c>
       <c r="D19">
-        <v>1e-30</v>
+        <v>0.3300035271719739</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -654,13 +654,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>43.79634669069851</v>
+        <v>-32.89128419242008</v>
       </c>
       <c r="C20">
-        <v>31.75514686413926</v>
+        <v>-35.90158414905989</v>
       </c>
       <c r="D20">
-        <v>1e-30</v>
+        <v>0.3293372131299989</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -668,13 +668,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>40.97264831841532</v>
+        <v>-33.06472286734675</v>
       </c>
       <c r="C21">
-        <v>28.93144849185607</v>
+        <v>-36.07502282398656</v>
       </c>
       <c r="D21">
-        <v>1e-30</v>
+        <v>0.3294162099683192</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -682,13 +682,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>38.62508924032633</v>
+        <v>-34.82729977225311</v>
       </c>
       <c r="C22">
-        <v>26.58388941376708</v>
+        <v>-37.83759972889293</v>
       </c>
       <c r="D22">
-        <v>1e-30</v>
+        <v>0.3301355897064816</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -696,13 +696,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.70831341280594</v>
+        <v>-36.9737632343326</v>
       </c>
       <c r="C23">
-        <v>24.66711358624668</v>
+        <v>-39.98406319097241</v>
       </c>
       <c r="D23">
-        <v>1e-30</v>
+        <v>0.3308357237647142</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -710,13 +710,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>35.11412669939877</v>
+        <v>-38.94523794921738</v>
       </c>
       <c r="C24">
-        <v>23.07292687283952</v>
+        <v>-41.95553790585719</v>
       </c>
       <c r="D24">
-        <v>1e-30</v>
+        <v>0.3313428747608591</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -724,13 +724,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>33.75986642715191</v>
+        <v>-40.64897194325405</v>
       </c>
       <c r="C25">
-        <v>21.71866660059266</v>
+        <v>-43.65927189989386</v>
       </c>
       <c r="D25">
-        <v>1.047925445915101e-30</v>
+        <v>0.3316973918735486</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -738,13 +738,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>33.56780195502691</v>
+        <v>-42.11343549169993</v>
       </c>
       <c r="C26">
-        <v>21.52660212846765</v>
+        <v>-45.12373544833974</v>
       </c>
       <c r="D26">
-        <v>1.802796673375553e-29</v>
+        <v>0.3319512145620908</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -752,13 +752,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>33.67486831201972</v>
+        <v>-43.31298258670405</v>
       </c>
       <c r="C27">
-        <v>21.63366848546047</v>
+        <v>-46.32328254334386</v>
       </c>
       <c r="D27">
-        <v>3.7484113290413e-30</v>
+        <v>0.3321294941292679</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -766,13 +766,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>34.25792861744864</v>
+        <v>-43.30877459250217</v>
       </c>
       <c r="C28">
-        <v>22.21672879088939</v>
+        <v>-46.31907454914198</v>
       </c>
       <c r="D28">
-        <v>1e-30</v>
+        <v>0.3321289107761222</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -780,13 +780,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>34.71029453927732</v>
+        <v>-42.03074216296751</v>
       </c>
       <c r="C29">
-        <v>22.66909471271807</v>
+        <v>-45.04104211960733</v>
       </c>
       <c r="D29">
-        <v>1e-30</v>
+        <v>0.3319379934940474</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -794,13 +794,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>34.96705925428176</v>
+        <v>-40.54338826735566</v>
       </c>
       <c r="C30">
-        <v>22.92585942772252</v>
+        <v>-43.55368822399547</v>
       </c>
       <c r="D30">
-        <v>1e-30</v>
+        <v>0.3316773846457302</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -808,13 +808,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>34.99007335289137</v>
+        <v>-38.80521371121692</v>
       </c>
       <c r="C31">
-        <v>22.94887352633213</v>
+        <v>-41.81551366785673</v>
       </c>
       <c r="D31">
-        <v>1e-30</v>
+        <v>0.3313105273849536</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -822,13 +822,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>34.77642391573721</v>
+        <v>-36.78045561212025</v>
       </c>
       <c r="C32">
-        <v>22.73522408917796</v>
+        <v>-39.79075556876006</v>
       </c>
       <c r="D32">
-        <v>1e-30</v>
+        <v>0.330779517118336</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -836,13 +836,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>34.35983600645814</v>
+        <v>-34.5574411777098</v>
       </c>
       <c r="C33">
-        <v>22.3186361798989</v>
+        <v>-37.56774113434961</v>
       </c>
       <c r="D33">
-        <v>1e-30</v>
+        <v>0.3300346858903156</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -850,13 +850,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>33.79550707938267</v>
+        <v>-32.7359315096398</v>
       </c>
       <c r="C34">
-        <v>21.75430725282343</v>
+        <v>-35.74623146627961</v>
       </c>
       <c r="D34">
-        <v>1e-30</v>
+        <v>0.3292651025439227</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -864,13 +864,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>33.59469755565119</v>
+        <v>-32.63672644245629</v>
       </c>
       <c r="C35">
-        <v>21.55349772909194</v>
+        <v>-35.64702639909611</v>
       </c>
       <c r="D35">
-        <v>1.21945626950998e-29</v>
+        <v>0.3292183749781274</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -878,13 +878,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>33.5741891295333</v>
+        <v>-34.36174745885049</v>
       </c>
       <c r="C36">
-        <v>21.53298930297406</v>
+        <v>-37.3720474154903</v>
       </c>
       <c r="D36">
-        <v>1.643318110829957e-29</v>
+        <v>0.3299595275862547</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -892,13 +892,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>34.74906782192124</v>
+        <v>-70.93910321847389</v>
       </c>
       <c r="C37">
-        <v>22.707867995362</v>
+        <v>-73.9494031751137</v>
       </c>
       <c r="D37">
-        <v>1e-30</v>
+        <v>0.3332832994822962</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -906,13 +906,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>36.04749681567309</v>
+        <v>-59.25277427868339</v>
       </c>
       <c r="C38">
-        <v>24.00629698911384</v>
+        <v>-62.2630742353232</v>
       </c>
       <c r="D38">
-        <v>1e-30</v>
+        <v>0.333141209898263</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -920,13 +920,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>37.44893501432333</v>
+        <v>-60.46532933945723</v>
       </c>
       <c r="C39">
-        <v>25.40773518776408</v>
+        <v>-63.47562929609704</v>
       </c>
       <c r="D39">
-        <v>1e-30</v>
+        <v>0.3331662425099342</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -934,13 +934,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>38.86760155121641</v>
+        <v>-62.40183978803672</v>
       </c>
       <c r="C40">
-        <v>26.82640172465716</v>
+        <v>-65.41213974467654</v>
       </c>
       <c r="D40">
-        <v>1e-30</v>
+        <v>0.3331996346633391</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -948,13 +948,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>40.07525252850663</v>
+        <v>-65.95050992203161</v>
       </c>
       <c r="C41">
-        <v>28.03405270194738</v>
+        <v>-68.96080987867143</v>
       </c>
       <c r="D41">
-        <v>1e-30</v>
+        <v>0.3332444759355734</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -962,13 +962,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>40.67624596240542</v>
+        <v>-43.3100438762507</v>
       </c>
       <c r="C42">
-        <v>28.63504613584617</v>
+        <v>-46.32034383289052</v>
       </c>
       <c r="D42">
-        <v>1e-30</v>
+        <v>0.3321290867663661</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -976,13 +976,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>40.37268399505916</v>
+        <v>-42.34160323684926</v>
       </c>
       <c r="C43">
-        <v>28.33148416849992</v>
+        <v>-45.35190319348907</v>
       </c>
       <c r="D43">
-        <v>1e-30</v>
+        <v>0.3319870481127385</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -990,13 +990,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>39.3225717821807</v>
+        <v>-41.36706835018705</v>
       </c>
       <c r="C44">
-        <v>27.28137195562145</v>
+        <v>-44.37736830682685</v>
       </c>
       <c r="D44">
-        <v>1e-30</v>
+        <v>0.3318272002232988</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1004,13 +1004,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>37.93652467886429</v>
+        <v>-40.47902320589182</v>
       </c>
       <c r="C45">
-        <v>25.89532485230504</v>
+        <v>-43.48932316253163</v>
       </c>
       <c r="D45">
-        <v>1e-30</v>
+        <v>0.331665068148827</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1018,13 +1018,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>36.50817529448162</v>
+        <v>-39.80258958117148</v>
       </c>
       <c r="C46">
-        <v>24.46697546792237</v>
+        <v>-42.81288953781129</v>
       </c>
       <c r="D46">
-        <v>1e-30</v>
+        <v>0.3315299573246076</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1032,13 +1032,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>35.16365440846516</v>
+        <v>-39.48123595448231</v>
       </c>
       <c r="C47">
-        <v>23.12245458190591</v>
+        <v>-42.49153591112212</v>
       </c>
       <c r="D47">
-        <v>1e-30</v>
+        <v>0.3314619889696234</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1046,13 +1046,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>33.93880762368852</v>
+        <v>-39.60159062079077</v>
       </c>
       <c r="C48">
-        <v>21.89760779712927</v>
+        <v>-42.61189057743059</v>
       </c>
       <c r="D48">
-        <v>1e-30</v>
+        <v>0.3314877397222875</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1060,13 +1060,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>33.70577312862389</v>
+        <v>-40.1290306854502</v>
       </c>
       <c r="C49">
-        <v>21.66457330206464</v>
+        <v>-43.13933064209002</v>
       </c>
       <c r="D49">
-        <v>2.365019151614118e-30</v>
+        <v>0.3315964746929387</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1074,13 +1074,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>33.567158864235</v>
+        <v>-40.9349812988718</v>
       </c>
       <c r="C50">
-        <v>21.52595903767575</v>
+        <v>-43.94528125551161</v>
       </c>
       <c r="D50">
-        <v>1.819673829791425e-29</v>
+        <v>0.331750382354785</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1088,13 +1088,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>34.72497483726686</v>
+        <v>-67.98008097925735</v>
       </c>
       <c r="C51">
-        <v>22.68377501070761</v>
+        <v>-70.99038093589716</v>
       </c>
       <c r="D51">
-        <v>1e-30</v>
+        <v>0.3332629912801362</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1102,13 +1102,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>36.00081947079965</v>
+        <v>-63.63836452739732</v>
       </c>
       <c r="C52">
-        <v>23.9596196442404</v>
+        <v>-66.64866448403713</v>
       </c>
       <c r="D52">
-        <v>1e-30</v>
+        <v>0.3332173752963856</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1116,13 +1116,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>37.35007935539404</v>
+        <v>-68.43026577063102</v>
       </c>
       <c r="C53">
-        <v>25.30887952883479</v>
+        <v>-71.44056572727084</v>
       </c>
       <c r="D53">
-        <v>1e-30</v>
+        <v>0.3332665442009863</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1130,13 +1130,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>38.66524690730019</v>
+        <v>-62.93930024618185</v>
       </c>
       <c r="C54">
-        <v>26.62404708074094</v>
+        <v>-65.94960020282167</v>
       </c>
       <c r="D54">
-        <v>1e-30</v>
+        <v>0.3332076568365672</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1144,13 +1144,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>39.7037771679566</v>
+        <v>-67.57515231384866</v>
       </c>
       <c r="C55">
-        <v>27.66257734139735</v>
+        <v>-70.58545227048847</v>
       </c>
       <c r="D55">
-        <v>1e-30</v>
+        <v>0.3332596343539733</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1158,13 +1158,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>40.11328367436122</v>
+        <v>-63.99267533722126</v>
       </c>
       <c r="C56">
-        <v>28.07208384780197</v>
+        <v>-67.00297529386107</v>
       </c>
       <c r="D56">
-        <v>1e-30</v>
+        <v>0.3332220102272857</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1172,13 +1172,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>39.70166651563156</v>
+        <v>-39.53127373719726</v>
       </c>
       <c r="C57">
-        <v>27.66046668907231</v>
+        <v>-42.54157369383707</v>
       </c>
       <c r="D57">
-        <v>1e-30</v>
+        <v>0.3314727382654223</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1186,13 +1186,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>38.66262332728265</v>
+        <v>-38.32185728230136</v>
       </c>
       <c r="C58">
-        <v>26.6214235007234</v>
+        <v>-41.33215723894118</v>
       </c>
       <c r="D58">
-        <v>1e-30</v>
+        <v>0.3311947727860188</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1200,13 +1200,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>37.34847007543853</v>
+        <v>-37.43927399742975</v>
       </c>
       <c r="C59">
-        <v>25.30727024887928</v>
+        <v>-40.44957395406957</v>
       </c>
       <c r="D59">
-        <v>1e-30</v>
+        <v>0.3309660531629828</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1214,13 +1214,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>36.00103481249052</v>
+        <v>-37.18850071460298</v>
       </c>
       <c r="C60">
-        <v>23.95983498593127</v>
+        <v>-40.19880067124279</v>
       </c>
       <c r="D60">
-        <v>1e-30</v>
+        <v>0.3308967123297601</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1228,13 +1228,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>34.72733693450439</v>
+        <v>-37.681602351698</v>
       </c>
       <c r="C61">
-        <v>22.68613710794515</v>
+        <v>-40.6919023083378</v>
       </c>
       <c r="D61">
-        <v>1e-30</v>
+        <v>0.3310311836704115</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1242,13 +1242,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>33.68711291928524</v>
+        <v>-38.71062676953273</v>
       </c>
       <c r="C62">
-        <v>21.645913092726</v>
+        <v>-41.72092672617254</v>
       </c>
       <c r="D62">
-        <v>3.124427244889117e-30</v>
+        <v>0.3312883796455018</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1256,13 +1256,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>33.66738946661962</v>
+        <v>-39.96999626502497</v>
       </c>
       <c r="C63">
-        <v>21.62618964006038</v>
+        <v>-42.98029622166478</v>
       </c>
       <c r="D63">
-        <v>4.188298165514291e-30</v>
+        <v>0.3315643812080503</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1270,13 +1270,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>34.60855131610713</v>
+        <v>-41.25577157745533</v>
       </c>
       <c r="C64">
-        <v>22.56735148954789</v>
+        <v>-44.26607153409515</v>
       </c>
       <c r="D64">
-        <v>1e-30</v>
+        <v>0.3318077774036347</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1284,13 +1284,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>35.5227208196705</v>
+        <v>-42.475408329976</v>
       </c>
       <c r="C65">
-        <v>23.48152099311125</v>
+        <v>-45.48570828661581</v>
       </c>
       <c r="D65">
-        <v>1e-30</v>
+        <v>0.3320076283775197</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1298,13 +1298,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>36.32107010738517</v>
+        <v>-43.31552464254432</v>
       </c>
       <c r="C66">
-        <v>24.27987028082593</v>
+        <v>-46.32582459918413</v>
       </c>
       <c r="D66">
-        <v>1e-30</v>
+        <v>0.3321298463969057</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1312,13 +1312,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>36.88147332574027</v>
+        <v>-77.97856515323322</v>
       </c>
       <c r="C67">
-        <v>24.84027349918103</v>
+        <v>-80.98886510987305</v>
       </c>
       <c r="D67">
-        <v>1e-30</v>
+        <v>0.3333110853404702</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1326,13 +1326,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>37.08210711643259</v>
+        <v>-68.97932583695435</v>
       </c>
       <c r="C68">
-        <v>25.04090728987334</v>
+        <v>-71.98962579359416</v>
       </c>
       <c r="D68">
-        <v>1e-30</v>
+        <v>0.3332706354616294</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1340,13 +1340,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>36.87019291674952</v>
+        <v>-63.69378689962906</v>
       </c>
       <c r="C69">
-        <v>24.82899309019027</v>
+        <v>-66.70408685626887</v>
       </c>
       <c r="D69">
-        <v>1e-30</v>
+        <v>0.3332181128384739</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1354,13 +1354,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>36.30047025897202</v>
+        <v>-59.57298631973713</v>
       </c>
       <c r="C70">
-        <v>24.25927043241277</v>
+        <v>-62.58328627637695</v>
       </c>
       <c r="D70">
-        <v>1e-30</v>
+        <v>0.3331481637097893</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1368,13 +1368,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>35.49538344704249</v>
+        <v>-72.89391207265102</v>
       </c>
       <c r="C71">
-        <v>23.45418362048324</v>
+        <v>-75.90421202929083</v>
       </c>
       <c r="D71">
-        <v>1e-30</v>
+        <v>0.3332933827164743</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1382,13 +1382,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>34.57654559877496</v>
+        <v>-36.35736804940515</v>
       </c>
       <c r="C72">
-        <v>22.53534577221571</v>
+        <v>-39.36766800604496</v>
       </c>
       <c r="D72">
-        <v>1e-30</v>
+        <v>0.3306520461307964</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1396,13 +1396,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>33.62953036174579</v>
+        <v>-35.74041910971921</v>
       </c>
       <c r="C73">
-        <v>21.58833053518654</v>
+        <v>-38.75071906635902</v>
       </c>
       <c r="D73">
-        <v>7.323607862891866e-30</v>
+        <v>0.3304546780646223</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1410,13 +1410,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>33.56905279485836</v>
+        <v>-36.12958577768052</v>
       </c>
       <c r="C74">
-        <v>21.52785296829911</v>
+        <v>-39.13988573432033</v>
       </c>
       <c r="D74">
-        <v>1.770409937842396e-29</v>
+        <v>0.330580803385859</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1424,13 +1424,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>33.70772083506581</v>
+        <v>-37.30297106972918</v>
       </c>
       <c r="C75">
-        <v>21.66652100850656</v>
+        <v>-40.313271026369</v>
       </c>
       <c r="D75">
-        <v>2.297110764595887e-30</v>
+        <v>0.3309286127333214</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1438,13 +1438,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>35.02242720244151</v>
+        <v>-38.78521631562543</v>
       </c>
       <c r="C76">
-        <v>22.98122737588226</v>
+        <v>-41.79551627226523</v>
       </c>
       <c r="D76">
-        <v>1e-30</v>
+        <v>0.3313058650337936</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1452,13 +1452,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>36.56148923833866</v>
+        <v>-40.27294892897882</v>
       </c>
       <c r="C77">
-        <v>24.52028941177941</v>
+        <v>-43.28324888561863</v>
       </c>
       <c r="D77">
-        <v>1e-30</v>
+        <v>0.331625015549686</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1466,13 +1466,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>38.3746077442414</v>
+        <v>-41.65100589423506</v>
       </c>
       <c r="C78">
-        <v>26.33340791768215</v>
+        <v>-44.66130585087488</v>
       </c>
       <c r="D78">
-        <v>1e-30</v>
+        <v>0.3318756384625263</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1480,13 +1480,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>40.5108658567114</v>
+        <v>-42.89387048901206</v>
       </c>
       <c r="C79">
-        <v>28.46966603015215</v>
+        <v>-45.90417044565187</v>
       </c>
       <c r="D79">
-        <v>1e-30</v>
+        <v>0.3320699825992729</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1494,13 +1494,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>42.88376571432833</v>
+        <v>-43.30976923914087</v>
       </c>
       <c r="C80">
-        <v>30.84256588776908</v>
+        <v>-46.32006919578068</v>
       </c>
       <c r="D80">
-        <v>1e-30</v>
+        <v>0.3321290486892343</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1508,13 +1508,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>44.78113379492576</v>
+        <v>-43.28279205005225</v>
       </c>
       <c r="C81">
-        <v>32.73993396836651</v>
+        <v>-46.29309200669206</v>
       </c>
       <c r="D81">
-        <v>1e-30</v>
+        <v>0.3321253025565121</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1522,13 +1522,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>44.64772713584145</v>
+        <v>-42.74339257752921</v>
       </c>
       <c r="C82">
-        <v>32.6065273092822</v>
+        <v>-45.75369253416902</v>
       </c>
       <c r="D82">
-        <v>1e-30</v>
+        <v>0.3320479052762877</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1536,13 +1536,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>42.63104244366411</v>
+        <v>-42.34241424357098</v>
       </c>
       <c r="C83">
-        <v>30.58984261710487</v>
+        <v>-45.35271420021079</v>
       </c>
       <c r="D83">
-        <v>1e-30</v>
+        <v>0.3319871738092547</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1550,13 +1550,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>40.27099923200618</v>
+        <v>-42.13268334429236</v>
       </c>
       <c r="C84">
-        <v>28.22979940544693</v>
+        <v>-45.14298330093217</v>
       </c>
       <c r="D84">
-        <v>1e-30</v>
+        <v>0.3319542739062712</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1564,13 +1564,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>38.1739552220914</v>
+        <v>-42.14549996466475</v>
       </c>
       <c r="C85">
-        <v>26.13275539553215</v>
+        <v>-45.15579992130456</v>
       </c>
       <c r="D85">
-        <v>1e-30</v>
+        <v>0.3319563072834051</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1578,13 +1578,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>36.39714788204054</v>
+        <v>-70.25548056078348</v>
       </c>
       <c r="C86">
-        <v>24.35594805548129</v>
+        <v>-73.26578051742329</v>
       </c>
       <c r="D86">
-        <v>1e-30</v>
+        <v>0.3332792024562944</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1592,13 +1592,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>34.88770838304271</v>
+        <v>-63.22577020646719</v>
       </c>
       <c r="C87">
-        <v>22.84650855648346</v>
+        <v>-66.236070163107</v>
       </c>
       <c r="D87">
-        <v>1e-30</v>
+        <v>0.3332117341749045</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1606,13 +1606,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>33.58865376840547</v>
+        <v>-70.9187371503179</v>
       </c>
       <c r="C88">
-        <v>21.54745394184622</v>
+        <v>-73.92903710695771</v>
       </c>
       <c r="D88">
-        <v>1.331708075375765e-29</v>
+        <v>0.3332831820287691</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1620,13 +1620,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>33.56958548187657</v>
+        <v>-43.31061473170628</v>
       </c>
       <c r="C89">
-        <v>21.52838565531733</v>
+        <v>-46.32091468834609</v>
       </c>
       <c r="D89">
-        <v>1.75679210442031e-29</v>
+        <v>0.3321291659089138</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1634,13 +1634,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>33.57116008484864</v>
+        <v>-41.99630684694969</v>
       </c>
       <c r="C90">
-        <v>21.52996025828939</v>
+        <v>-45.00660680358951</v>
       </c>
       <c r="D90">
-        <v>1.717138233449441e-29</v>
+        <v>0.3319324507232639</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1648,13 +1648,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>34.83191704836553</v>
+        <v>-40.44715941731041</v>
       </c>
       <c r="C91">
-        <v>22.79071722180629</v>
+        <v>-43.45745937395022</v>
       </c>
       <c r="D91">
-        <v>1e-30</v>
+        <v>0.3316589370360846</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1662,13 +1662,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>36.2864300237065</v>
+        <v>-38.59221668474197</v>
       </c>
       <c r="C92">
-        <v>24.24523019714725</v>
+        <v>-41.60251664138179</v>
       </c>
       <c r="D92">
-        <v>1e-30</v>
+        <v>0.3312603115631821</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1676,13 +1676,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>37.9634930755853</v>
+        <v>-36.32800790759627</v>
       </c>
       <c r="C93">
-        <v>25.92229324902605</v>
+        <v>-39.33830786423609</v>
       </c>
       <c r="D93">
-        <v>1e-30</v>
+        <v>0.3306429677875557</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1690,13 +1690,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>39.86878235610518</v>
+        <v>-33.58671039956063</v>
       </c>
       <c r="C94">
-        <v>27.82758252954593</v>
+        <v>-36.59701035620044</v>
       </c>
       <c r="D94">
-        <v>1e-30</v>
+        <v>0.3296446646299692</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1704,13 +1704,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>41.86100665661171</v>
+        <v>-30.83569792457919</v>
       </c>
       <c r="C95">
-        <v>29.81980683005246</v>
+        <v>-33.84599788121901</v>
       </c>
       <c r="D95">
-        <v>1e-30</v>
+        <v>0.328270332893052</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1718,13 +1718,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>43.34812080564667</v>
+        <v>-30.34909387656724</v>
       </c>
       <c r="C96">
-        <v>31.30692097908743</v>
+        <v>-33.35939383320705</v>
       </c>
       <c r="D96">
-        <v>1e-30</v>
+        <v>0.3279786344050772</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1732,13 +1732,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>43.32476101227178</v>
+        <v>-32.78682792864978</v>
       </c>
       <c r="C97">
-        <v>31.28356118571253</v>
+        <v>-35.79712788528959</v>
       </c>
       <c r="D97">
-        <v>1e-30</v>
+        <v>0.3292888694765506</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1746,13 +1746,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>41.80962517730997</v>
+        <v>-35.63166906641742</v>
       </c>
       <c r="C98">
-        <v>29.76842535075072</v>
+        <v>-38.64196902305724</v>
       </c>
       <c r="D98">
-        <v>1e-30</v>
+        <v>0.3304184112763473</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1760,13 +1760,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>39.81095942300118</v>
+        <v>-59.14605498822429</v>
       </c>
       <c r="C99">
-        <v>27.76975959644193</v>
+        <v>-62.1563549448641</v>
       </c>
       <c r="D99">
-        <v>1e-30</v>
+        <v>0.3331388348108278</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1774,13 +1774,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>37.90627062389973</v>
+        <v>-66.48419132344549</v>
       </c>
       <c r="C100">
-        <v>25.86507079734048</v>
+        <v>-69.4944912800853</v>
       </c>
       <c r="D100">
-        <v>1e-30</v>
+        <v>0.3332497711995298</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1788,13 +1788,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>36.23064016839437</v>
+        <v>-78.26189521848795</v>
       </c>
       <c r="C101">
-        <v>24.18944034183513</v>
+        <v>-81.27219517512778</v>
       </c>
       <c r="D101">
-        <v>1e-30</v>
+        <v>0.3333117993519474</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1802,13 +1802,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>34.77690903633652</v>
+        <v>-78.02599361626979</v>
       </c>
       <c r="C102">
-        <v>22.73570920977727</v>
+        <v>-81.03629357290959</v>
       </c>
       <c r="D102">
-        <v>1e-30</v>
+        <v>0.3333112064924199</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1816,13 +1816,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>33.70808998406125</v>
+        <v>-73.06869182852148</v>
       </c>
       <c r="C103">
-        <v>21.666890157502</v>
+        <v>-76.07899178516129</v>
       </c>
       <c r="D103">
-        <v>2.284458273043397e-30</v>
+        <v>0.3332941785791557</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1830,13 +1830,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>33.56837713376767</v>
+        <v>-43.30695474576749</v>
       </c>
       <c r="C104">
-        <v>21.52717730720843</v>
+        <v>-46.3172547024073</v>
       </c>
       <c r="D104">
-        <v>1.787832367964114e-29</v>
+        <v>0.3321286584036891</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1844,13 +1844,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>34.59147238208401</v>
+        <v>-42.55392674109721</v>
       </c>
       <c r="C105">
-        <v>22.55027255552475</v>
+        <v>-45.56422669773703</v>
       </c>
       <c r="D105">
-        <v>1e-30</v>
+        <v>0.3320195583391139</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1858,139 +1858,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>35.64436294665508</v>
+        <v>-42.50569911594141</v>
       </c>
       <c r="C106">
-        <v>23.60316312009583</v>
+        <v>-45.51599907258122</v>
       </c>
       <c r="D106">
-        <v>1e-30</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107">
-        <v>36.64439127766328</v>
-      </c>
-      <c r="C107">
-        <v>24.60319145110403</v>
-      </c>
-      <c r="D107">
-        <v>1e-30</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108">
-        <v>37.46110424961881</v>
-      </c>
-      <c r="C108">
-        <v>25.41990442305956</v>
-      </c>
-      <c r="D108">
-        <v>1e-30</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109">
-        <v>37.92105088221809</v>
-      </c>
-      <c r="C109">
-        <v>25.87985105565885</v>
-      </c>
-      <c r="D109">
-        <v>1e-30</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110">
-        <v>37.89096411627404</v>
-      </c>
-      <c r="C110">
-        <v>25.84976428971479</v>
-      </c>
-      <c r="D110">
-        <v>1e-30</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111">
-        <v>37.38095073612151</v>
-      </c>
-      <c r="C111">
-        <v>25.33975090956226</v>
-      </c>
-      <c r="D111">
-        <v>1e-30</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112">
-        <v>36.53563504906437</v>
-      </c>
-      <c r="C112">
-        <v>24.49443522250512</v>
-      </c>
-      <c r="D112">
-        <v>1e-30</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113">
-        <v>35.52616427514922</v>
-      </c>
-      <c r="C113">
-        <v>23.48496444858998</v>
-      </c>
-      <c r="D113">
-        <v>1e-30</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114">
-        <v>34.4757041877189</v>
-      </c>
-      <c r="C114">
-        <v>22.43450436115966</v>
-      </c>
-      <c r="D114">
-        <v>1e-30</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115">
-        <v>33.67495037954053</v>
-      </c>
-      <c r="C115">
-        <v>21.63375055298129</v>
-      </c>
-      <c r="D115">
-        <v>3.743846018658762e-30</v>
+        <v>0.3320122434920958</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/SAOCOM1A_transmitterCBA.xlsx
+++ b/Reports/SAOCOM1A_transmitterCBA.xlsx
@@ -17864,75 +17864,75 @@
         <v>3</v>
       </c>
       <c r="C221" t="n">
-        <v>3.406008964324294</v>
+        <v>3.405840138859686</v>
       </c>
       <c r="D221" t="n">
-        <v>0.0002739667460367636</v>
+        <v>4.951217094118452e-06</v>
       </c>
       <c r="E221" t="n">
-        <v>2889.339212466127</v>
+        <v>2889.368845992221</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>21 Jun 2025 10:13:11.861723291</t>
+          <t>21 Jun 2025 10:13:11.866137298</t>
         </is>
       </c>
       <c r="G221" t="n">
-        <v>97.02446234524663</v>
+        <v>-1.949952000646314</v>
       </c>
       <c r="H221" t="n">
-        <v>94.01416238860682</v>
+        <v>-4.960251957286126</v>
       </c>
       <c r="I221" t="n">
-        <v>1e-30</v>
+        <v>0.2121688772844618</v>
       </c>
       <c r="J221" t="n">
-        <v>96.19610472533579</v>
+        <v>-2.778220537137612</v>
       </c>
       <c r="K221" t="n">
-        <v>187.7707812431599</v>
+        <v>187.7708703265795</v>
       </c>
       <c r="L221" t="n">
-        <v>0</v>
+        <v>79.68642717783254</v>
       </c>
       <c r="M221" t="n">
-        <v>0</v>
+        <v>89.2493251638268</v>
       </c>
       <c r="N221" t="n">
-        <v>66.19610472533577</v>
+        <v>-32.77822053713761</v>
       </c>
       <c r="O221" t="n">
         <v>30</v>
       </c>
       <c r="P221" t="n">
-        <v>6951.234673538726</v>
+        <v>6951.238701857189</v>
       </c>
       <c r="Q221" t="n">
-        <v>-1.792012080192631</v>
+        <v>-1.796608475215755</v>
       </c>
       <c r="R221" t="n">
-        <v>-863.3730034116229</v>
+        <v>-863.340266767652</v>
       </c>
       <c r="S221" t="n">
-        <v>0.9126143148011863</v>
+        <v>0.9125786846530198</v>
       </c>
       <c r="T221" t="n">
-        <v>-1.042462941374631</v>
+        <v>-1.04246293152504</v>
       </c>
       <c r="U221" t="n">
-        <v>7.416363516354417</v>
+        <v>7.416367953468956</v>
       </c>
       <c r="V221" t="n">
-        <v>7.544669752774627</v>
+        <v>7.544669803280202</v>
       </c>
       <c r="W221" t="n">
-        <v>-6.980817078413762</v>
+        <v>-6.980545684280327</v>
       </c>
       <c r="X221" t="n">
-        <v>-62.85250215028629</v>
+        <v>-62.85255853413109</v>
       </c>
       <c r="Y221" t="n">
-        <v>626.823544918513</v>
+        <v>626.8234844952367</v>
       </c>
     </row>
     <row r="222">
@@ -23078,75 +23078,75 @@
         <v>4</v>
       </c>
       <c r="C287" t="n">
-        <v>303.8270933232018</v>
+        <v>303.8270936782006</v>
       </c>
       <c r="D287" t="n">
-        <v>1.925323354416311e-06</v>
+        <v>1.74871931017541e-06</v>
       </c>
       <c r="E287" t="n">
-        <v>2900.415618461985</v>
+        <v>2900.415637872619</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>21 Jun 2025 11:47:56.706456571</t>
+          <t>21 Jun 2025 11:47:56.706460279</t>
         </is>
       </c>
       <c r="G287" t="n">
-        <v>96.99122827567047</v>
+        <v>0.7951234922055754</v>
       </c>
       <c r="H287" t="n">
-        <v>93.98092831903065</v>
+        <v>-2.215176464434236</v>
       </c>
       <c r="I287" t="n">
-        <v>1e-30</v>
+        <v>0.1365694179562617</v>
       </c>
       <c r="J287" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K287" t="n">
-        <v>187.8040153127361</v>
+        <v>187.8040153708652</v>
       </c>
       <c r="L287" t="n">
-        <v>3.1945284701302e-06</v>
+        <v>92.93135741298789</v>
       </c>
       <c r="M287" t="n">
-        <v>116.9854482542648</v>
+        <v>-103.5726969488867</v>
       </c>
       <c r="N287" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O287" t="n">
         <v>30</v>
       </c>
       <c r="P287" t="n">
-        <v>6728.143035499279</v>
+        <v>6728.143043257151</v>
       </c>
       <c r="Q287" t="n">
-        <v>159.7869475724812</v>
+        <v>159.7869437642877</v>
       </c>
       <c r="R287" t="n">
-        <v>-1946.100117601477</v>
+        <v>-1946.100091000592</v>
       </c>
       <c r="S287" t="n">
-        <v>2.092148484788167</v>
+        <v>2.092148455842788</v>
       </c>
       <c r="T287" t="n">
-        <v>-1.027119593823135</v>
+        <v>-1.027119594510455</v>
       </c>
       <c r="U287" t="n">
-        <v>7.173729183111705</v>
+        <v>7.173729191506509</v>
       </c>
       <c r="V287" t="n">
-        <v>7.542840998923771</v>
+        <v>7.542840998972822</v>
       </c>
       <c r="W287" t="n">
-        <v>-16.07959382374705</v>
+        <v>-16.07959359617257</v>
       </c>
       <c r="X287" t="n">
-        <v>-85.22961730802203</v>
+        <v>-85.22961733901899</v>
       </c>
       <c r="Y287" t="n">
-        <v>629.2570204287372</v>
+        <v>629.2570203580765</v>
       </c>
     </row>
     <row r="288">
@@ -28687,75 +28687,75 @@
         <v>6</v>
       </c>
       <c r="C358" t="n">
-        <v>350.89892125894</v>
+        <v>350.8987511417969</v>
       </c>
       <c r="D358" t="n">
-        <v>6.815082665456964e-05</v>
+        <v>0.0002677859384642242</v>
       </c>
       <c r="E358" t="n">
-        <v>2889.850990753781</v>
+        <v>2889.829006021236</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>21 Jun 2025 22:26:05.021079325</t>
+          <t>21 Jun 2025 22:26:05.024441706</t>
         </is>
       </c>
       <c r="G358" t="n">
-        <v>97.02292398101876</v>
+        <v>1.477890482199905</v>
       </c>
       <c r="H358" t="n">
-        <v>94.01262402437895</v>
+        <v>-1.532409474439907</v>
       </c>
       <c r="I358" t="n">
-        <v>1e-30</v>
+        <v>0.117913709223231</v>
       </c>
       <c r="J358" t="n">
-        <v>96.19610472533579</v>
+        <v>0.6510051477856665</v>
       </c>
       <c r="K358" t="n">
-        <v>187.7723196073878</v>
+        <v>187.7722535286566</v>
       </c>
       <c r="L358" t="n">
-        <v>0</v>
+        <v>49.26955871601777</v>
       </c>
       <c r="M358" t="n">
-        <v>0</v>
+        <v>86.09976851425164</v>
       </c>
       <c r="N358" t="n">
-        <v>66.19610472533577</v>
+        <v>-29.34899485221433</v>
       </c>
       <c r="O358" t="n">
         <v>30</v>
       </c>
       <c r="P358" t="n">
-        <v>-6950.060943499308</v>
+        <v>-6950.057814164281</v>
       </c>
       <c r="Q358" t="n">
-        <v>179.1177516974853</v>
+        <v>179.1211764979613</v>
       </c>
       <c r="R358" t="n">
-        <v>-855.1635051850581</v>
+        <v>-855.1884444294781</v>
       </c>
       <c r="S358" t="n">
-        <v>0.9306925986800516</v>
+        <v>0.9307197333410553</v>
       </c>
       <c r="T358" t="n">
-        <v>1.018563861267975</v>
+        <v>1.01856316194788</v>
       </c>
       <c r="U358" t="n">
-        <v>-7.417295597448899</v>
+        <v>-7.417292249467597</v>
       </c>
       <c r="V358" t="n">
-        <v>7.544530139952639</v>
+        <v>7.544530101399277</v>
       </c>
       <c r="W358" t="n">
-        <v>-7.197103467187875</v>
+        <v>-7.19731019087798</v>
       </c>
       <c r="X358" t="n">
-        <v>-68.03810348385454</v>
+        <v>-68.03814643383602</v>
       </c>
       <c r="Y358" t="n">
-        <v>626.9611649533014</v>
+        <v>626.9612113758017</v>
       </c>
     </row>
     <row r="359">
@@ -28766,13 +28766,13 @@
         <v>6</v>
       </c>
       <c r="C359" t="n">
-        <v>350.3824604278171</v>
+        <v>350.3824604278114</v>
       </c>
       <c r="D359" t="n">
-        <v>0.5985789441273685</v>
+        <v>0.5985789441402068</v>
       </c>
       <c r="E359" t="n">
-        <v>2824.700990368887</v>
+        <v>2824.700990367521</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
@@ -28780,52 +28780,52 @@
         </is>
       </c>
       <c r="G359" t="n">
-        <v>97.22098333345983</v>
+        <v>-6.835966442834406</v>
       </c>
       <c r="H359" t="n">
-        <v>94.21068337682001</v>
+        <v>-9.846266399474219</v>
       </c>
       <c r="I359" t="n">
-        <v>1e-30</v>
+        <v>0.324482897320823</v>
       </c>
       <c r="J359" t="n">
-        <v>96.19610472533579</v>
+        <v>-7.86084505096265</v>
       </c>
       <c r="K359" t="n">
-        <v>187.5742602549468</v>
+        <v>187.5742602549425</v>
       </c>
       <c r="L359" t="n">
-        <v>0</v>
+        <v>50.52345142699267</v>
       </c>
       <c r="M359" t="n">
-        <v>0</v>
+        <v>86.45018214395378</v>
       </c>
       <c r="N359" t="n">
-        <v>66.19610472533577</v>
+        <v>-37.86084505096265</v>
       </c>
       <c r="O359" t="n">
         <v>30</v>
       </c>
       <c r="P359" t="n">
-        <v>-6940.372194346394</v>
+        <v>-6940.372194346198</v>
       </c>
       <c r="Q359" t="n">
-        <v>189.2712607172035</v>
+        <v>189.2712607172584</v>
       </c>
       <c r="R359" t="n">
-        <v>-929.1275408554427</v>
+        <v>-929.1275408569608</v>
       </c>
       <c r="S359" t="n">
-        <v>1.011165727513311</v>
+        <v>1.01116572751494</v>
       </c>
       <c r="T359" t="n">
-        <v>1.016429658132593</v>
+        <v>1.016429658132571</v>
       </c>
       <c r="U359" t="n">
-        <v>-7.406930069934553</v>
+        <v>-7.406930069934327</v>
       </c>
       <c r="V359" t="n">
-        <v>7.544415049513762</v>
+        <v>7.544415049513756</v>
       </c>
       <c r="W359" t="n">
         <v>-7.810594156617218</v>
@@ -28845,13 +28845,13 @@
         <v>6</v>
       </c>
       <c r="C360" t="n">
-        <v>349.8406481171185</v>
+        <v>349.8406481171124</v>
       </c>
       <c r="D360" t="n">
-        <v>1.210945398263044</v>
+        <v>1.210945398276034</v>
       </c>
       <c r="E360" t="n">
-        <v>2759.620720854246</v>
+        <v>2759.620720852884</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
@@ -28859,52 +28859,52 @@
         </is>
       </c>
       <c r="G360" t="n">
-        <v>97.42344503309049</v>
+        <v>1.423222038029925</v>
       </c>
       <c r="H360" t="n">
-        <v>94.41314507645068</v>
+        <v>-1.587077918609887</v>
       </c>
       <c r="I360" t="n">
-        <v>1e-30</v>
+        <v>0.1193897615893139</v>
       </c>
       <c r="J360" t="n">
-        <v>96.19610472533579</v>
+        <v>0.1958817302709326</v>
       </c>
       <c r="K360" t="n">
-        <v>187.3717985553161</v>
+        <v>187.3717985553118</v>
       </c>
       <c r="L360" t="n">
-        <v>0</v>
+        <v>51.84185541930918</v>
       </c>
       <c r="M360" t="n">
-        <v>0</v>
+        <v>86.82987531955597</v>
       </c>
       <c r="N360" t="n">
-        <v>66.19610472533577</v>
+        <v>-29.80411826972907</v>
       </c>
       <c r="O360" t="n">
         <v>30</v>
       </c>
       <c r="P360" t="n">
-        <v>-6929.85801507718</v>
+        <v>-6929.858015076963</v>
       </c>
       <c r="Q360" t="n">
-        <v>199.4242650157036</v>
+        <v>199.4242650157566</v>
       </c>
       <c r="R360" t="n">
-        <v>-1003.139757153088</v>
+        <v>-1003.139757154597</v>
       </c>
       <c r="S360" t="n">
-        <v>1.091687243716322</v>
+        <v>1.091687243717942</v>
       </c>
       <c r="T360" t="n">
-        <v>1.014173177910088</v>
+        <v>1.014173177910066</v>
       </c>
       <c r="U360" t="n">
-        <v>-7.395681835083831</v>
+        <v>-7.395681835083592</v>
       </c>
       <c r="V360" t="n">
-        <v>7.544298382134294</v>
+        <v>7.544298382134292</v>
       </c>
       <c r="W360" t="n">
         <v>-8.425325041172687</v>
@@ -28924,13 +28924,13 @@
         <v>6</v>
       </c>
       <c r="C361" t="n">
-        <v>349.2727649282673</v>
+        <v>349.2727649282576</v>
       </c>
       <c r="D361" t="n">
-        <v>1.836675396899166</v>
+        <v>1.836675396912225</v>
       </c>
       <c r="E361" t="n">
-        <v>2694.770616194209</v>
+        <v>2694.770616192868</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
@@ -28938,52 +28938,52 @@
         </is>
       </c>
       <c r="G361" t="n">
-        <v>97.62999691448914</v>
+        <v>0.7805784050554954</v>
       </c>
       <c r="H361" t="n">
-        <v>94.61969695784933</v>
+        <v>-2.229721551584317</v>
       </c>
       <c r="I361" t="n">
-        <v>1e-30</v>
+        <v>0.1369710842075576</v>
       </c>
       <c r="J361" t="n">
-        <v>96.19610472533579</v>
+        <v>-0.6533137841022073</v>
       </c>
       <c r="K361" t="n">
-        <v>187.1652466739174</v>
+        <v>187.1652466739131</v>
       </c>
       <c r="L361" t="n">
-        <v>0</v>
+        <v>53.22619917917065</v>
       </c>
       <c r="M361" t="n">
-        <v>0</v>
+        <v>87.24171469794346</v>
       </c>
       <c r="N361" t="n">
-        <v>66.19610472533577</v>
+        <v>-30.65331378410221</v>
       </c>
       <c r="O361" t="n">
         <v>30</v>
       </c>
       <c r="P361" t="n">
-        <v>-6918.53928597504</v>
+        <v>-6918.539285974798</v>
       </c>
       <c r="Q361" t="n">
-        <v>209.5541214271876</v>
+        <v>209.5541214273957</v>
       </c>
       <c r="R361" t="n">
-        <v>-1077.035196133933</v>
+        <v>-1077.035196135444</v>
       </c>
       <c r="S361" t="n">
-        <v>1.172077611538851</v>
+        <v>1.172077611540494</v>
       </c>
       <c r="T361" t="n">
-        <v>1.011799081105447</v>
+        <v>1.011799081105399</v>
       </c>
       <c r="U361" t="n">
-        <v>-7.383573295005593</v>
+        <v>-7.383573295005337</v>
       </c>
       <c r="V361" t="n">
-        <v>7.544180400196975</v>
+        <v>7.544180400196974</v>
       </c>
       <c r="W361" t="n">
         <v>-9.039996996579658</v>
@@ -29003,13 +29003,13 @@
         <v>6</v>
       </c>
       <c r="C362" t="n">
-        <v>348.6768537525166</v>
+        <v>348.6768537525097</v>
       </c>
       <c r="D362" t="n">
-        <v>2.476578052116571</v>
+        <v>2.476578052130216</v>
       </c>
       <c r="E362" t="n">
-        <v>2630.175231082593</v>
+        <v>2630.175231081236</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
@@ -29017,49 +29017,49 @@
         </is>
       </c>
       <c r="G362" t="n">
-        <v>97.84073930546027</v>
+        <v>1.326568203371418</v>
       </c>
       <c r="H362" t="n">
-        <v>94.83043934882046</v>
+        <v>-1.683731753268395</v>
       </c>
       <c r="I362" t="n">
-        <v>1e-30</v>
+        <v>0.1220081533896623</v>
       </c>
       <c r="J362" t="n">
-        <v>96.19610472533579</v>
+        <v>-0.3180663767575609</v>
       </c>
       <c r="K362" t="n">
-        <v>186.9545042829463</v>
+        <v>186.9545042829418</v>
       </c>
       <c r="L362" t="n">
-        <v>0</v>
+        <v>54.68125932273958</v>
       </c>
       <c r="M362" t="n">
-        <v>0</v>
+        <v>87.68996681644869</v>
       </c>
       <c r="N362" t="n">
-        <v>66.19610472533577</v>
+        <v>-30.31806637675756</v>
       </c>
       <c r="O362" t="n">
         <v>30</v>
       </c>
       <c r="P362" t="n">
-        <v>-6906.41736566277</v>
+        <v>-6906.417365662519</v>
       </c>
       <c r="Q362" t="n">
-        <v>219.6596451837883</v>
+        <v>219.6596451838423</v>
       </c>
       <c r="R362" t="n">
-        <v>-1150.805263049266</v>
+        <v>-1150.805263050773</v>
       </c>
       <c r="S362" t="n">
-        <v>1.252327423181067</v>
+        <v>1.252327423182685</v>
       </c>
       <c r="T362" t="n">
-        <v>1.009307660919039</v>
+        <v>1.009307660919015</v>
       </c>
       <c r="U362" t="n">
-        <v>-7.370605967579078</v>
+        <v>-7.370605967578805</v>
       </c>
       <c r="V362" t="n">
         <v>7.544061125054164</v>
@@ -29082,13 +29082,13 @@
         <v>6</v>
       </c>
       <c r="C363" t="n">
-        <v>348.0507659283612</v>
+        <v>348.0507659283539</v>
       </c>
       <c r="D363" t="n">
-        <v>3.131514125172911</v>
+        <v>3.131514125186692</v>
       </c>
       <c r="E363" t="n">
-        <v>2565.861293842975</v>
+        <v>2565.861293841641</v>
       </c>
       <c r="F363" t="inlineStr">
         <is>
@@ -29096,52 +29096,52 @@
         </is>
       </c>
       <c r="G363" t="n">
-        <v>98.05576946874385</v>
+        <v>-1.554142071984961</v>
       </c>
       <c r="H363" t="n">
-        <v>95.04546951210403</v>
+        <v>-4.564442028624772</v>
       </c>
       <c r="I363" t="n">
-        <v>1e-30</v>
+        <v>0.2015305495717528</v>
       </c>
       <c r="J363" t="n">
-        <v>96.19610472533579</v>
+        <v>-3.41380681539756</v>
       </c>
       <c r="K363" t="n">
-        <v>186.7394741196627</v>
+        <v>186.7394741196582</v>
       </c>
       <c r="L363" t="n">
-        <v>0</v>
+        <v>56.21217726248179</v>
       </c>
       <c r="M363" t="n">
-        <v>0</v>
+        <v>88.17957272272793</v>
       </c>
       <c r="N363" t="n">
-        <v>66.19610472533577</v>
+        <v>-33.41380681539756</v>
       </c>
       <c r="O363" t="n">
         <v>30</v>
       </c>
       <c r="P363" t="n">
-        <v>-6893.493706087049</v>
+        <v>-6893.493706086788</v>
       </c>
       <c r="Q363" t="n">
-        <v>229.7396746746239</v>
+        <v>229.7396746746737</v>
       </c>
       <c r="R363" t="n">
-        <v>-1224.441378890428</v>
+        <v>-1224.441378891908</v>
       </c>
       <c r="S363" t="n">
-        <v>1.332427293202565</v>
+        <v>1.332427293204153</v>
       </c>
       <c r="T363" t="n">
-        <v>1.006699221034778</v>
+        <v>1.006699221034754</v>
       </c>
       <c r="U363" t="n">
-        <v>-7.356781473028338</v>
+        <v>-7.356781473028052</v>
       </c>
       <c r="V363" t="n">
-        <v>7.543940578715884</v>
+        <v>7.543940578715883</v>
       </c>
       <c r="W363" t="n">
         <v>-10.26915154692277</v>
@@ -29161,13 +29161,13 @@
         <v>6</v>
       </c>
       <c r="C364" t="n">
-        <v>347.3921399538592</v>
+        <v>347.392139953851</v>
       </c>
       <c r="D364" t="n">
-        <v>3.802397597954696</v>
+        <v>3.802397597969071</v>
       </c>
       <c r="E364" t="n">
-        <v>2501.857950992665</v>
+        <v>2501.857950991316</v>
       </c>
       <c r="F364" t="inlineStr">
         <is>
@@ -29175,52 +29175,52 @@
         </is>
       </c>
       <c r="G364" t="n">
-        <v>98.2751800187348</v>
+        <v>-4.868762159093721</v>
       </c>
       <c r="H364" t="n">
-        <v>95.26488006209499</v>
+        <v>-7.879062115733534</v>
       </c>
       <c r="I364" t="n">
-        <v>1e-30</v>
+        <v>0.2840328916478688</v>
       </c>
       <c r="J364" t="n">
-        <v>96.19610472533579</v>
+        <v>-6.947837452497429</v>
       </c>
       <c r="K364" t="n">
-        <v>186.5200635696718</v>
+        <v>186.5200635696671</v>
       </c>
       <c r="L364" t="n">
-        <v>0</v>
+        <v>57.82446957537528</v>
       </c>
       <c r="M364" t="n">
-        <v>0</v>
+        <v>88.71626788800874</v>
       </c>
       <c r="N364" t="n">
-        <v>66.19610472533577</v>
+        <v>-36.94783745249743</v>
       </c>
       <c r="O364" t="n">
         <v>30</v>
       </c>
       <c r="P364" t="n">
-        <v>-6879.769853567515</v>
+        <v>-6879.769853567233</v>
       </c>
       <c r="Q364" t="n">
-        <v>239.7930312774305</v>
+        <v>239.7930312774841</v>
       </c>
       <c r="R364" t="n">
-        <v>-1297.934981409817</v>
+        <v>-1297.934981411318</v>
       </c>
       <c r="S364" t="n">
-        <v>1.412367853810513</v>
+        <v>1.412367853812124</v>
       </c>
       <c r="T364" t="n">
-        <v>1.00397408275397</v>
+        <v>1.003974082753945</v>
       </c>
       <c r="U364" t="n">
-        <v>-7.342101533631355</v>
+        <v>-7.342101533631046</v>
       </c>
       <c r="V364" t="n">
-        <v>7.543818783843557</v>
+        <v>7.543818783843555</v>
       </c>
       <c r="W364" t="n">
         <v>-10.88362784487646</v>
@@ -29240,13 +29240,13 @@
         <v>6</v>
       </c>
       <c r="C365" t="n">
-        <v>346.6983756590473</v>
+        <v>346.6983756590386</v>
       </c>
       <c r="D365" t="n">
-        <v>4.49019642319803</v>
+        <v>4.49019642321271</v>
       </c>
       <c r="E365" t="n">
-        <v>2438.197056645965</v>
+        <v>2438.197056644619</v>
       </c>
       <c r="F365" t="inlineStr">
         <is>
@@ -29254,52 +29254,52 @@
         </is>
       </c>
       <c r="G365" t="n">
-        <v>98.49905692441652</v>
+        <v>-0.01695638897077014</v>
       </c>
       <c r="H365" t="n">
-        <v>95.48875696777672</v>
+        <v>-3.027256345610582</v>
       </c>
       <c r="I365" t="n">
-        <v>1e-30</v>
+        <v>0.1591276232501369</v>
       </c>
       <c r="J365" t="n">
-        <v>96.19610472533579</v>
+        <v>-2.319908588056319</v>
       </c>
       <c r="K365" t="n">
-        <v>186.2961866639901</v>
+        <v>186.2961866639853</v>
       </c>
       <c r="L365" t="n">
-        <v>0</v>
+        <v>59.52403268346123</v>
       </c>
       <c r="M365" t="n">
-        <v>0</v>
+        <v>89.30672485252241</v>
       </c>
       <c r="N365" t="n">
-        <v>66.19610472533577</v>
+        <v>-32.31990858805631</v>
       </c>
       <c r="O365" t="n">
         <v>30</v>
       </c>
       <c r="P365" t="n">
-        <v>-6865.247447270015</v>
+        <v>-6865.247447269712</v>
       </c>
       <c r="Q365" t="n">
-        <v>249.8185597313957</v>
+        <v>249.8185597314478</v>
       </c>
       <c r="R365" t="n">
-        <v>-1371.27752615162</v>
+        <v>-1371.277526153118</v>
       </c>
       <c r="S365" t="n">
-        <v>1.492139761924834</v>
+        <v>1.49213976192644</v>
       </c>
       <c r="T365" t="n">
-        <v>1.001132577304067</v>
+        <v>1.001132577304041</v>
       </c>
       <c r="U365" t="n">
-        <v>-7.326567973441994</v>
+        <v>-7.32656797344167</v>
       </c>
       <c r="V365" t="n">
-        <v>7.543695763743559</v>
+        <v>7.543695763743558</v>
       </c>
       <c r="W365" t="n">
         <v>-11.49803261832093</v>
@@ -29319,13 +29319,13 @@
         <v>6</v>
       </c>
       <c r="C366" t="n">
-        <v>345.966606883455</v>
+        <v>345.966606883442</v>
       </c>
       <c r="D366" t="n">
-        <v>5.195932396736853</v>
+        <v>5.195932396751693</v>
       </c>
       <c r="E366" t="n">
-        <v>2374.913486347172</v>
+        <v>2374.913486345863</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
@@ -29333,52 +29333,52 @@
         </is>
       </c>
       <c r="G366" t="n">
-        <v>98.72747710331086</v>
+        <v>-3.214496666011772</v>
       </c>
       <c r="H366" t="n">
-        <v>95.71717714667105</v>
+        <v>-6.224796622651583</v>
       </c>
       <c r="I366" t="n">
-        <v>1e-30</v>
+        <v>0.2448841874477072</v>
       </c>
       <c r="J366" t="n">
-        <v>96.19610472533579</v>
+        <v>-5.745869043991646</v>
       </c>
       <c r="K366" t="n">
-        <v>186.0677664850957</v>
+        <v>186.0677664850909</v>
       </c>
       <c r="L366" t="n">
-        <v>0</v>
+        <v>61.31713342611557</v>
       </c>
       <c r="M366" t="n">
-        <v>0</v>
+        <v>89.95872183732776</v>
       </c>
       <c r="N366" t="n">
-        <v>66.19610472533577</v>
+        <v>-35.74586904399165</v>
       </c>
       <c r="O366" t="n">
         <v>30</v>
       </c>
       <c r="P366" t="n">
-        <v>-6849.928220159114</v>
+        <v>-6849.928220158792</v>
       </c>
       <c r="Q366" t="n">
-        <v>259.8150931135349</v>
+        <v>259.8150931137397</v>
       </c>
       <c r="R366" t="n">
-        <v>-1444.460487469284</v>
+        <v>-1444.460487470779</v>
       </c>
       <c r="S366" t="n">
-        <v>1.571733695216784</v>
+        <v>1.571733695218411</v>
       </c>
       <c r="T366" t="n">
-        <v>0.9981750527442228</v>
+        <v>0.9981750527441631</v>
       </c>
       <c r="U366" t="n">
-        <v>-7.310182717970199</v>
+        <v>-7.310182717969853</v>
       </c>
       <c r="V366" t="n">
-        <v>7.543571542360482</v>
+        <v>7.543571542360478</v>
       </c>
       <c r="W366" t="n">
         <v>-12.11236270506874</v>
@@ -29398,13 +29398,13 @@
         <v>6</v>
       </c>
       <c r="C367" t="n">
-        <v>345.1936694228073</v>
+        <v>345.1936694227937</v>
       </c>
       <c r="D367" t="n">
-        <v>5.920679531354386</v>
+        <v>5.920679531369426</v>
       </c>
       <c r="E367" t="n">
-        <v>2312.045501405214</v>
+        <v>2312.045501403933</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
@@ -29412,52 +29412,52 @@
         </is>
       </c>
       <c r="G367" t="n">
-        <v>98.96050544131681</v>
+        <v>-0.03476076499620716</v>
       </c>
       <c r="H367" t="n">
-        <v>95.950205484677</v>
+        <v>-3.045060721636019</v>
       </c>
       <c r="I367" t="n">
-        <v>1e-30</v>
+        <v>0.1596236113665946</v>
       </c>
       <c r="J367" t="n">
-        <v>96.19610472533579</v>
+        <v>-2.799161480982045</v>
       </c>
       <c r="K367" t="n">
-        <v>185.8347381470898</v>
+        <v>185.8347381470849</v>
       </c>
       <c r="L367" t="n">
-        <v>0</v>
+        <v>63.21038399575591</v>
       </c>
       <c r="M367" t="n">
-        <v>0</v>
+        <v>90.68134226147606</v>
       </c>
       <c r="N367" t="n">
-        <v>66.19610472533577</v>
+        <v>-32.79916148098204</v>
       </c>
       <c r="O367" t="n">
         <v>30</v>
       </c>
       <c r="P367" t="n">
-        <v>-6833.813998080477</v>
+        <v>-6833.813998080145</v>
       </c>
       <c r="Q367" t="n">
-        <v>269.7814730644023</v>
+        <v>269.781473064602</v>
       </c>
       <c r="R367" t="n">
-        <v>-1517.475359547702</v>
+        <v>-1517.47535954917</v>
       </c>
       <c r="S367" t="n">
-        <v>1.651140356216638</v>
+        <v>1.651140356218235</v>
       </c>
       <c r="T367" t="n">
-        <v>0.9951018699190273</v>
+        <v>0.9951018699189643</v>
       </c>
       <c r="U367" t="n">
-        <v>-7.29294779386633</v>
+        <v>-7.292947793865975</v>
       </c>
       <c r="V367" t="n">
-        <v>7.543446144270092</v>
+        <v>7.54344614427009</v>
       </c>
       <c r="W367" t="n">
         <v>-12.72661493601407</v>
@@ -29477,13 +29477,13 @@
         <v>6</v>
       </c>
       <c r="C368" t="n">
-        <v>344.3760656479996</v>
+        <v>344.3760656479888</v>
       </c>
       <c r="D368" t="n">
-        <v>6.665560540395096</v>
+        <v>6.66556054041117</v>
       </c>
       <c r="E368" t="n">
-        <v>2249.635155684327</v>
+        <v>2249.635155683004</v>
       </c>
       <c r="F368" t="inlineStr">
         <is>
@@ -29491,52 +29491,52 @@
         </is>
       </c>
       <c r="G368" t="n">
-        <v>99.1981911728835</v>
+        <v>-21.34312846782506</v>
       </c>
       <c r="H368" t="n">
-        <v>96.18789121624368</v>
+        <v>-24.35342842446488</v>
       </c>
       <c r="I368" t="n">
-        <v>1e-30</v>
+        <v>0.4658632142586179</v>
       </c>
       <c r="J368" t="n">
-        <v>96.19610472533579</v>
+        <v>-24.34521491537789</v>
       </c>
       <c r="K368" t="n">
-        <v>185.5970524155231</v>
+        <v>185.597052415518</v>
       </c>
       <c r="L368" t="n">
-        <v>0</v>
+        <v>65.21069145037309</v>
       </c>
       <c r="M368" t="n">
-        <v>0</v>
+        <v>91.48520930454349</v>
       </c>
       <c r="N368" t="n">
-        <v>66.19610472533577</v>
+        <v>-54.34521491537788</v>
       </c>
       <c r="O368" t="n">
         <v>30</v>
       </c>
       <c r="P368" t="n">
-        <v>-6816.906699675715</v>
+        <v>-6816.906699675368</v>
       </c>
       <c r="Q368" t="n">
-        <v>279.7165449026685</v>
+        <v>279.7165449027192</v>
       </c>
       <c r="R368" t="n">
-        <v>-1590.313657420946</v>
+        <v>-1590.313657422431</v>
       </c>
       <c r="S368" t="n">
-        <v>1.730350472748464</v>
+        <v>1.730350472750057</v>
       </c>
       <c r="T368" t="n">
-        <v>0.9919134033932482</v>
+        <v>0.9919134033932213</v>
       </c>
       <c r="U368" t="n">
-        <v>-7.274865328581125</v>
+        <v>-7.274865328580747</v>
       </c>
       <c r="V368" t="n">
-        <v>7.543319594672082</v>
+        <v>7.543319594672078</v>
       </c>
       <c r="W368" t="n">
         <v>-13.34078613424013</v>
@@ -29556,13 +29556,13 @@
         <v>6</v>
       </c>
       <c r="C369" t="n">
-        <v>343.5099247621382</v>
+        <v>343.5099247621229</v>
       </c>
       <c r="D369" t="n">
-        <v>7.431740691485302</v>
+        <v>7.431740691501208</v>
       </c>
       <c r="E369" t="n">
-        <v>2187.728755479754</v>
+        <v>2187.72875547849</v>
       </c>
       <c r="F369" t="inlineStr">
         <is>
@@ -29570,52 +29570,52 @@
         </is>
       </c>
       <c r="G369" t="n">
-        <v>99.44056347354729</v>
+        <v>-25.69514883106461</v>
       </c>
       <c r="H369" t="n">
-        <v>96.43026351690747</v>
+        <v>-28.70544878770443</v>
       </c>
       <c r="I369" t="n">
-        <v>1e-30</v>
+        <v>0.479300606446466</v>
       </c>
       <c r="J369" t="n">
-        <v>96.19610472533579</v>
+        <v>-28.93960757928114</v>
       </c>
       <c r="K369" t="n">
-        <v>185.3546801148593</v>
+        <v>185.3546801148543</v>
       </c>
       <c r="L369" t="n">
-        <v>0</v>
+        <v>67.3251732479023</v>
       </c>
       <c r="M369" t="n">
-        <v>0</v>
+        <v>92.38276028591682</v>
       </c>
       <c r="N369" t="n">
-        <v>66.19610472533577</v>
+        <v>-58.93960757928114</v>
       </c>
       <c r="O369" t="n">
         <v>30</v>
       </c>
       <c r="P369" t="n">
-        <v>-6799.208336117654</v>
+        <v>-6799.208336117288</v>
       </c>
       <c r="Q369" t="n">
-        <v>289.619157760606</v>
+        <v>289.6191577608052</v>
       </c>
       <c r="R369" t="n">
-        <v>-1662.96691798644</v>
+        <v>-1662.966917987901</v>
       </c>
       <c r="S369" t="n">
-        <v>1.809354799092033</v>
+        <v>1.809354799093621</v>
       </c>
       <c r="T369" t="n">
-        <v>0.988610041401201</v>
+        <v>0.9886100414011328</v>
       </c>
       <c r="U369" t="n">
-        <v>-7.255937550012443</v>
+        <v>-7.255937550012052</v>
       </c>
       <c r="V369" t="n">
-        <v>7.543191919382486</v>
+        <v>7.543191919382481</v>
       </c>
       <c r="W369" t="n">
         <v>-13.95487311406279</v>
@@ -29635,13 +29635,13 @@
         <v>6</v>
       </c>
       <c r="C370" t="n">
-        <v>342.5909583414587</v>
+        <v>342.590958341446</v>
       </c>
       <c r="D370" t="n">
-        <v>8.220418130417988</v>
+        <v>8.220418130435084</v>
       </c>
       <c r="E370" t="n">
-        <v>2126.37737884184</v>
+        <v>2126.377378840534</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
@@ -29649,49 +29649,49 @@
         </is>
       </c>
       <c r="G370" t="n">
-        <v>99.68762610870655</v>
+        <v>1.321111785435333</v>
       </c>
       <c r="H370" t="n">
-        <v>96.67732615206674</v>
+        <v>-1.68918817120448</v>
       </c>
       <c r="I370" t="n">
-        <v>1e-30</v>
+        <v>0.1221562889140497</v>
       </c>
       <c r="J370" t="n">
-        <v>96.19610472533579</v>
+        <v>-2.170409597940782</v>
       </c>
       <c r="K370" t="n">
-        <v>185.1076174797</v>
+        <v>185.1076174796947</v>
       </c>
       <c r="L370" t="n">
-        <v>1.207418269725733e-06</v>
+        <v>69.56102450911523</v>
       </c>
       <c r="M370" t="n">
-        <v>-39.30309599812718</v>
+        <v>93.38856415308145</v>
       </c>
       <c r="N370" t="n">
-        <v>66.19610472533577</v>
+        <v>-32.17040959794078</v>
       </c>
       <c r="O370" t="n">
         <v>30</v>
       </c>
       <c r="P370" t="n">
-        <v>-6780.721010614368</v>
+        <v>-6780.721010613989</v>
       </c>
       <c r="Q370" t="n">
-        <v>299.4881696627325</v>
+        <v>299.4881696627823</v>
       </c>
       <c r="R370" t="n">
-        <v>-1735.426701019087</v>
+        <v>-1735.426701020564</v>
       </c>
       <c r="S370" t="n">
-        <v>1.888144117860495</v>
+        <v>1.88814411786208</v>
       </c>
       <c r="T370" t="n">
-        <v>0.985192184404435</v>
+        <v>0.9851921844044064</v>
       </c>
       <c r="U370" t="n">
-        <v>-7.236166786138111</v>
+        <v>-7.236166786137701</v>
       </c>
       <c r="V370" t="n">
         <v>7.543063144825922</v>
@@ -29714,13 +29714,13 @@
         <v>6</v>
       </c>
       <c r="C371" t="n">
-        <v>341.6144116796173</v>
+        <v>341.6144116796036</v>
       </c>
       <c r="D371" t="n">
-        <v>9.032809614031192</v>
+        <v>9.032809614048894</v>
       </c>
       <c r="E371" t="n">
-        <v>2065.637453556696</v>
+        <v>2065.6374535554</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
@@ -29728,52 +29728,52 @@
         </is>
       </c>
       <c r="G371" t="n">
-        <v>99.93935098761074</v>
+        <v>1.414714660851185</v>
       </c>
       <c r="H371" t="n">
-        <v>96.92905103097092</v>
+        <v>-1.595585295788627</v>
       </c>
       <c r="I371" t="n">
-        <v>1e-30</v>
+        <v>0.1196197896944358</v>
       </c>
       <c r="J371" t="n">
-        <v>96.19610472533579</v>
+        <v>-2.328531601429229</v>
       </c>
       <c r="K371" t="n">
-        <v>184.8558926007958</v>
+        <v>184.8558926007904</v>
       </c>
       <c r="L371" t="n">
-        <v>1.207418269725733e-06</v>
+        <v>71.92532084289944</v>
       </c>
       <c r="M371" t="n">
-        <v>-46.89294538619409</v>
+        <v>94.51968493219256</v>
       </c>
       <c r="N371" t="n">
-        <v>66.19610472533577</v>
+        <v>-32.32853160142923</v>
       </c>
       <c r="O371" t="n">
         <v>30</v>
       </c>
       <c r="P371" t="n">
-        <v>-6761.446918985867</v>
+        <v>-6761.446918985471</v>
       </c>
       <c r="Q371" t="n">
-        <v>309.3224278816551</v>
+        <v>309.3224278817053</v>
       </c>
       <c r="R371" t="n">
-        <v>-1807.684590178003</v>
+        <v>-1807.684590179476</v>
       </c>
       <c r="S371" t="n">
-        <v>1.966709238275862</v>
+        <v>1.966709238277441</v>
       </c>
       <c r="T371" t="n">
-        <v>0.9816602505408567</v>
+        <v>0.9816602505408276</v>
       </c>
       <c r="U371" t="n">
-        <v>-7.21555546462499</v>
+        <v>-7.21555546462456</v>
       </c>
       <c r="V371" t="n">
-        <v>7.542933298027441</v>
+        <v>7.542933298027437</v>
       </c>
       <c r="W371" t="n">
         <v>-15.18278162568623</v>
@@ -29793,13 +29793,13 @@
         <v>6</v>
       </c>
       <c r="C372" t="n">
-        <v>340.5750087553122</v>
+        <v>340.5750087552973</v>
       </c>
       <c r="D372" t="n">
-        <v>9.870129938788288</v>
+        <v>9.87012993880659</v>
       </c>
       <c r="E372" t="n">
-        <v>2005.571418548638</v>
+        <v>2005.57141854735</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
@@ -29807,52 +29807,52 @@
         </is>
       </c>
       <c r="G372" t="n">
-        <v>100.1956703405486</v>
+        <v>1.529869494405334</v>
       </c>
       <c r="H372" t="n">
-        <v>97.18537038390879</v>
+        <v>-1.480430462234479</v>
       </c>
       <c r="I372" t="n">
-        <v>1e-30</v>
+        <v>0.1165137577243718</v>
       </c>
       <c r="J372" t="n">
-        <v>96.19610472533579</v>
+        <v>-2.469696120813074</v>
       </c>
       <c r="K372" t="n">
-        <v>184.599573247858</v>
+        <v>184.5995732478524</v>
       </c>
       <c r="L372" t="n">
-        <v>1.207418269725733e-06</v>
+        <v>74.42473506387249</v>
       </c>
       <c r="M372" t="n">
-        <v>-47.12898464290309</v>
+        <v>95.79608985642059</v>
       </c>
       <c r="N372" t="n">
-        <v>66.19610472533577</v>
+        <v>-32.46969612081308</v>
       </c>
       <c r="O372" t="n">
         <v>30</v>
       </c>
       <c r="P372" t="n">
-        <v>-6741.388347839697</v>
+        <v>-6741.388347839285</v>
       </c>
       <c r="Q372" t="n">
-        <v>319.1208036755624</v>
+        <v>319.120803675607</v>
       </c>
       <c r="R372" t="n">
-        <v>-1879.732194019167</v>
+        <v>-1879.732194020636</v>
       </c>
       <c r="S372" t="n">
-        <v>2.045041002349432</v>
+        <v>2.045041002351006</v>
       </c>
       <c r="T372" t="n">
-        <v>0.9780146658986064</v>
+        <v>0.9780146658985778</v>
       </c>
       <c r="U372" t="n">
-        <v>-7.194106112441688</v>
+        <v>-7.194106112441242</v>
       </c>
       <c r="V372" t="n">
-        <v>7.542802406604192</v>
+        <v>7.542802406604189</v>
       </c>
       <c r="W372" t="n">
         <v>-15.7965967326565</v>
@@ -29872,13 +29872,13 @@
         <v>6</v>
       </c>
       <c r="C373" t="n">
-        <v>339.4668942006759</v>
+        <v>339.4668942006596</v>
       </c>
       <c r="D373" t="n">
-        <v>10.73356357366142</v>
+        <v>10.73356357368044</v>
       </c>
       <c r="E373" t="n">
-        <v>1946.248445031175</v>
+        <v>1946.248445029899</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
@@ -29886,52 +29886,52 @@
         </is>
       </c>
       <c r="G373" t="n">
-        <v>100.4564674057168</v>
+        <v>1.601785553275996</v>
       </c>
       <c r="H373" t="n">
-        <v>97.44616744907695</v>
+        <v>-1.408514403363816</v>
       </c>
       <c r="I373" t="n">
-        <v>1e-30</v>
+        <v>0.114582686284913</v>
       </c>
       <c r="J373" t="n">
-        <v>96.19610472533579</v>
+        <v>-2.658577127110686</v>
       </c>
       <c r="K373" t="n">
-        <v>184.3387761826898</v>
+        <v>184.3387761826841</v>
       </c>
       <c r="L373" t="n">
-        <v>1.478779333471098e-06</v>
+        <v>77.06513887591937</v>
       </c>
       <c r="M373" t="n">
-        <v>-47.52829769072124</v>
+        <v>97.24109671061296</v>
       </c>
       <c r="N373" t="n">
-        <v>66.19610472533577</v>
+        <v>-32.65857712711069</v>
       </c>
       <c r="O373" t="n">
         <v>30</v>
       </c>
       <c r="P373" t="n">
-        <v>-6720.547675791881</v>
+        <v>-6720.547675791455</v>
       </c>
       <c r="Q373" t="n">
-        <v>328.8821578494505</v>
+        <v>328.8821578495017</v>
       </c>
       <c r="R373" t="n">
-        <v>-1951.561146995013</v>
+        <v>-1951.561146996482</v>
       </c>
       <c r="S373" t="n">
-        <v>2.123130280996634</v>
+        <v>2.123130280998211</v>
       </c>
       <c r="T373" t="n">
-        <v>0.9742558742463017</v>
+        <v>0.9742558742462706</v>
       </c>
       <c r="U373" t="n">
-        <v>-7.171821355431758</v>
+        <v>-7.171821355431295</v>
       </c>
       <c r="V373" t="n">
-        <v>7.542670498756743</v>
+        <v>7.542670498756741</v>
       </c>
       <c r="W373" t="n">
         <v>-16.41031476911569</v>
@@ -29951,13 +29951,13 @@
         <v>6</v>
       </c>
       <c r="C374" t="n">
-        <v>338.2835694062981</v>
+        <v>338.2835694062805</v>
       </c>
       <c r="D374" t="n">
-        <v>11.62422574070993</v>
+        <v>11.62422574072953</v>
       </c>
       <c r="E374" t="n">
-        <v>1887.745252852451</v>
+        <v>1887.745252851189</v>
       </c>
       <c r="F374" t="inlineStr">
         <is>
@@ -29965,52 +29965,52 @@
         </is>
       </c>
       <c r="G374" t="n">
-        <v>100.7215652413277</v>
+        <v>-23.94188890010753</v>
       </c>
       <c r="H374" t="n">
-        <v>97.71126528468787</v>
+        <v>-26.95218885674734</v>
       </c>
       <c r="I374" t="n">
-        <v>1e-30</v>
+        <v>0.474676504191101</v>
       </c>
       <c r="J374" t="n">
-        <v>96.19610472533579</v>
+        <v>-28.46734941610525</v>
       </c>
       <c r="K374" t="n">
-        <v>184.0736783470789</v>
+        <v>184.073678347073</v>
       </c>
       <c r="L374" t="n">
-        <v>1.478779333471098e-06</v>
+        <v>79.85105740126536</v>
       </c>
       <c r="M374" t="n">
-        <v>-48.06972414845368</v>
+        <v>98.88184602533579</v>
       </c>
       <c r="N374" t="n">
-        <v>66.19610472533577</v>
+        <v>-58.46734941610525</v>
       </c>
       <c r="O374" t="n">
         <v>30</v>
       </c>
       <c r="P374" t="n">
-        <v>-6698.92737201112</v>
+        <v>-6698.927372010678</v>
       </c>
       <c r="Q374" t="n">
-        <v>338.6053655199049</v>
+        <v>338.6053655199482</v>
       </c>
       <c r="R374" t="n">
-        <v>-2023.16311045978</v>
+        <v>-2023.16311046124</v>
       </c>
       <c r="S374" t="n">
-        <v>2.200967978752778</v>
+        <v>2.200967978754342</v>
       </c>
       <c r="T374" t="n">
-        <v>0.9703843297416214</v>
+        <v>0.9703843297415916</v>
       </c>
       <c r="U374" t="n">
-        <v>-7.148703917892277</v>
+        <v>-7.148703917891798</v>
       </c>
       <c r="V374" t="n">
-        <v>7.542537603260031</v>
+        <v>7.54253760326003</v>
       </c>
       <c r="W374" t="n">
         <v>-17.02393248856464</v>
@@ -30030,13 +30030,13 @@
         <v>6</v>
       </c>
       <c r="C375" t="n">
-        <v>337.0178268488684</v>
+        <v>337.017826848849</v>
       </c>
       <c r="D375" t="n">
-        <v>12.54311040767007</v>
+        <v>12.54311040769044</v>
       </c>
       <c r="E375" t="n">
-        <v>1830.146996850371</v>
+        <v>1830.146996849125</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
@@ -30044,52 +30044,52 @@
         </is>
       </c>
       <c r="G375" t="n">
-        <v>100.9907135069482</v>
+        <v>-1.139664168271398</v>
       </c>
       <c r="H375" t="n">
-        <v>97.9804135503084</v>
+        <v>-4.14996412491121</v>
       </c>
       <c r="I375" t="n">
-        <v>1e-30</v>
+        <v>0.1902338880753557</v>
       </c>
       <c r="J375" t="n">
-        <v>96.19610472533579</v>
+        <v>-5.934272949889749</v>
       </c>
       <c r="K375" t="n">
-        <v>183.8045300814584</v>
+        <v>183.8045300814524</v>
       </c>
       <c r="L375" t="n">
-        <v>2.091309789151873e-06</v>
+        <v>82.78493586567824</v>
       </c>
       <c r="M375" t="n">
-        <v>-48.73629625824573</v>
+        <v>100.7497723901014</v>
       </c>
       <c r="N375" t="n">
-        <v>66.19610472533577</v>
+        <v>-35.93427294988975</v>
       </c>
       <c r="O375" t="n">
         <v>30</v>
       </c>
       <c r="P375" t="n">
-        <v>-6676.529997076774</v>
+        <v>-6676.529997076316</v>
       </c>
       <c r="Q375" t="n">
-        <v>348.2892917684958</v>
+        <v>348.289291768545</v>
       </c>
       <c r="R375" t="n">
-        <v>-2094.529773665804</v>
+        <v>-2094.529773667263</v>
       </c>
       <c r="S375" t="n">
-        <v>2.278545031352871</v>
+        <v>2.278545031354435</v>
       </c>
       <c r="T375" t="n">
-        <v>0.9664005046762412</v>
+        <v>0.9664005046762094</v>
       </c>
       <c r="U375" t="n">
-        <v>-7.124756622119527</v>
+        <v>-7.12475662211903</v>
       </c>
       <c r="V375" t="n">
-        <v>7.542403749453977</v>
+        <v>7.542403749453976</v>
       </c>
       <c r="W375" t="n">
         <v>-17.63744662835076</v>
@@ -30109,13 +30109,13 @@
         <v>6</v>
       </c>
       <c r="C376" t="n">
-        <v>335.6616816459779</v>
+        <v>335.6616816459572</v>
       </c>
       <c r="D376" t="n">
-        <v>13.49102119753335</v>
+        <v>13.49102119755408</v>
       </c>
       <c r="E376" t="n">
-        <v>1773.548252073509</v>
+        <v>1773.548252072303</v>
       </c>
       <c r="F376" t="inlineStr">
         <is>
@@ -30123,52 +30123,52 @@
         </is>
       </c>
       <c r="G376" t="n">
-        <v>101.2635728053988</v>
+        <v>1.820342124028904</v>
       </c>
       <c r="H376" t="n">
-        <v>98.25327284875898</v>
+        <v>-1.189957832610909</v>
       </c>
       <c r="I376" t="n">
-        <v>1e-30</v>
+        <v>0.1087592691752298</v>
       </c>
       <c r="J376" t="n">
-        <v>96.19610472533579</v>
+        <v>-3.247125956040029</v>
       </c>
       <c r="K376" t="n">
-        <v>183.5316707830077</v>
+        <v>183.5316707830019</v>
       </c>
       <c r="L376" t="n">
-        <v>2.414836539451468e-06</v>
+        <v>85.86617524843433</v>
       </c>
       <c r="M376" t="n">
-        <v>-52.23079200740953</v>
+        <v>102.8810310402869</v>
       </c>
       <c r="N376" t="n">
-        <v>66.19610472533577</v>
+        <v>-33.24712595604003</v>
       </c>
       <c r="O376" t="n">
         <v>30</v>
       </c>
       <c r="P376" t="n">
-        <v>-6653.358200903838</v>
+        <v>-6653.358200903374</v>
       </c>
       <c r="Q376" t="n">
-        <v>357.9328259578729</v>
+        <v>357.9328259579184</v>
       </c>
       <c r="R376" t="n">
-        <v>-2165.652854763362</v>
+        <v>-2165.652854764789</v>
       </c>
       <c r="S376" t="n">
-        <v>2.355852411812121</v>
+        <v>2.355852411813651</v>
       </c>
       <c r="T376" t="n">
-        <v>0.9623048781464288</v>
+        <v>0.9623048781464001</v>
       </c>
       <c r="U376" t="n">
-        <v>-7.099982387960584</v>
+        <v>-7.099982387960076</v>
       </c>
       <c r="V376" t="n">
-        <v>7.542268967233659</v>
+        <v>7.542268967233655</v>
       </c>
       <c r="W376" t="n">
         <v>-18.25085390811497</v>
@@ -30188,13 +30188,13 @@
         <v>6</v>
       </c>
       <c r="C377" t="n">
-        <v>334.206307446823</v>
+        <v>334.2063074467997</v>
       </c>
       <c r="D377" t="n">
-        <v>14.46848154723283</v>
+        <v>14.46848154725457</v>
       </c>
       <c r="E377" t="n">
-        <v>1718.054054408673</v>
+        <v>1718.054054407466</v>
       </c>
       <c r="F377" t="inlineStr">
         <is>
@@ -30202,52 +30202,52 @@
         </is>
       </c>
       <c r="G377" t="n">
-        <v>101.539696502912</v>
+        <v>2.142735296570658</v>
       </c>
       <c r="H377" t="n">
-        <v>98.52939654627221</v>
+        <v>-0.8675646600691539</v>
       </c>
       <c r="I377" t="n">
-        <v>1e-30</v>
+        <v>0.1003105127950146</v>
       </c>
       <c r="J377" t="n">
-        <v>96.19610472533579</v>
+        <v>-3.200856481011698</v>
       </c>
       <c r="K377" t="n">
-        <v>183.2555470854945</v>
+        <v>183.2555470854884</v>
       </c>
       <c r="L377" t="n">
-        <v>2.831646840510159e-06</v>
+        <v>89.08989019653855</v>
       </c>
       <c r="M377" t="n">
-        <v>-52.74804048113835</v>
+        <v>105.3168131147796</v>
       </c>
       <c r="N377" t="n">
-        <v>66.19610472533577</v>
+        <v>-33.2008564810117</v>
       </c>
       <c r="O377" t="n">
         <v>30</v>
       </c>
       <c r="P377" t="n">
-        <v>-6629.414724111422</v>
+        <v>-6629.414724110931</v>
       </c>
       <c r="Q377" t="n">
-        <v>367.5348477109338</v>
+        <v>367.5348477109882</v>
       </c>
       <c r="R377" t="n">
-        <v>-2236.524101789838</v>
+        <v>-2236.524101791284</v>
       </c>
       <c r="S377" t="n">
-        <v>2.432881126595114</v>
+        <v>2.432881126596668</v>
       </c>
       <c r="T377" t="n">
-        <v>0.958097947370308</v>
+        <v>0.9580979473702715</v>
       </c>
       <c r="U377" t="n">
-        <v>-7.074384232324519</v>
+        <v>-7.074384232323987</v>
       </c>
       <c r="V377" t="n">
-        <v>7.542133287038865</v>
+        <v>7.542133287038864</v>
       </c>
       <c r="W377" t="n">
         <v>-18.86415102812796</v>
@@ -30267,13 +30267,13 @@
         <v>6</v>
       </c>
       <c r="C378" t="n">
-        <v>332.6419782689534</v>
+        <v>332.6419782689283</v>
       </c>
       <c r="D378" t="n">
-        <v>15.47561863717551</v>
+        <v>15.4756186371981</v>
       </c>
       <c r="E378" t="n">
-        <v>1663.781020205442</v>
+        <v>1663.781020204256</v>
       </c>
       <c r="F378" t="inlineStr">
         <is>
@@ -30281,52 +30281,52 @@
         </is>
       </c>
       <c r="G378" t="n">
-        <v>101.8185096631912</v>
+        <v>5.62240493786165</v>
       </c>
       <c r="H378" t="n">
-        <v>98.80820970655142</v>
+        <v>2.612104981221838</v>
       </c>
       <c r="I378" t="n">
-        <v>1e-30</v>
+        <v>0.02804200959790416</v>
       </c>
       <c r="J378" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K378" t="n">
-        <v>182.9767339252153</v>
+        <v>182.9767339252091</v>
       </c>
       <c r="L378" t="n">
-        <v>3.306651113363207e-06</v>
+        <v>92.44534960300739</v>
       </c>
       <c r="M378" t="n">
-        <v>-53.40840033210667</v>
+        <v>108.1034510803549</v>
       </c>
       <c r="N378" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O378" t="n">
         <v>30</v>
       </c>
       <c r="P378" t="n">
-        <v>-6604.702396373635</v>
+        <v>-6604.702396373128</v>
       </c>
       <c r="Q378" t="n">
-        <v>377.0942513660912</v>
+        <v>377.0942513661398</v>
       </c>
       <c r="R378" t="n">
-        <v>-2307.135293660149</v>
+        <v>-2307.13529366159</v>
       </c>
       <c r="S378" t="n">
-        <v>2.509622220249728</v>
+        <v>2.509622220251275</v>
       </c>
       <c r="T378" t="n">
-        <v>0.9537802192468152</v>
+        <v>0.9537802192467819</v>
       </c>
       <c r="U378" t="n">
-        <v>-7.047965268700339</v>
+        <v>-7.047965268699791</v>
       </c>
       <c r="V378" t="n">
-        <v>7.541996739843098</v>
+        <v>7.541996739843096</v>
       </c>
       <c r="W378" t="n">
         <v>-19.47733466751276</v>
@@ -30346,13 +30346,13 @@
         <v>6</v>
       </c>
       <c r="C379" t="n">
-        <v>330.9580274199554</v>
+        <v>330.958027419923</v>
       </c>
       <c r="D379" t="n">
-        <v>16.51201623902934</v>
+        <v>16.51201623905595</v>
       </c>
       <c r="E379" t="n">
-        <v>1610.858487409107</v>
+        <v>1610.858487407785</v>
       </c>
       <c r="F379" t="inlineStr">
         <is>
@@ -30360,52 +30360,52 @@
         </is>
       </c>
       <c r="G379" t="n">
-        <v>102.0992851839399</v>
+        <v>5.903180458611277</v>
       </c>
       <c r="H379" t="n">
-        <v>99.08898522730011</v>
+        <v>2.892880501971465</v>
       </c>
       <c r="I379" t="n">
-        <v>1e-30</v>
+        <v>0.02423951382099916</v>
       </c>
       <c r="J379" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K379" t="n">
-        <v>182.6959584044666</v>
+        <v>182.6959584044595</v>
       </c>
       <c r="L379" t="n">
-        <v>4.004553365700393e-06</v>
+        <v>95.91407672448882</v>
       </c>
       <c r="M379" t="n">
-        <v>-54.20388594810822</v>
+        <v>111.2921775548163</v>
       </c>
       <c r="N379" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O379" t="n">
         <v>30</v>
       </c>
       <c r="P379" t="n">
-        <v>-6579.224137084741</v>
+        <v>-6579.224137084144</v>
       </c>
       <c r="Q379" t="n">
-        <v>386.6099267508891</v>
+        <v>386.6099267509657</v>
       </c>
       <c r="R379" t="n">
-        <v>-2377.47824114987</v>
+        <v>-2377.478241151514</v>
       </c>
       <c r="S379" t="n">
-        <v>2.586066773712356</v>
+        <v>2.586066773714124</v>
       </c>
       <c r="T379" t="n">
-        <v>0.949352217316053</v>
+        <v>0.9493522173160056</v>
       </c>
       <c r="U379" t="n">
-        <v>-7.020728706643141</v>
+        <v>-7.020728706642494</v>
       </c>
       <c r="V379" t="n">
-        <v>7.541859357141646</v>
+        <v>7.541859357141645</v>
       </c>
       <c r="W379" t="n">
         <v>-20.09040148234562</v>
@@ -30425,13 +30425,13 @@
         <v>6</v>
       </c>
       <c r="C380" t="n">
-        <v>329.1428327226645</v>
+        <v>329.1428327226293</v>
       </c>
       <c r="D380" t="n">
-        <v>17.57653053286479</v>
+        <v>17.57653053288768</v>
       </c>
       <c r="E380" t="n">
-        <v>1559.429664567115</v>
+        <v>1559.429664566035</v>
       </c>
       <c r="F380" t="inlineStr">
         <is>
@@ -30439,52 +30439,52 @@
         </is>
       </c>
       <c r="G380" t="n">
-        <v>102.3811171492285</v>
+        <v>6.185012423898739</v>
       </c>
       <c r="H380" t="n">
-        <v>99.37081719258869</v>
+        <v>3.174712467258927</v>
       </c>
       <c r="I380" t="n">
-        <v>1e-30</v>
+        <v>0.02076406731232952</v>
       </c>
       <c r="J380" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K380" t="n">
-        <v>182.4141264391781</v>
+        <v>182.414126439172</v>
       </c>
       <c r="L380" t="n">
-        <v>4.753610481523075e-06</v>
+        <v>99.46761868667031</v>
       </c>
       <c r="M380" t="n">
-        <v>-55.12903929688766</v>
+        <v>114.9383468893634</v>
       </c>
       <c r="N380" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O380" t="n">
         <v>30</v>
       </c>
       <c r="P380" t="n">
-        <v>-6552.982953868544</v>
+        <v>-6552.982953867995</v>
       </c>
       <c r="Q380" t="n">
-        <v>396.0807785963484</v>
+        <v>396.0807785965407</v>
       </c>
       <c r="R380" t="n">
-        <v>-2447.544787875727</v>
+        <v>-2447.544787877161</v>
       </c>
       <c r="S380" t="n">
-        <v>2.662205908191461</v>
+        <v>2.662205908193019</v>
       </c>
       <c r="T380" t="n">
-        <v>0.9448144744163463</v>
+        <v>0.9448144744162531</v>
       </c>
       <c r="U380" t="n">
-        <v>-6.992677851260513</v>
+        <v>-6.992677851259931</v>
       </c>
       <c r="V380" t="n">
-        <v>7.541721170938734</v>
+        <v>7.541721170938732</v>
       </c>
       <c r="W380" t="n">
         <v>-20.70334810362424</v>
@@ -30504,13 +30504,13 @@
         <v>6</v>
       </c>
       <c r="C381" t="n">
-        <v>327.183847233129</v>
+        <v>327.1838472330958</v>
       </c>
       <c r="D381" t="n">
-        <v>18.66706459115971</v>
+        <v>18.66706459118462</v>
       </c>
       <c r="E381" t="n">
-        <v>1509.652698225122</v>
+        <v>1509.65269822402</v>
       </c>
       <c r="F381" t="inlineStr">
         <is>
@@ -30518,52 +30518,52 @@
         </is>
       </c>
       <c r="G381" t="n">
-        <v>102.662892026333</v>
+        <v>6.466787301003539</v>
       </c>
       <c r="H381" t="n">
-        <v>99.65259206969316</v>
+        <v>3.456487344363727</v>
       </c>
       <c r="I381" t="n">
-        <v>1e-30</v>
+        <v>0.01762724948536446</v>
       </c>
       <c r="J381" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K381" t="n">
-        <v>182.1323515620736</v>
+        <v>182.1323515620672</v>
       </c>
       <c r="L381" t="n">
-        <v>5.663293681020324e-06</v>
+        <v>103.0650598769228</v>
       </c>
       <c r="M381" t="n">
-        <v>-57.43646048875959</v>
+        <v>119.0998559450207</v>
       </c>
       <c r="N381" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O381" t="n">
         <v>30</v>
       </c>
       <c r="P381" t="n">
-        <v>-6525.98194327523</v>
+        <v>-6525.981943274682</v>
       </c>
       <c r="Q381" t="n">
-        <v>405.5057074575116</v>
+        <v>405.5057074575597</v>
       </c>
       <c r="R381" t="n">
-        <v>-2517.326811264616</v>
+        <v>-2517.326811266041</v>
       </c>
       <c r="S381" t="n">
-        <v>2.738030783478732</v>
+        <v>2.73803078348026</v>
       </c>
       <c r="T381" t="n">
-        <v>0.9401675400704554</v>
+        <v>0.9401675400704188</v>
       </c>
       <c r="U381" t="n">
-        <v>-6.963816102670915</v>
+        <v>-6.963816102670317</v>
       </c>
       <c r="V381" t="n">
-        <v>7.541582213733271</v>
+        <v>7.541582213733269</v>
       </c>
       <c r="W381" t="n">
         <v>-21.31617113510017</v>
@@ -30583,13 +30583,13 @@
         <v>6</v>
       </c>
       <c r="C382" t="n">
-        <v>325.0676958964078</v>
+        <v>325.0676958963609</v>
       </c>
       <c r="D382" t="n">
-        <v>19.78029810351052</v>
+        <v>19.78029810353756</v>
       </c>
       <c r="E382" t="n">
-        <v>1461.701598963323</v>
+        <v>1461.70159896219</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
@@ -30597,52 +30597,52 @@
         </is>
       </c>
       <c r="G382" t="n">
-        <v>102.9432585367925</v>
+        <v>6.747153811463495</v>
       </c>
       <c r="H382" t="n">
-        <v>99.93295858015273</v>
+        <v>3.736853854823683</v>
       </c>
       <c r="I382" t="n">
-        <v>1e-30</v>
+        <v>0.01483412368107768</v>
       </c>
       <c r="J382" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K382" t="n">
-        <v>181.851985051614</v>
+        <v>181.8519850516073</v>
       </c>
       <c r="L382" t="n">
-        <v>6.776618231767668e-06</v>
+        <v>106.6504574907175</v>
       </c>
       <c r="M382" t="n">
-        <v>-58.44654623334996</v>
+        <v>123.8343856917832</v>
       </c>
       <c r="N382" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O382" t="n">
         <v>30</v>
       </c>
       <c r="P382" t="n">
-        <v>-6498.224289212286</v>
+        <v>-6498.224289211636</v>
       </c>
       <c r="Q382" t="n">
-        <v>414.8836289730674</v>
+        <v>414.8836289732832</v>
       </c>
       <c r="R382" t="n">
-        <v>-2586.816223519327</v>
+        <v>-2586.816223520926</v>
       </c>
       <c r="S382" t="n">
-        <v>2.813532601785951</v>
+        <v>2.813532601787688</v>
       </c>
       <c r="T382" t="n">
-        <v>0.9354119726713567</v>
+        <v>0.9354119726712454</v>
       </c>
       <c r="U382" t="n">
-        <v>-6.934146955463072</v>
+        <v>-6.934146955462378</v>
       </c>
       <c r="V382" t="n">
-        <v>7.54144251850315</v>
+        <v>7.541442518503146</v>
       </c>
       <c r="W382" t="n">
         <v>-21.92886715096588</v>
@@ -30662,13 +30662,13 @@
         <v>6</v>
       </c>
       <c r="C383" t="n">
-        <v>322.780371178075</v>
+        <v>322.7803711780351</v>
       </c>
       <c r="D383" t="n">
-        <v>20.91137409726545</v>
+        <v>20.91137409729163</v>
       </c>
       <c r="E383" t="n">
-        <v>1415.766874314201</v>
+        <v>1415.766874313172</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
@@ -30676,52 +30676,52 @@
         </is>
       </c>
       <c r="G383" t="n">
-        <v>103.2205980451794</v>
+        <v>7.024493319849938</v>
       </c>
       <c r="H383" t="n">
-        <v>100.2102980885396</v>
+        <v>4.014193363210127</v>
       </c>
       <c r="I383" t="n">
-        <v>1e-30</v>
+        <v>0.01238268451992589</v>
       </c>
       <c r="J383" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K383" t="n">
-        <v>181.5746455432271</v>
+        <v>181.5746455432209</v>
       </c>
       <c r="L383" t="n">
-        <v>7.917571076845613e-06</v>
+        <v>110.1505462411676</v>
       </c>
       <c r="M383" t="n">
-        <v>-59.60671225016067</v>
+        <v>129.1949113664481</v>
       </c>
       <c r="N383" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O383" t="n">
         <v>30</v>
       </c>
       <c r="P383" t="n">
-        <v>-6469.713263675375</v>
+        <v>-6469.713263674797</v>
       </c>
       <c r="Q383" t="n">
-        <v>424.213454937406</v>
+        <v>424.2134549374534</v>
       </c>
       <c r="R383" t="n">
-        <v>-2656.004972568374</v>
+        <v>-2656.004972569784</v>
       </c>
       <c r="S383" t="n">
-        <v>2.888702606058341</v>
+        <v>2.888702606059853</v>
       </c>
       <c r="T383" t="n">
-        <v>0.9305483472769986</v>
+        <v>0.9305483472769626</v>
       </c>
       <c r="U383" t="n">
-        <v>-6.903673998129819</v>
+        <v>-6.903673998129188</v>
       </c>
       <c r="V383" t="n">
-        <v>7.541302118687591</v>
+        <v>7.541302118687589</v>
       </c>
       <c r="W383" t="n">
         <v>-22.54143269338136</v>
@@ -30741,13 +30741,13 @@
         <v>6</v>
       </c>
       <c r="C384" t="n">
-        <v>320.3075636003952</v>
+        <v>320.3075636003514</v>
       </c>
       <c r="D384" t="n">
-        <v>22.05355004676371</v>
+        <v>22.05355004679032</v>
       </c>
       <c r="E384" t="n">
-        <v>1372.05574137853</v>
+        <v>1372.055741377543</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
@@ -30755,52 +30755,52 @@
         </is>
       </c>
       <c r="G384" t="n">
-        <v>103.4929978685236</v>
+        <v>7.296893143194055</v>
       </c>
       <c r="H384" t="n">
-        <v>100.4826979118838</v>
+        <v>4.286593186554242</v>
       </c>
       <c r="I384" t="n">
-        <v>1e-30</v>
+        <v>0.01026369504631596</v>
       </c>
       <c r="J384" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K384" t="n">
-        <v>181.302245719883</v>
+        <v>181.3022457198767</v>
       </c>
       <c r="L384" t="n">
-        <v>9.507220963046184e-06</v>
+        <v>113.4733203073094</v>
       </c>
       <c r="M384" t="n">
-        <v>-61.71358510105397</v>
+        <v>135.222712837176</v>
       </c>
       <c r="N384" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O384" t="n">
         <v>30</v>
       </c>
       <c r="P384" t="n">
-        <v>-6440.45222510689</v>
+        <v>-6440.452225106297</v>
       </c>
       <c r="Q384" t="n">
-        <v>433.4941124027072</v>
+        <v>433.4941124027541</v>
       </c>
       <c r="R384" t="n">
-        <v>-2724.885043004887</v>
+        <v>-2724.885043006291</v>
       </c>
       <c r="S384" t="n">
-        <v>2.963532083752745</v>
+        <v>2.96353208375425</v>
       </c>
       <c r="T384" t="n">
-        <v>0.925577247307775</v>
+        <v>0.9255772473077386</v>
       </c>
       <c r="U384" t="n">
-        <v>-6.872400912507286</v>
+        <v>-6.87240091250664</v>
       </c>
       <c r="V384" t="n">
-        <v>7.541161048167364</v>
+        <v>7.541161048167362</v>
       </c>
       <c r="W384" t="n">
         <v>-23.15386426984053</v>
@@ -30820,13 +30820,13 @@
         <v>6</v>
       </c>
       <c r="C385" t="n">
-        <v>317.6351754164433</v>
+        <v>317.6351754163816</v>
       </c>
       <c r="D385" t="n">
-        <v>23.19783309168353</v>
+        <v>23.19783309171228</v>
       </c>
       <c r="E385" t="n">
-        <v>1330.791689405416</v>
+        <v>1330.791689404413</v>
       </c>
       <c r="F385" t="inlineStr">
         <is>
@@ -30834,52 +30834,52 @@
         </is>
       </c>
       <c r="G385" t="n">
-        <v>103.7582313755642</v>
+        <v>7.562126650234995</v>
       </c>
       <c r="H385" t="n">
-        <v>100.7479314189244</v>
+        <v>4.551826693595182</v>
       </c>
       <c r="I385" t="n">
-        <v>1e-30</v>
+        <v>0.008461047930000788</v>
       </c>
       <c r="J385" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K385" t="n">
-        <v>181.0370122128423</v>
+        <v>181.0370122128358</v>
       </c>
       <c r="L385" t="n">
-        <v>1.113184641628412e-05</v>
+        <v>116.5084493886894</v>
       </c>
       <c r="M385" t="n">
-        <v>-63.07496599995015</v>
+        <v>141.9370154840583</v>
       </c>
       <c r="N385" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O385" t="n">
         <v>30</v>
       </c>
       <c r="P385" t="n">
-        <v>-6410.444618846017</v>
+        <v>-6410.444618845299</v>
       </c>
       <c r="Q385" t="n">
-        <v>442.7245295763167</v>
+        <v>442.7245295765356</v>
       </c>
       <c r="R385" t="n">
-        <v>-2793.44845700348</v>
+        <v>-2793.448457005101</v>
       </c>
       <c r="S385" t="n">
-        <v>3.038012365810856</v>
+        <v>3.038012365812617</v>
       </c>
       <c r="T385" t="n">
-        <v>0.9204992705004467</v>
+        <v>0.9204992705003251</v>
       </c>
       <c r="U385" t="n">
-        <v>-6.840331473195085</v>
+        <v>-6.840331473194317</v>
       </c>
       <c r="V385" t="n">
-        <v>7.541019341242587</v>
+        <v>7.541019341242584</v>
       </c>
       <c r="W385" t="n">
         <v>-23.7661583503591</v>
@@ -30899,13 +30899,13 @@
         <v>6</v>
       </c>
       <c r="C386" t="n">
-        <v>314.7500648281213</v>
+        <v>314.7500648280704</v>
       </c>
       <c r="D386" t="n">
-        <v>24.3326335318352</v>
+        <v>24.33263353186139</v>
       </c>
       <c r="E386" t="n">
-        <v>1292.213178591699</v>
+        <v>1292.213178590836</v>
       </c>
       <c r="F386" t="inlineStr">
         <is>
@@ -30913,52 +30913,52 @@
         </is>
       </c>
       <c r="G386" t="n">
-        <v>104.013749660309</v>
+        <v>7.817644934979021</v>
       </c>
       <c r="H386" t="n">
-        <v>101.0034497036692</v>
+        <v>4.807344978339209</v>
       </c>
       <c r="I386" t="n">
-        <v>1e-30</v>
+        <v>0.006952647743063473</v>
       </c>
       <c r="J386" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K386" t="n">
-        <v>180.7814939280976</v>
+        <v>180.7814939280918</v>
       </c>
       <c r="L386" t="n">
-        <v>1.31436782161996e-05</v>
+        <v>119.1308683011732</v>
       </c>
       <c r="M386" t="n">
-        <v>-65.19929869957083</v>
+        <v>149.3208720896451</v>
       </c>
       <c r="N386" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O386" t="n">
         <v>30</v>
       </c>
       <c r="P386" t="n">
-        <v>-6379.693976708964</v>
+        <v>-6379.69397670836</v>
       </c>
       <c r="Q386" t="n">
-        <v>451.9036360532161</v>
+        <v>451.9036360532556</v>
       </c>
       <c r="R386" t="n">
-        <v>-2861.687275216677</v>
+        <v>-2861.687275218026</v>
       </c>
       <c r="S386" t="n">
-        <v>3.112134827676567</v>
+        <v>3.112134827678009</v>
       </c>
       <c r="T386" t="n">
-        <v>0.9153150289600398</v>
+        <v>0.9153150289600048</v>
       </c>
       <c r="U386" t="n">
-        <v>-6.807469546978528</v>
+        <v>-6.807469546977869</v>
       </c>
       <c r="V386" t="n">
-        <v>7.540877032608185</v>
+        <v>7.54087703260818</v>
       </c>
       <c r="W386" t="n">
         <v>-24.37831136447453</v>
@@ -30992,28 +30992,28 @@
         </is>
       </c>
       <c r="G387" t="n">
-        <v>104.2566920738129</v>
+        <v>8.060587348477137</v>
       </c>
       <c r="H387" t="n">
-        <v>101.2463921171731</v>
+        <v>5.050287391837323</v>
       </c>
       <c r="I387" t="n">
-        <v>1e-30</v>
+        <v>0.00571176240271736</v>
       </c>
       <c r="J387" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K387" t="n">
         <v>180.5385515145937</v>
       </c>
       <c r="L387" t="n">
-        <v>0</v>
+        <v>121.2089982535427</v>
       </c>
       <c r="M387" t="n">
-        <v>0</v>
+        <v>157.3047546537765</v>
       </c>
       <c r="N387" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O387" t="n">
         <v>30</v>
@@ -31071,28 +31071,28 @@
         </is>
       </c>
       <c r="G388" t="n">
-        <v>104.4839147094846</v>
+        <v>8.287809984148844</v>
       </c>
       <c r="H388" t="n">
-        <v>101.4736147528448</v>
+        <v>5.277510027509031</v>
       </c>
       <c r="I388" t="n">
-        <v>1e-30</v>
+        <v>0.004708766787160431</v>
       </c>
       <c r="J388" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K388" t="n">
         <v>180.311328878922</v>
       </c>
       <c r="L388" t="n">
-        <v>1.478779333471098e-06</v>
+        <v>122.6183723889372</v>
       </c>
       <c r="M388" t="n">
-        <v>-66.35160115336852</v>
+        <v>165.7528445538946</v>
       </c>
       <c r="N388" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O388" t="n">
         <v>30</v>
@@ -31150,28 +31150,28 @@
         </is>
       </c>
       <c r="G389" t="n">
-        <v>104.6920628896471</v>
+        <v>8.495958164311311</v>
       </c>
       <c r="H389" t="n">
-        <v>101.6817629330073</v>
+        <v>5.485658207671499</v>
       </c>
       <c r="I389" t="n">
-        <v>1e-30</v>
+        <v>0.003912984631083854</v>
       </c>
       <c r="J389" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K389" t="n">
         <v>180.1031806987595</v>
       </c>
       <c r="L389" t="n">
-        <v>3.912482360306382e-06</v>
+        <v>123.2593962343729</v>
       </c>
       <c r="M389" t="n">
-        <v>-70.82589450756821</v>
+        <v>174.4612785219521</v>
       </c>
       <c r="N389" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O389" t="n">
         <v>30</v>
@@ -31229,28 +31229,28 @@
         </is>
       </c>
       <c r="G390" t="n">
-        <v>104.8776660300821</v>
+        <v>8.681561304746303</v>
       </c>
       <c r="H390" t="n">
-        <v>101.8673660734423</v>
+        <v>5.67126134810649</v>
       </c>
       <c r="I390" t="n">
-        <v>1e-30</v>
+        <v>0.003294550829969382</v>
       </c>
       <c r="J390" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K390" t="n">
         <v>179.9175775583245</v>
       </c>
       <c r="L390" t="n">
-        <v>6.273929367455631e-06</v>
+        <v>123.0748926905438</v>
       </c>
       <c r="M390" t="n">
-        <v>-73.77406448787687</v>
+        <v>-176.8234305197539</v>
       </c>
       <c r="N390" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O390" t="n">
         <v>30</v>
@@ -31308,28 +31308,28 @@
         </is>
       </c>
       <c r="G391" t="n">
-        <v>105.0372760024094</v>
+        <v>8.841171277073652</v>
       </c>
       <c r="H391" t="n">
-        <v>102.0269760457696</v>
+        <v>5.83087132043384</v>
       </c>
       <c r="I391" t="n">
-        <v>1e-30</v>
+        <v>0.002826007430527968</v>
       </c>
       <c r="J391" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K391" t="n">
         <v>179.7579675859971</v>
       </c>
       <c r="L391" t="n">
-        <v>8.872676000826624e-06</v>
+        <v>122.0611089299676</v>
       </c>
       <c r="M391" t="n">
-        <v>-75.55132201841678</v>
+        <v>-168.3657751016273</v>
       </c>
       <c r="N391" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O391" t="n">
         <v>30</v>
@@ -31387,28 +31387,28 @@
         </is>
       </c>
       <c r="G392" t="n">
-        <v>105.1676368226665</v>
+        <v>8.971532097330718</v>
       </c>
       <c r="H392" t="n">
-        <v>102.1573368660267</v>
+        <v>5.961232140690907</v>
       </c>
       <c r="I392" t="n">
-        <v>1e-30</v>
+        <v>0.002483541182929305</v>
       </c>
       <c r="J392" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K392" t="n">
         <v>179.6276067657401</v>
       </c>
       <c r="L392" t="n">
-        <v>1.173744708091922e-05</v>
+        <v>120.2674721176546</v>
       </c>
       <c r="M392" t="n">
-        <v>-78.47294845144499</v>
+        <v>-160.3958940152924</v>
       </c>
       <c r="N392" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O392" t="n">
         <v>30</v>
@@ -31466,28 +31466,28 @@
         </is>
       </c>
       <c r="G393" t="n">
-        <v>105.2658745210067</v>
+        <v>9.069769795670972</v>
       </c>
       <c r="H393" t="n">
-        <v>102.2555745643669</v>
+        <v>6.059469839031158</v>
       </c>
       <c r="I393" t="n">
-        <v>1e-30</v>
+        <v>0.002247819728281664</v>
       </c>
       <c r="J393" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K393" t="n">
         <v>179.5293690673998</v>
       </c>
       <c r="L393" t="n">
-        <v>1.488605217867593e-05</v>
+        <v>117.7854769525525</v>
       </c>
       <c r="M393" t="n">
-        <v>-81.36179536379471</v>
+        <v>-153.0763621336177</v>
       </c>
       <c r="N393" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O393" t="n">
         <v>30</v>
@@ -31545,28 +31545,28 @@
         </is>
       </c>
       <c r="G394" t="n">
-        <v>105.3296891685913</v>
+        <v>9.133584443255554</v>
       </c>
       <c r="H394" t="n">
-        <v>102.3193892119515</v>
+        <v>6.123284486615743</v>
       </c>
       <c r="I394" t="n">
-        <v>1e-30</v>
+        <v>0.002104464686721597</v>
       </c>
       <c r="J394" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K394" t="n">
         <v>179.4655544198152</v>
       </c>
       <c r="L394" t="n">
-        <v>1.803059981833825e-05</v>
+        <v>114.7318051314001</v>
       </c>
       <c r="M394" t="n">
-        <v>-83.80387863126032</v>
+        <v>-146.4919504411777</v>
       </c>
       <c r="N394" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O394" t="n">
         <v>30</v>
@@ -31624,28 +31624,28 @@
         </is>
       </c>
       <c r="G395" t="n">
-        <v>105.3575247473604</v>
+        <v>9.161420022024631</v>
       </c>
       <c r="H395" t="n">
-        <v>102.3472247907206</v>
+        <v>6.15112006538482</v>
       </c>
       <c r="I395" t="n">
-        <v>1e-30</v>
+        <v>0.002044260445385695</v>
       </c>
       <c r="J395" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K395" t="n">
         <v>179.4377188410462</v>
       </c>
       <c r="L395" t="n">
-        <v>0</v>
+        <v>111.2317710370671</v>
       </c>
       <c r="M395" t="n">
-        <v>0</v>
+        <v>-140.6595760810416</v>
       </c>
       <c r="N395" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O395" t="n">
         <v>30</v>
@@ -31703,28 +31703,28 @@
         </is>
       </c>
       <c r="G396" t="n">
-        <v>105.3486909521629</v>
+        <v>9.152586226827106</v>
       </c>
       <c r="H396" t="n">
-        <v>102.3383909955231</v>
+        <v>6.142286270187295</v>
       </c>
       <c r="I396" t="n">
-        <v>1e-30</v>
+        <v>0.002063215943516183</v>
       </c>
       <c r="J396" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K396" t="n">
         <v>179.4465526362437</v>
       </c>
       <c r="L396" t="n">
-        <v>3.078324659199976e-06</v>
+        <v>107.4069424692391</v>
       </c>
       <c r="M396" t="n">
-        <v>-90.34480345105183</v>
+        <v>-135.5481871614178</v>
       </c>
       <c r="N396" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O396" t="n">
         <v>30</v>
@@ -31782,28 +31782,28 @@
         </is>
       </c>
       <c r="G397" t="n">
-        <v>105.3034216843209</v>
+        <v>9.107316958985097</v>
       </c>
       <c r="H397" t="n">
-        <v>102.2931217276811</v>
+        <v>6.097017002345285</v>
       </c>
       <c r="I397" t="n">
-        <v>1e-30</v>
+        <v>0.002162564190969487</v>
       </c>
       <c r="J397" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K397" t="n">
         <v>179.4918219040857</v>
       </c>
       <c r="L397" t="n">
-        <v>6.097163388881831e-06</v>
+        <v>103.3675197497586</v>
       </c>
       <c r="M397" t="n">
-        <v>-93.17439056634636</v>
+        <v>-131.0988733204406</v>
       </c>
       <c r="N397" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O397" t="n">
         <v>30</v>
@@ -31861,28 +31861,28 @@
         </is>
       </c>
       <c r="G398" t="n">
-        <v>105.2228542381843</v>
+        <v>9.026749512848571</v>
       </c>
       <c r="H398" t="n">
-        <v>102.2125542815445</v>
+        <v>6.016449556208761</v>
       </c>
       <c r="I398" t="n">
-        <v>1e-30</v>
+        <v>0.002348759205604659</v>
       </c>
       <c r="J398" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K398" t="n">
         <v>179.5723893502222</v>
       </c>
       <c r="L398" t="n">
-        <v>8.872676000826624e-06</v>
+        <v>99.2088235064069</v>
       </c>
       <c r="M398" t="n">
-        <v>-95.04783939000677</v>
+        <v>-127.2406626764546</v>
       </c>
       <c r="N398" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O398" t="n">
         <v>30</v>
@@ -31940,28 +31940,28 @@
         </is>
       </c>
       <c r="G399" t="n">
-        <v>105.1089379542614</v>
+        <v>8.912833228925628</v>
       </c>
       <c r="H399" t="n">
-        <v>102.0986379976216</v>
+        <v>5.902533272285815</v>
       </c>
       <c r="I399" t="n">
-        <v>1e-30</v>
+        <v>0.002633443801366708</v>
       </c>
       <c r="J399" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K399" t="n">
         <v>179.6863056341452</v>
       </c>
       <c r="L399" t="n">
-        <v>1.142271288210649e-05</v>
+        <v>95.01030479311898</v>
       </c>
       <c r="M399" t="n">
-        <v>-97.91728041968641</v>
+        <v>-123.9007967386494</v>
       </c>
       <c r="N399" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O399" t="n">
         <v>30</v>
@@ -32019,28 +32019,28 @@
         </is>
       </c>
       <c r="G400" t="n">
-        <v>104.9642847726171</v>
+        <v>8.768180047281376</v>
       </c>
       <c r="H400" t="n">
-        <v>101.9539848159773</v>
+        <v>5.757880090641563</v>
       </c>
       <c r="I400" t="n">
-        <v>1e-30</v>
+        <v>0.00303332287971577</v>
       </c>
       <c r="J400" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K400" t="n">
         <v>179.8309588157894</v>
       </c>
       <c r="L400" t="n">
-        <v>1.363367180746286e-05</v>
+        <v>90.83605216747232</v>
       </c>
       <c r="M400" t="n">
-        <v>-100.0276494033041</v>
+        <v>-121.0105398953536</v>
       </c>
       <c r="N400" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O400" t="n">
         <v>30</v>
@@ -32098,28 +32098,28 @@
         </is>
       </c>
       <c r="G401" t="n">
-        <v>104.7919853335753</v>
+        <v>3.149076623383213</v>
       </c>
       <c r="H401" t="n">
-        <v>101.7816853769355</v>
+        <v>0.1387766667434014</v>
       </c>
       <c r="I401" t="n">
-        <v>1e-30</v>
+        <v>0.07536037946073121</v>
       </c>
       <c r="J401" t="n">
-        <v>96.19610472533579</v>
+        <v>-5.446803984856309</v>
       </c>
       <c r="K401" t="n">
         <v>180.0032582548313</v>
       </c>
       <c r="L401" t="n">
-        <v>1.550956849435666e-05</v>
+        <v>86.73606964599743</v>
       </c>
       <c r="M401" t="n">
-        <v>-102.5846411249342</v>
+        <v>-118.5079209465786</v>
       </c>
       <c r="N401" t="n">
-        <v>66.19610472533577</v>
+        <v>-35.44680398485631</v>
       </c>
       <c r="O401" t="n">
         <v>30</v>
@@ -32177,28 +32177,28 @@
         </is>
       </c>
       <c r="G402" t="n">
-        <v>104.5954142273847</v>
+        <v>4.063864214202876</v>
       </c>
       <c r="H402" t="n">
-        <v>101.5851142707449</v>
+        <v>1.053564257563065</v>
       </c>
       <c r="I402" t="n">
-        <v>1e-30</v>
+        <v>0.05517864617872209</v>
       </c>
       <c r="J402" t="n">
-        <v>96.19610472533579</v>
+        <v>-4.335445287846077</v>
       </c>
       <c r="K402" t="n">
         <v>180.1998293610218</v>
       </c>
       <c r="L402" t="n">
-        <v>0</v>
+        <v>82.7479000923347</v>
       </c>
       <c r="M402" t="n">
-        <v>0</v>
+        <v>-116.3386030535977</v>
       </c>
       <c r="N402" t="n">
-        <v>66.19610472533577</v>
+        <v>-34.33544528784608</v>
       </c>
       <c r="O402" t="n">
         <v>30</v>
@@ -32256,28 +32256,28 @@
         </is>
       </c>
       <c r="G403" t="n">
-        <v>104.3780519406492</v>
+        <v>3.620563346058512</v>
       </c>
       <c r="H403" t="n">
-        <v>101.3677519840094</v>
+        <v>0.6102633894186998</v>
       </c>
       <c r="I403" t="n">
-        <v>1e-30</v>
+        <v>0.06461457094415374</v>
       </c>
       <c r="J403" t="n">
-        <v>96.19610472533579</v>
+        <v>-4.561383869254925</v>
       </c>
       <c r="K403" t="n">
         <v>180.4171916477574</v>
       </c>
       <c r="L403" t="n">
-        <v>1.909095910416423e-06</v>
+        <v>78.89845610071058</v>
       </c>
       <c r="M403" t="n">
-        <v>-104.8733667719512</v>
+        <v>-114.4557793071864</v>
       </c>
       <c r="N403" t="n">
-        <v>66.19610472533577</v>
+        <v>-34.56138386925493</v>
       </c>
       <c r="O403" t="n">
         <v>30</v>
@@ -32335,28 +32335,28 @@
         </is>
       </c>
       <c r="G404" t="n">
-        <v>104.1433255067173</v>
+        <v>4.438352677667641</v>
       </c>
       <c r="H404" t="n">
-        <v>101.1330255500775</v>
+        <v>1.428052721027829</v>
       </c>
       <c r="I404" t="n">
-        <v>1e-30</v>
+        <v>0.04776406383289256</v>
       </c>
       <c r="J404" t="n">
-        <v>96.19610472533579</v>
+        <v>-3.508868103713922</v>
       </c>
       <c r="K404" t="n">
         <v>180.6519180816892</v>
       </c>
       <c r="L404" t="n">
-        <v>3.415094585006378e-06</v>
+        <v>75.20569508807762</v>
       </c>
       <c r="M404" t="n">
-        <v>-108.616434625062</v>
+        <v>-112.8194929857618</v>
       </c>
       <c r="N404" t="n">
-        <v>66.19610472533577</v>
+        <v>-33.50886810371392</v>
       </c>
       <c r="O404" t="n">
         <v>30</v>
@@ -32414,28 +32414,28 @@
         </is>
       </c>
       <c r="G405" t="n">
-        <v>103.8944931065519</v>
+        <v>3.496658370410777</v>
       </c>
       <c r="H405" t="n">
-        <v>100.8841931499121</v>
+        <v>0.4863584137709638</v>
       </c>
       <c r="I405" t="n">
-        <v>1e-30</v>
+        <v>0.06737112650977312</v>
       </c>
       <c r="J405" t="n">
-        <v>96.19610472533579</v>
+        <v>-4.201730010805298</v>
       </c>
       <c r="K405" t="n">
         <v>180.9007504818547</v>
       </c>
       <c r="L405" t="n">
-        <v>4.676310850554345e-06</v>
+        <v>71.68035130296695</v>
       </c>
       <c r="M405" t="n">
-        <v>-111.1020257768351</v>
+        <v>-111.3958573197246</v>
       </c>
       <c r="N405" t="n">
-        <v>66.19610472533577</v>
+        <v>-34.20173001080529</v>
       </c>
       <c r="O405" t="n">
         <v>30</v>
@@ -32493,28 +32493,28 @@
         </is>
       </c>
       <c r="G406" t="n">
-        <v>103.6345613566866</v>
+        <v>1.905453752032026</v>
       </c>
       <c r="H406" t="n">
-        <v>100.6242614000468</v>
+        <v>-1.104846204607786</v>
       </c>
       <c r="I406" t="n">
-        <v>1e-30</v>
+        <v>0.1065114343878449</v>
       </c>
       <c r="J406" t="n">
-        <v>96.19610472533579</v>
+        <v>-5.533002879318795</v>
       </c>
       <c r="K406" t="n">
         <v>181.16068223172</v>
       </c>
       <c r="L406" t="n">
-        <v>5.727287731249277e-06</v>
+        <v>68.32743873162472</v>
       </c>
       <c r="M406" t="n">
-        <v>-112.0937057324126</v>
+        <v>-110.1562072396383</v>
       </c>
       <c r="N406" t="n">
-        <v>66.19610472533577</v>
+        <v>-35.53300287931879</v>
       </c>
       <c r="O406" t="n">
         <v>30</v>
@@ -32572,28 +32572,28 @@
         </is>
       </c>
       <c r="G407" t="n">
-        <v>103.3662371882051</v>
+        <v>5.281696629599262</v>
       </c>
       <c r="H407" t="n">
-        <v>100.3559372315653</v>
+        <v>2.271396672959449</v>
       </c>
       <c r="I407" t="n">
-        <v>1e-30</v>
+        <v>0.0331125372952689</v>
       </c>
       <c r="J407" t="n">
-        <v>96.19610472533579</v>
+        <v>-1.888435833270076</v>
       </c>
       <c r="K407" t="n">
         <v>181.4290064002014</v>
       </c>
       <c r="L407" t="n">
-        <v>6.557959812547721e-06</v>
+        <v>65.14758146578161</v>
       </c>
       <c r="M407" t="n">
-        <v>-113.1935785121298</v>
+        <v>-109.076316019283</v>
       </c>
       <c r="N407" t="n">
-        <v>66.19610472533577</v>
+        <v>-31.88843583327007</v>
       </c>
       <c r="O407" t="n">
         <v>30</v>
@@ -32651,28 +32651,28 @@
         </is>
       </c>
       <c r="G408" t="n">
-        <v>103.091907230925</v>
+        <v>-1.409495019992109</v>
       </c>
       <c r="H408" t="n">
-        <v>100.0816072742851</v>
+        <v>-4.419794976631921</v>
       </c>
       <c r="I408" t="n">
-        <v>1e-30</v>
+        <v>0.1976046942438034</v>
       </c>
       <c r="J408" t="n">
-        <v>96.19610472533579</v>
+        <v>-8.305297525581285</v>
       </c>
       <c r="K408" t="n">
         <v>181.7033363574816</v>
       </c>
       <c r="L408" t="n">
-        <v>7.091976543484083e-06</v>
+        <v>62.13814408826788</v>
       </c>
       <c r="M408" t="n">
-        <v>-115.1135972196154</v>
+        <v>-108.1356988580274</v>
       </c>
       <c r="N408" t="n">
-        <v>66.19610472533577</v>
+        <v>-38.30529752558129</v>
       </c>
       <c r="O408" t="n">
         <v>30</v>
@@ -32730,28 +32730,28 @@
         </is>
       </c>
       <c r="G409" t="n">
-        <v>102.8136381482965</v>
+        <v>-3.23007838284521</v>
       </c>
       <c r="H409" t="n">
-        <v>99.80333819165671</v>
+        <v>-6.240378339485021</v>
       </c>
       <c r="I409" t="n">
-        <v>1e-30</v>
+        <v>0.2452734077061642</v>
       </c>
       <c r="J409" t="n">
-        <v>96.19610472533579</v>
+        <v>-9.847611805805949</v>
       </c>
       <c r="K409" t="n">
         <v>181.9816054401101</v>
       </c>
       <c r="L409" t="n">
-        <v>7.540324677666884e-06</v>
+        <v>59.29416307867751</v>
       </c>
       <c r="M409" t="n">
-        <v>-116.1111331067616</v>
+        <v>-107.3170121394491</v>
       </c>
       <c r="N409" t="n">
-        <v>66.19610472533577</v>
+        <v>-39.84761180580595</v>
       </c>
       <c r="O409" t="n">
         <v>30</v>
@@ -32809,28 +32809,28 @@
         </is>
       </c>
       <c r="G410" t="n">
-        <v>102.5331916239</v>
+        <v>-4.227541024763351</v>
       </c>
       <c r="H410" t="n">
-        <v>99.52289166726018</v>
+        <v>-7.237840981403163</v>
       </c>
       <c r="I410" t="n">
-        <v>1e-30</v>
+        <v>0.2693952512077989</v>
       </c>
       <c r="J410" t="n">
-        <v>96.19610472533579</v>
+        <v>-10.56462792332757</v>
       </c>
       <c r="K410" t="n">
         <v>182.2620519645066</v>
       </c>
       <c r="L410" t="n">
-        <v>7.77824809579901e-06</v>
+        <v>56.60909378897619</v>
       </c>
       <c r="M410" t="n">
-        <v>-117.0845839496954</v>
+        <v>-106.6055451015228</v>
       </c>
       <c r="N410" t="n">
-        <v>66.19610472533577</v>
+        <v>-40.56462792332756</v>
       </c>
       <c r="O410" t="n">
         <v>30</v>
@@ -32888,28 +32888,28 @@
         </is>
       </c>
       <c r="G411" t="n">
-        <v>102.252048102068</v>
+        <v>-6.569137880948564</v>
       </c>
       <c r="H411" t="n">
-        <v>99.24174814542816</v>
+        <v>-9.579437837588378</v>
       </c>
       <c r="I411" t="n">
-        <v>1e-30</v>
+        <v>0.3193918663423935</v>
       </c>
       <c r="J411" t="n">
-        <v>96.19610472533579</v>
+        <v>-12.62508125768076</v>
       </c>
       <c r="K411" t="n">
         <v>182.5431954863386</v>
       </c>
       <c r="L411" t="n">
-        <v>7.917571076845613e-06</v>
+        <v>54.07539560798816</v>
       </c>
       <c r="M411" t="n">
-        <v>-118.6814046294488</v>
+        <v>-105.9887925813761</v>
       </c>
       <c r="N411" t="n">
-        <v>66.19610472533577</v>
+        <v>-42.62508125768075</v>
       </c>
       <c r="O411" t="n">
         <v>30</v>
@@ -32967,28 +32967,28 @@
         </is>
       </c>
       <c r="G412" t="n">
-        <v>101.9714353593564</v>
+        <v>-16.39570528151264</v>
       </c>
       <c r="H412" t="n">
-        <v>98.96113540271655</v>
+        <v>-19.40600523815245</v>
       </c>
       <c r="I412" t="n">
-        <v>1e-30</v>
+        <v>0.4398178759749363</v>
       </c>
       <c r="J412" t="n">
-        <v>96.19610472533579</v>
+        <v>-22.17103591553322</v>
       </c>
       <c r="K412" t="n">
         <v>182.8238082290502</v>
       </c>
       <c r="L412" t="n">
-        <v>7.963470424126402e-06</v>
+        <v>51.68497839839134</v>
       </c>
       <c r="M412" t="n">
-        <v>-119.5550354586651</v>
+        <v>-105.4560994436779</v>
       </c>
       <c r="N412" t="n">
-        <v>66.19610472533577</v>
+        <v>-52.17103591553322</v>
       </c>
       <c r="O412" t="n">
         <v>30</v>
@@ -33046,28 +33046,28 @@
         </is>
       </c>
       <c r="G413" t="n">
-        <v>101.6923586708234</v>
+        <v>-2.576655538004828</v>
       </c>
       <c r="H413" t="n">
-        <v>98.6820587141836</v>
+        <v>-5.586955494644641</v>
       </c>
       <c r="I413" t="n">
-        <v>1e-30</v>
+        <v>0.2286484368669334</v>
       </c>
       <c r="J413" t="n">
-        <v>96.19610472533579</v>
+        <v>-8.07290948349246</v>
       </c>
       <c r="K413" t="n">
         <v>183.1028849175831</v>
       </c>
       <c r="L413" t="n">
-        <v>7.963470424126402e-06</v>
+        <v>49.42953411610731</v>
       </c>
       <c r="M413" t="n">
-        <v>-120.4006263214538</v>
+        <v>-104.9983653139466</v>
       </c>
       <c r="N413" t="n">
-        <v>66.19610472533577</v>
+        <v>-38.07290948349246</v>
       </c>
       <c r="O413" t="n">
         <v>30</v>
@@ -33125,28 +33125,28 @@
         </is>
       </c>
       <c r="G414" t="n">
-        <v>101.4156304288057</v>
+        <v>6.298973907537293</v>
       </c>
       <c r="H414" t="n">
-        <v>98.40533047216593</v>
+        <v>3.28867395089748</v>
       </c>
       <c r="I414" t="n">
-        <v>1e-30</v>
+        <v>0.01945505583025987</v>
       </c>
       <c r="J414" t="n">
-        <v>96.19610472533579</v>
+        <v>1.079448204067344</v>
       </c>
       <c r="K414" t="n">
         <v>183.3796131596008</v>
       </c>
       <c r="L414" t="n">
-        <v>7.963470424126402e-06</v>
+        <v>47.30077723567312</v>
       </c>
       <c r="M414" t="n">
-        <v>-121.2189133586604</v>
+        <v>-104.6077995742749</v>
       </c>
       <c r="N414" t="n">
-        <v>66.19610472533577</v>
+        <v>-28.92055179593266</v>
       </c>
       <c r="O414" t="n">
         <v>30</v>
@@ -33204,28 +33204,28 @@
         </is>
       </c>
       <c r="G415" t="n">
-        <v>101.1418979242473</v>
+        <v>3.875240740751529</v>
       </c>
       <c r="H415" t="n">
-        <v>98.13159796760752</v>
+        <v>0.8649407841117165</v>
       </c>
       <c r="I415" t="n">
-        <v>1e-30</v>
+        <v>0.05910969246697573</v>
       </c>
       <c r="J415" t="n">
-        <v>96.19610472533579</v>
+        <v>-1.070552458160033</v>
       </c>
       <c r="K415" t="n">
         <v>183.6533456641592</v>
       </c>
       <c r="L415" t="n">
-        <v>7.824964720612782e-06</v>
+        <v>45.29061371582235</v>
       </c>
       <c r="M415" t="n">
-        <v>-122.5919094994552</v>
+        <v>-104.277718010118</v>
       </c>
       <c r="N415" t="n">
-        <v>66.19610472533577</v>
+        <v>-31.07055245816003</v>
       </c>
       <c r="O415" t="n">
         <v>30</v>
@@ -33283,28 +33283,28 @@
         </is>
       </c>
       <c r="G416" t="n">
-        <v>100.8716686331938</v>
+        <v>6.634094580304549</v>
       </c>
       <c r="H416" t="n">
-        <v>97.86136867655399</v>
+        <v>3.623794623664737</v>
       </c>
       <c r="I416" t="n">
-        <v>1e-30</v>
+        <v>0.01592170673656677</v>
       </c>
       <c r="J416" t="n">
-        <v>96.19610472533579</v>
+        <v>1.958530672446526</v>
       </c>
       <c r="K416" t="n">
         <v>183.9235749552128</v>
       </c>
       <c r="L416" t="n">
-        <v>7.683962816264368e-06</v>
+        <v>43.39125370614487</v>
       </c>
       <c r="M416" t="n">
-        <v>-123.3512182788885</v>
+        <v>-104.0023742246571</v>
       </c>
       <c r="N416" t="n">
-        <v>66.19610472533577</v>
+        <v>-28.04146932755348</v>
       </c>
       <c r="O416" t="n">
         <v>30</v>
@@ -33362,28 +33362,28 @@
         </is>
       </c>
       <c r="G417" t="n">
-        <v>100.6053327089842</v>
+        <v>3.94317812080795</v>
       </c>
       <c r="H417" t="n">
-        <v>97.59503275234442</v>
+        <v>0.9328781641681381</v>
       </c>
       <c r="I417" t="n">
-        <v>1e-30</v>
+        <v>0.05767916396287476</v>
       </c>
       <c r="J417" t="n">
-        <v>96.19610472533579</v>
+        <v>-0.4660498628405116</v>
       </c>
       <c r="K417" t="n">
         <v>184.1899108794223</v>
       </c>
       <c r="L417" t="n">
-        <v>7.540324677666884e-06</v>
+        <v>41.59528309381899</v>
       </c>
       <c r="M417" t="n">
-        <v>-124.0925887995194</v>
+        <v>-103.7768197042849</v>
       </c>
       <c r="N417" t="n">
-        <v>66.19610472533577</v>
+        <v>-30.46604986284051</v>
       </c>
       <c r="O417" t="n">
         <v>30</v>
@@ -33441,28 +33441,28 @@
         </is>
       </c>
       <c r="G418" t="n">
-        <v>100.3431812624063</v>
+        <v>6.784981353647721</v>
       </c>
       <c r="H418" t="n">
-        <v>97.33288130576646</v>
+        <v>3.774681397007909</v>
       </c>
       <c r="I418" t="n">
-        <v>1e-30</v>
+        <v>0.01448178084874584</v>
       </c>
       <c r="J418" t="n">
-        <v>96.19610472533579</v>
+        <v>2.637904816577227</v>
       </c>
       <c r="K418" t="n">
         <v>184.4520623260003</v>
       </c>
       <c r="L418" t="n">
-        <v>0</v>
+        <v>39.89569800753231</v>
       </c>
       <c r="M418" t="n">
-        <v>0</v>
+        <v>-103.596781794906</v>
       </c>
       <c r="N418" t="n">
-        <v>66.19610472533577</v>
+        <v>-27.36209518342277</v>
       </c>
       <c r="O418" t="n">
         <v>30</v>
@@ -33520,28 +33520,28 @@
         </is>
       </c>
       <c r="G419" t="n">
-        <v>100.0854284220094</v>
+        <v>7.155185842948314</v>
       </c>
       <c r="H419" t="n">
-        <v>97.07512846536959</v>
+        <v>4.144885886308501</v>
       </c>
       <c r="I419" t="n">
-        <v>1e-30</v>
+        <v>0.01133119754195946</v>
       </c>
       <c r="J419" t="n">
-        <v>96.19610472533579</v>
+        <v>3.265862146274694</v>
       </c>
       <c r="K419" t="n">
         <v>184.7098151663972</v>
       </c>
       <c r="L419" t="n">
-        <v>0</v>
+        <v>38.28594936230064</v>
       </c>
       <c r="M419" t="n">
-        <v>0</v>
+        <v>-103.4585869384643</v>
       </c>
       <c r="N419" t="n">
-        <v>66.19610472533577</v>
+        <v>-26.73413785372531</v>
       </c>
       <c r="O419" t="n">
         <v>30</v>
@@ -33599,28 +33599,28 @@
         </is>
       </c>
       <c r="G420" t="n">
-        <v>99.8322179372887</v>
+        <v>-12.42650670192849</v>
       </c>
       <c r="H420" t="n">
-        <v>96.82191798064889</v>
+        <v>-15.4368066585683</v>
       </c>
       <c r="I420" t="n">
-        <v>1e-30</v>
+        <v>0.4054937223244016</v>
       </c>
       <c r="J420" t="n">
-        <v>96.19610472533579</v>
+        <v>-16.06261991388141</v>
       </c>
       <c r="K420" t="n">
         <v>184.9630256511179</v>
       </c>
       <c r="L420" t="n">
-        <v>0</v>
+        <v>36.75990519089064</v>
       </c>
       <c r="M420" t="n">
-        <v>0</v>
+        <v>-103.3590484553531</v>
       </c>
       <c r="N420" t="n">
-        <v>66.19610472533577</v>
+        <v>-46.06261991388141</v>
       </c>
       <c r="O420" t="n">
         <v>30</v>
@@ -33678,28 +33678,28 @@
         </is>
       </c>
       <c r="G421" t="n">
-        <v>99.5836405754668</v>
+        <v>-6.084852239539872</v>
       </c>
       <c r="H421" t="n">
-        <v>96.57334061882699</v>
+        <v>-9.095152196179683</v>
       </c>
       <c r="I421" t="n">
-        <v>1e-30</v>
+        <v>0.3098360979539758</v>
       </c>
       <c r="J421" t="n">
-        <v>96.19610472533579</v>
+        <v>-9.472388089670886</v>
       </c>
       <c r="K421" t="n">
         <v>185.2116030129398</v>
       </c>
       <c r="L421" t="n">
-        <v>0</v>
+        <v>35.31186920170356</v>
       </c>
       <c r="M421" t="n">
-        <v>0</v>
+        <v>-103.2954191305091</v>
       </c>
       <c r="N421" t="n">
-        <v>66.19610472533577</v>
+        <v>-39.47238808967089</v>
       </c>
       <c r="O421" t="n">
         <v>30</v>
@@ -33757,28 +33757,28 @@
         </is>
       </c>
       <c r="G422" t="n">
-        <v>99.33974299411302</v>
+        <v>4.3730708331187</v>
       </c>
       <c r="H422" t="n">
-        <v>96.32944303747321</v>
+        <v>1.362770876478888</v>
       </c>
       <c r="I422" t="n">
-        <v>1e-30</v>
+        <v>0.04901810202317169</v>
       </c>
       <c r="J422" t="n">
-        <v>96.19610472533579</v>
+        <v>1.229432564341448</v>
       </c>
       <c r="K422" t="n">
         <v>185.4555005942935</v>
       </c>
       <c r="L422" t="n">
-        <v>0</v>
+        <v>33.93655846700383</v>
       </c>
       <c r="M422" t="n">
-        <v>0</v>
+        <v>-103.2653285340904</v>
       </c>
       <c r="N422" t="n">
-        <v>66.19610472533577</v>
+        <v>-28.77056743565855</v>
       </c>
       <c r="O422" t="n">
         <v>30</v>
@@ -37377,75 +37377,75 @@
         <v>8</v>
       </c>
       <c r="C468" t="n">
-        <v>165.4454158072489</v>
+        <v>165.4454161638771</v>
       </c>
       <c r="D468" t="n">
-        <v>0.0002516788239170912</v>
+        <v>0.0002501470576086033</v>
       </c>
       <c r="E468" t="n">
-        <v>2936.063436451374</v>
+        <v>2936.063608037433</v>
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>22 Jun 2025 10:18:16.915475036</t>
+          <t>22 Jun 2025 10:18:16.915450180</t>
         </is>
       </c>
       <c r="G468" t="n">
-        <v>96.88512428375121</v>
+        <v>0.6890190508046324</v>
       </c>
       <c r="H468" t="n">
-        <v>93.8748243271114</v>
+        <v>-2.32128090583518</v>
       </c>
       <c r="I468" t="n">
-        <v>1e-30</v>
+        <v>0.1395024531220477</v>
       </c>
       <c r="J468" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K468" t="n">
-        <v>187.9101193046554</v>
+        <v>187.9101198122661</v>
       </c>
       <c r="L468" t="n">
-        <v>0</v>
+        <v>105.5556409948322</v>
       </c>
       <c r="M468" t="n">
-        <v>0</v>
+        <v>-90.5663642434089</v>
       </c>
       <c r="N468" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O468" t="n">
         <v>30</v>
       </c>
       <c r="P468" t="n">
-        <v>3939.626274735008</v>
+        <v>3939.62611988903</v>
       </c>
       <c r="Q468" t="n">
-        <v>795.0725307306632</v>
+        <v>795.0725452027616</v>
       </c>
       <c r="R468" t="n">
-        <v>-5741.66128278852</v>
+        <v>-5741.66138709411</v>
       </c>
       <c r="S468" t="n">
-        <v>6.229747130600011</v>
+        <v>6.229747243621849</v>
       </c>
       <c r="T468" t="n">
-        <v>-0.5822226351180012</v>
+        <v>-0.5822226123079792</v>
       </c>
       <c r="U468" t="n">
-        <v>4.196404261611846</v>
+        <v>4.196404096445751</v>
       </c>
       <c r="V468" t="n">
-        <v>7.533826467004459</v>
+        <v>7.533826466700931</v>
       </c>
       <c r="W468" t="n">
-        <v>-55.03396307532309</v>
+        <v>-55.03396455891241</v>
       </c>
       <c r="X468" t="n">
-        <v>-53.72537873049401</v>
+        <v>-53.72537796986386</v>
       </c>
       <c r="Y468" t="n">
-        <v>644.7158889809584</v>
+        <v>644.7158895536012</v>
       </c>
     </row>
     <row r="469">
@@ -37470,28 +37470,28 @@
         </is>
       </c>
       <c r="G469" t="n">
-        <v>97.07206444499732</v>
+        <v>0.8759597196615455</v>
       </c>
       <c r="H469" t="n">
-        <v>94.06176448835751</v>
+        <v>-2.134340236978267</v>
       </c>
       <c r="I469" t="n">
-        <v>1e-30</v>
+        <v>0.1343396411975214</v>
       </c>
       <c r="J469" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K469" t="n">
         <v>187.7231791434093</v>
       </c>
       <c r="L469" t="n">
-        <v>0</v>
+        <v>106.7639369864585</v>
       </c>
       <c r="M469" t="n">
-        <v>0</v>
+        <v>-91.11459374515762</v>
       </c>
       <c r="N469" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O469" t="n">
         <v>30</v>
@@ -37549,28 +37549,28 @@
         </is>
       </c>
       <c r="G470" t="n">
-        <v>97.2825679514338</v>
+        <v>1.086463226098026</v>
       </c>
       <c r="H470" t="n">
-        <v>94.27226799479399</v>
+        <v>-1.923836730541786</v>
       </c>
       <c r="I470" t="n">
-        <v>1e-30</v>
+        <v>0.1285560506187555</v>
       </c>
       <c r="J470" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K470" t="n">
         <v>187.5126756369727</v>
       </c>
       <c r="L470" t="n">
-        <v>0</v>
+        <v>108.0564912884107</v>
       </c>
       <c r="M470" t="n">
-        <v>0</v>
+        <v>-91.72306517324203</v>
       </c>
       <c r="N470" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O470" t="n">
         <v>30</v>
@@ -37628,28 +37628,28 @@
         </is>
       </c>
       <c r="G471" t="n">
-        <v>97.49823067320408</v>
+        <v>1.302125947868307</v>
       </c>
       <c r="H471" t="n">
-        <v>94.48793071656426</v>
+        <v>-1.708174008771505</v>
       </c>
       <c r="I471" t="n">
-        <v>1e-30</v>
+        <v>0.1226719896613228</v>
       </c>
       <c r="J471" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K471" t="n">
         <v>187.2970129152025</v>
       </c>
       <c r="L471" t="n">
-        <v>0</v>
+        <v>109.3090016228297</v>
       </c>
       <c r="M471" t="n">
-        <v>0</v>
+        <v>-92.33902127825704</v>
       </c>
       <c r="N471" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O471" t="n">
         <v>30</v>
@@ -37707,28 +37707,28 @@
         </is>
       </c>
       <c r="G472" t="n">
-        <v>97.71927951011243</v>
+        <v>1.523174784776647</v>
       </c>
       <c r="H472" t="n">
-        <v>94.70897955347262</v>
+        <v>-1.487125171863165</v>
       </c>
       <c r="I472" t="n">
-        <v>1e-30</v>
+        <v>0.1166938710089969</v>
       </c>
       <c r="J472" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K472" t="n">
         <v>187.0759640782941</v>
       </c>
       <c r="L472" t="n">
-        <v>0</v>
+        <v>110.5207817194846</v>
       </c>
       <c r="M472" t="n">
-        <v>0</v>
+        <v>-92.96497232071515</v>
       </c>
       <c r="N472" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O472" t="n">
         <v>30</v>
@@ -37786,28 +37786,28 @@
         </is>
       </c>
       <c r="G473" t="n">
-        <v>97.94595510062788</v>
+        <v>1.749850375292106</v>
       </c>
       <c r="H473" t="n">
-        <v>94.93565514398807</v>
+        <v>-1.260449581347707</v>
       </c>
       <c r="I473" t="n">
-        <v>1e-30</v>
+        <v>0.1106297180095799</v>
       </c>
       <c r="J473" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K473" t="n">
         <v>186.8492884877787</v>
       </c>
       <c r="L473" t="n">
-        <v>0</v>
+        <v>111.6912007840879</v>
       </c>
       <c r="M473" t="n">
-        <v>0</v>
+        <v>-93.60363165643946</v>
       </c>
       <c r="N473" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O473" t="n">
         <v>30</v>
@@ -37865,28 +37865,28 @@
         </is>
       </c>
       <c r="G474" t="n">
-        <v>98.17851269427508</v>
+        <v>1.982407968939315</v>
       </c>
       <c r="H474" t="n">
-        <v>95.16821273763527</v>
+        <v>-1.027891987700497</v>
       </c>
       <c r="I474" t="n">
-        <v>1e-30</v>
+        <v>0.1044894392258188</v>
       </c>
       <c r="J474" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K474" t="n">
         <v>186.6167308941315</v>
       </c>
       <c r="L474" t="n">
-        <v>0</v>
+        <v>112.8196534825687</v>
       </c>
       <c r="M474" t="n">
-        <v>0</v>
+        <v>-94.25792551677456</v>
       </c>
       <c r="N474" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O474" t="n">
         <v>30</v>
@@ -43697,75 +43697,75 @@
         <v>9</v>
       </c>
       <c r="C548" t="n">
-        <v>200.3628667914969</v>
+        <v>200.3627745531432</v>
       </c>
       <c r="D548" t="n">
-        <v>0.0001305494920181325</v>
+        <v>9.348133650144557e-05</v>
       </c>
       <c r="E548" t="n">
-        <v>2935.398361424189</v>
+        <v>2935.402524450421</v>
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>22 Jun 2025 11:55:47.818087426</t>
+          <t>22 Jun 2025 11:55:47.817223083</t>
         </is>
       </c>
       <c r="G548" t="n">
-        <v>96.88709202824509</v>
+        <v>0.6909749844583452</v>
       </c>
       <c r="H548" t="n">
-        <v>93.87679207160528</v>
+        <v>-2.319324972181467</v>
       </c>
       <c r="I548" t="n">
-        <v>1e-30</v>
+        <v>0.1394483265080848</v>
       </c>
       <c r="J548" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K548" t="n">
-        <v>187.9081515601615</v>
+        <v>187.9081638786124</v>
       </c>
       <c r="L548" t="n">
-        <v>0</v>
+        <v>141.9814024056073</v>
       </c>
       <c r="M548" t="n">
-        <v>0</v>
+        <v>98.2749812739513</v>
       </c>
       <c r="N548" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O548" t="n">
         <v>30</v>
       </c>
       <c r="P548" t="n">
-        <v>4049.832624811142</v>
+        <v>4049.827311226692</v>
       </c>
       <c r="Q548" t="n">
-        <v>789.1899427723735</v>
+        <v>789.1904540081629</v>
       </c>
       <c r="R548" t="n">
-        <v>-5665.239558276125</v>
+        <v>-5665.243287814033</v>
       </c>
       <c r="S548" t="n">
-        <v>6.147628569397977</v>
+        <v>6.147632610070828</v>
       </c>
       <c r="T548" t="n">
-        <v>-0.5914705368311647</v>
+        <v>-0.5914697493975546</v>
       </c>
       <c r="U548" t="n">
-        <v>4.314941091976546</v>
+        <v>4.314935424216893</v>
       </c>
       <c r="V548" t="n">
-        <v>7.534048782059041</v>
+        <v>7.534048771279656</v>
       </c>
       <c r="W548" t="n">
-        <v>-53.96124312553313</v>
+        <v>-53.96129480816472</v>
       </c>
       <c r="X548" t="n">
-        <v>-78.55100212170427</v>
+        <v>-78.55097754151203</v>
       </c>
       <c r="Y548" t="n">
-        <v>644.2960404005796</v>
+        <v>644.2960606644883</v>
       </c>
     </row>
     <row r="549">
@@ -43776,13 +43776,13 @@
         <v>9</v>
       </c>
       <c r="C549" t="n">
-        <v>201.3578636445975</v>
+        <v>201.357863644572</v>
       </c>
       <c r="D549" t="n">
-        <v>0.3934498687443951</v>
+        <v>0.3934498687325821</v>
       </c>
       <c r="E549" t="n">
-        <v>2891.550159973548</v>
+        <v>2891.550159974852</v>
       </c>
       <c r="F549" t="inlineStr">
         <is>
@@ -43790,52 +43790,52 @@
         </is>
       </c>
       <c r="G549" t="n">
-        <v>97.01781836860425</v>
+        <v>0.8217136432645498</v>
       </c>
       <c r="H549" t="n">
-        <v>94.00751841196444</v>
+        <v>-2.188586313375262</v>
       </c>
       <c r="I549" t="n">
-        <v>1e-30</v>
+        <v>0.1358354754169694</v>
       </c>
       <c r="J549" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K549" t="n">
-        <v>187.7774252198023</v>
+        <v>187.7774252198062</v>
       </c>
       <c r="L549" t="n">
-        <v>0</v>
+        <v>141.1439881073025</v>
       </c>
       <c r="M549" t="n">
-        <v>0</v>
+        <v>97.69950193222435</v>
       </c>
       <c r="N549" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O549" t="n">
         <v>30</v>
       </c>
       <c r="P549" t="n">
-        <v>4106.080821969785</v>
+        <v>4106.080821968224</v>
       </c>
       <c r="Q549" t="n">
-        <v>783.7208136658369</v>
+        <v>783.7208136659</v>
       </c>
       <c r="R549" t="n">
-        <v>-5625.344883225007</v>
+        <v>-5625.344883226137</v>
       </c>
       <c r="S549" t="n">
-        <v>6.104404513380993</v>
+        <v>6.104404513382207</v>
       </c>
       <c r="T549" t="n">
-        <v>-0.5998067510242705</v>
+        <v>-0.5998067510241719</v>
       </c>
       <c r="U549" t="n">
-        <v>4.374940279674226</v>
+        <v>4.374940279672543</v>
       </c>
       <c r="V549" t="n">
-        <v>7.53416385886825</v>
+        <v>7.534163858868249</v>
       </c>
       <c r="W549" t="n">
         <v>-53.41198049207387</v>
@@ -43855,13 +43855,13 @@
         <v>9</v>
       </c>
       <c r="C550" t="n">
-        <v>202.4773761261428</v>
+        <v>202.4773761261195</v>
       </c>
       <c r="D550" t="n">
-        <v>0.8203016426140606</v>
+        <v>0.8203016426035095</v>
       </c>
       <c r="E550" t="n">
-        <v>2844.698857885192</v>
+        <v>2844.698857886343</v>
       </c>
       <c r="F550" t="inlineStr">
         <is>
@@ -43869,52 +43869,52 @@
         </is>
       </c>
       <c r="G550" t="n">
-        <v>97.15970700958371</v>
+        <v>0.9636022842444197</v>
       </c>
       <c r="H550" t="n">
-        <v>94.1494070529439</v>
+        <v>-2.046697672395392</v>
       </c>
       <c r="I550" t="n">
-        <v>1e-30</v>
+        <v>0.1319273690187938</v>
       </c>
       <c r="J550" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K550" t="n">
-        <v>187.6355365788229</v>
+        <v>187.6355365788264</v>
       </c>
       <c r="L550" t="n">
-        <v>0</v>
+        <v>140.1816309583535</v>
       </c>
       <c r="M550" t="n">
-        <v>0</v>
+        <v>97.14560320748464</v>
       </c>
       <c r="N550" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O550" t="n">
         <v>30</v>
       </c>
       <c r="P550" t="n">
-        <v>4166.885822594914</v>
+        <v>4166.885822593537</v>
       </c>
       <c r="Q550" t="n">
-        <v>777.6776384313353</v>
+        <v>777.6776384313818</v>
       </c>
       <c r="R550" t="n">
-        <v>-5581.27129530732</v>
+        <v>-5581.271295308343</v>
       </c>
       <c r="S550" t="n">
-        <v>6.056650036666814</v>
+        <v>6.056650036667907</v>
       </c>
       <c r="T550" t="n">
-        <v>-0.6088199482214606</v>
+        <v>-0.6088199482213891</v>
       </c>
       <c r="U550" t="n">
-        <v>4.439804194630081</v>
+        <v>4.439804194628595</v>
       </c>
       <c r="V550" t="n">
-        <v>7.534290456483834</v>
+        <v>7.53429045648383</v>
       </c>
       <c r="W550" t="n">
         <v>-52.81325175198935</v>
@@ -43934,13 +43934,13 @@
         <v>9</v>
       </c>
       <c r="C551" t="n">
-        <v>203.6354459514544</v>
+        <v>203.6354459514278</v>
       </c>
       <c r="D551" t="n">
-        <v>1.245032702827247</v>
+        <v>1.245032702816916</v>
       </c>
       <c r="E551" t="n">
-        <v>2798.84106162355</v>
+        <v>2798.841061624663</v>
       </c>
       <c r="F551" t="inlineStr">
         <is>
@@ -43948,52 +43948,52 @@
         </is>
       </c>
       <c r="G551" t="n">
-        <v>97.30086824170596</v>
+        <v>1.104763516366727</v>
       </c>
       <c r="H551" t="n">
-        <v>94.29056828506614</v>
+        <v>-1.905536440273086</v>
       </c>
       <c r="I551" t="n">
-        <v>1e-30</v>
+        <v>0.128055005704005</v>
       </c>
       <c r="J551" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K551" t="n">
-        <v>187.4943753467006</v>
+        <v>187.4943753467041</v>
       </c>
       <c r="L551" t="n">
-        <v>0</v>
+        <v>139.1680488489267</v>
       </c>
       <c r="M551" t="n">
-        <v>0</v>
+        <v>96.66176126574605</v>
       </c>
       <c r="N551" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O551" t="n">
         <v>30</v>
       </c>
       <c r="P551" t="n">
-        <v>4227.209781744427</v>
+        <v>4227.209781743005</v>
       </c>
       <c r="Q551" t="n">
-        <v>771.5446829230992</v>
+        <v>771.5446829232458</v>
       </c>
       <c r="R551" t="n">
-        <v>-5536.55160296401</v>
+        <v>-5536.55160296508</v>
       </c>
       <c r="S551" t="n">
-        <v>6.008192559057026</v>
+        <v>6.008192559058182</v>
       </c>
       <c r="T551" t="n">
-        <v>-0.6177635598186524</v>
+        <v>-0.617763559818441</v>
       </c>
       <c r="U551" t="n">
-        <v>4.50415919583226</v>
+        <v>4.504159195830741</v>
       </c>
       <c r="V551" t="n">
-        <v>7.534418338793535</v>
+        <v>7.534418338793532</v>
       </c>
       <c r="W551" t="n">
         <v>-52.21399351846024</v>
@@ -44013,13 +44013,13 @@
         <v>9</v>
       </c>
       <c r="C552" t="n">
-        <v>204.8332383081026</v>
+        <v>204.8332383080773</v>
       </c>
       <c r="D552" t="n">
-        <v>1.667016739264319</v>
+        <v>1.667016739253737</v>
       </c>
       <c r="E552" t="n">
-        <v>2754.031713154259</v>
+        <v>2754.031713155371</v>
       </c>
       <c r="F552" t="inlineStr">
         <is>
@@ -44027,49 +44027,49 @@
         </is>
       </c>
       <c r="G552" t="n">
-        <v>97.44105423906659</v>
+        <v>1.244949513727307</v>
       </c>
       <c r="H552" t="n">
-        <v>94.43075428242678</v>
+        <v>-1.765350442912505</v>
       </c>
       <c r="I552" t="n">
-        <v>1e-30</v>
+        <v>0.1242273941939564</v>
       </c>
       <c r="J552" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K552" t="n">
-        <v>187.3541893493399</v>
+        <v>187.3541893493435</v>
       </c>
       <c r="L552" t="n">
-        <v>1.207418269725733e-06</v>
+        <v>138.104305381973</v>
       </c>
       <c r="M552" t="n">
-        <v>70.33480566036361</v>
+        <v>96.24236551255585</v>
       </c>
       <c r="N552" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O552" t="n">
         <v>30</v>
       </c>
       <c r="P552" t="n">
-        <v>4287.045698611028</v>
+        <v>4287.045698609667</v>
       </c>
       <c r="Q552" t="n">
-        <v>765.3226419826125</v>
+        <v>765.3226419826619</v>
       </c>
       <c r="R552" t="n">
-        <v>-5491.190931596967</v>
+        <v>-5491.190931598022</v>
       </c>
       <c r="S552" t="n">
-        <v>5.959037530960316</v>
+        <v>5.959037530961449</v>
       </c>
       <c r="T552" t="n">
-        <v>-0.6266365573002539</v>
+        <v>-0.6266365573001816</v>
       </c>
       <c r="U552" t="n">
-        <v>4.567997796353855</v>
+        <v>4.567997796352384</v>
       </c>
       <c r="V552" t="n">
         <v>7.534547467355448</v>
@@ -44092,13 +44092,13 @@
         <v>9</v>
       </c>
       <c r="C553" t="n">
-        <v>206.0718709473676</v>
+        <v>206.0718709473398</v>
       </c>
       <c r="D553" t="n">
-        <v>2.085555293391891</v>
+        <v>2.085555293381889</v>
       </c>
       <c r="E553" t="n">
-        <v>2710.327983490837</v>
+        <v>2710.327983491872</v>
       </c>
       <c r="F553" t="inlineStr">
         <is>
@@ -44106,52 +44106,52 @@
         </is>
       </c>
       <c r="G553" t="n">
-        <v>97.57999599551749</v>
+        <v>1.383891270178388</v>
       </c>
       <c r="H553" t="n">
-        <v>94.56969603887768</v>
+        <v>-1.626408686461425</v>
       </c>
       <c r="I553" t="n">
-        <v>1e-30</v>
+        <v>0.1204539354863381</v>
       </c>
       <c r="J553" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K553" t="n">
-        <v>187.2152475928891</v>
+        <v>187.2152475928924</v>
       </c>
       <c r="L553" t="n">
-        <v>1.207418269725733e-06</v>
+        <v>136.9912150477373</v>
       </c>
       <c r="M553" t="n">
-        <v>70.53272069801953</v>
+        <v>95.88220919698395</v>
       </c>
       <c r="N553" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O553" t="n">
         <v>30</v>
       </c>
       <c r="P553" t="n">
-        <v>4346.386625624478</v>
+        <v>4346.386625623116</v>
       </c>
       <c r="Q553" t="n">
-        <v>759.0122299733275</v>
+        <v>759.0122299734735</v>
       </c>
       <c r="R553" t="n">
-        <v>-5445.1944811305</v>
+        <v>-5445.194481131567</v>
       </c>
       <c r="S553" t="n">
-        <v>5.909190485904339</v>
+        <v>5.909190485905493</v>
       </c>
       <c r="T553" t="n">
-        <v>-0.6354379064785244</v>
+        <v>-0.6354379064783222</v>
       </c>
       <c r="U553" t="n">
-        <v>4.631312564474466</v>
+        <v>4.631312564473014</v>
       </c>
       <c r="V553" t="n">
-        <v>7.53467780343335</v>
+        <v>7.534677803433346</v>
       </c>
       <c r="W553" t="n">
         <v>-51.01396885030043</v>
@@ -44171,13 +44171,13 @@
         <v>9</v>
       </c>
       <c r="C554" t="n">
-        <v>207.3523972993183</v>
+        <v>207.3523972992915</v>
       </c>
       <c r="D554" t="n">
-        <v>2.499873187391483</v>
+        <v>2.499873187381054</v>
       </c>
       <c r="E554" t="n">
-        <v>2667.789236521265</v>
+        <v>2667.789236522325</v>
       </c>
       <c r="F554" t="inlineStr">
         <is>
@@ -44185,52 +44185,52 @@
         </is>
       </c>
       <c r="G554" t="n">
-        <v>97.71740265734378</v>
+        <v>1.521297932004555</v>
       </c>
       <c r="H554" t="n">
-        <v>94.70710270070397</v>
+        <v>-1.489002024635257</v>
       </c>
       <c r="I554" t="n">
-        <v>1e-30</v>
+        <v>0.11674437600519</v>
       </c>
       <c r="J554" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K554" t="n">
-        <v>187.0778409310628</v>
+        <v>187.0778409310662</v>
       </c>
       <c r="L554" t="n">
-        <v>1.478779333471098e-06</v>
+        <v>135.8294061927579</v>
       </c>
       <c r="M554" t="n">
-        <v>70.92478847444937</v>
+        <v>95.57648050454695</v>
       </c>
       <c r="N554" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O554" t="n">
         <v>30</v>
       </c>
       <c r="P554" t="n">
-        <v>4405.225672076961</v>
+        <v>4405.225672075633</v>
       </c>
       <c r="Q554" t="n">
-        <v>752.6141652463086</v>
+        <v>752.6141652463579</v>
       </c>
       <c r="R554" t="n">
-        <v>-5398.567525460371</v>
+        <v>-5398.567525461447</v>
       </c>
       <c r="S554" t="n">
-        <v>5.858657037776231</v>
+        <v>5.858657037777383</v>
       </c>
       <c r="T554" t="n">
-        <v>-0.6441665894734582</v>
+        <v>-0.6441665894733885</v>
       </c>
       <c r="U554" t="n">
-        <v>4.694096124580502</v>
+        <v>4.694096124579067</v>
       </c>
       <c r="V554" t="n">
-        <v>7.534809308010423</v>
+        <v>7.534809308010419</v>
       </c>
       <c r="W554" t="n">
         <v>-50.41323957626579</v>
@@ -44250,13 +44250,13 @@
         <v>9</v>
       </c>
       <c r="C555" t="n">
-        <v>208.6757869084895</v>
+        <v>208.6757869084597</v>
       </c>
       <c r="D555" t="n">
-        <v>2.90911457186337</v>
+        <v>2.909114571853467</v>
       </c>
       <c r="E555" t="n">
-        <v>2626.476946847463</v>
+        <v>2626.476946848447</v>
       </c>
       <c r="F555" t="inlineStr">
         <is>
@@ -44264,52 +44264,52 @@
         </is>
       </c>
       <c r="G555" t="n">
-        <v>97.85296111239334</v>
+        <v>1.656856387054326</v>
       </c>
       <c r="H555" t="n">
-        <v>94.84266115575353</v>
+        <v>-1.353443569585486</v>
       </c>
       <c r="I555" t="n">
-        <v>1e-30</v>
+        <v>0.1131087389981932</v>
       </c>
       <c r="J555" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K555" t="n">
-        <v>186.9422824760132</v>
+        <v>186.9422824760165</v>
       </c>
       <c r="L555" t="n">
-        <v>1.478779333471098e-06</v>
+        <v>134.6193791913571</v>
       </c>
       <c r="M555" t="n">
-        <v>71.43102279145035</v>
+        <v>95.32074702751629</v>
       </c>
       <c r="N555" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O555" t="n">
         <v>30</v>
       </c>
       <c r="P555" t="n">
-        <v>4463.556002706177</v>
+        <v>4463.556002704831</v>
       </c>
       <c r="Q555" t="n">
-        <v>746.1291826912677</v>
+        <v>746.1291826914181</v>
       </c>
       <c r="R555" t="n">
-        <v>-5351.315411883322</v>
+        <v>-5351.31541188442</v>
       </c>
       <c r="S555" t="n">
-        <v>5.807442882146315</v>
+        <v>5.807442882147509</v>
       </c>
       <c r="T555" t="n">
-        <v>-0.6528215875601142</v>
+        <v>-0.6528215875599146</v>
       </c>
       <c r="U555" t="n">
-        <v>4.756341158050326</v>
+        <v>4.756341158048892</v>
       </c>
       <c r="V555" t="n">
-        <v>7.534941941802864</v>
+        <v>7.534941941802862</v>
       </c>
       <c r="W555" t="n">
         <v>-49.81205530982673</v>
@@ -44329,13 +44329,13 @@
         <v>9</v>
       </c>
       <c r="C556" t="n">
-        <v>210.0429040298617</v>
+        <v>210.0429040298309</v>
       </c>
       <c r="D556" t="n">
-        <v>3.312339559696785</v>
+        <v>3.312339559687071</v>
       </c>
       <c r="E556" t="n">
-        <v>2586.45459369832</v>
+        <v>2586.454593699274</v>
       </c>
       <c r="F556" t="inlineStr">
         <is>
@@ -44343,52 +44343,52 @@
         </is>
       </c>
       <c r="G556" t="n">
-        <v>97.98633580580763</v>
+        <v>1.790231080468641</v>
       </c>
       <c r="H556" t="n">
-        <v>94.97603584916781</v>
+        <v>-1.220068876171171</v>
       </c>
       <c r="I556" t="n">
-        <v>1e-30</v>
+        <v>0.1095572992891028</v>
       </c>
       <c r="J556" t="n">
-        <v>96.19610472533579</v>
+        <v>0</v>
       </c>
       <c r="K556" t="n">
-        <v>186.8089077825989</v>
+        <v>186.8089077826021</v>
       </c>
       <c r="L556" t="n">
-        <v>2.091309789151873e-06</v>
+        <v>133.3615592146373</v>
       </c>
       <c r="M556" t="n">
-        <v>73.04481625715385</v>
+        <v>95.11093549104707</v>
       </c>
       <c r="N556" t="n">
-        <v>66.19610472533577</v>
+        <v>-30</v>
       </c>
       <c r="O556" t="n">
         <v>30</v>
       </c>
       <c r="P556" t="n">
-        <v>4521.37084016186</v>
+        <v>4521.370840160531</v>
       </c>
       <c r="Q556" t="n">
-        <v>739.5580241641421</v>
+        <v>739.5580241642948</v>
       </c>
       <c r="R556" t="n">
-        <v>-5303.443560526617</v>
+        <v>-5303.443560527729</v>
       </c>
       <c r="S556" t="n">
-        <v>5.755553794355986</v>
+        <v>5.755553794357191</v>
       </c>
       <c r="T556" t="n">
-        <v>-0.6614018942248392</v>
+        <v>-0.6614018942246418</v>
       </c>
       <c r="U556" t="n">
-        <v>4.818040404146046</v>
+        <v>4.818040404144627</v>
       </c>
       <c r="V556" t="n">
-        <v>7.535075665273283</v>
+        <v>7.535075665273278</v>
       </c>
       <c r="W556" t="n">
         <v>-49.21043204353123</v>
@@ -44408,13 +44408,13 @@
         <v>9</v>
       </c>
       <c r="C557" t="n">
-        <v>211.4544838858134</v>
+        <v>211.4544838857816</v>
       </c>
       <c r="D557" t="n">
-        <v>3.708521866752527</v>
+        <v>3.708521866742967</v>
       </c>
       <c r="E557" t="n">
-        <v>2547.787509362384</v>
+        <v>2547.787509363308</v>
       </c>
       <c r="F557" t="inlineStr">
         <is>
@@ -44422,10 +44422,10 @@
         </is>
       </c>
       <c r="G557" t="n">
-        <v>98.11716889490202</v>
+        <v>98.11716889489887</v>
       </c>
       <c r="H557" t="n">
-        <v>95.10686893826221</v>
+        <v>95.10686893825905</v>
       </c>
       <c r="I557" t="n">
         <v>1e-30</v>
@@ -44434,13 +44434,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K557" t="n">
-        <v>186.6780746935045</v>
+        <v>186.6780746935077</v>
       </c>
       <c r="L557" t="n">
         <v>2.414836539451468e-06</v>
       </c>
       <c r="M557" t="n">
-        <v>73.53209785310612</v>
+        <v>73.53209385288234</v>
       </c>
       <c r="N557" t="n">
         <v>66.19610472533577</v>
@@ -44449,25 +44449,25 @@
         <v>30</v>
       </c>
       <c r="P557" t="n">
-        <v>4578.66346577799</v>
+        <v>4578.663465776673</v>
       </c>
       <c r="Q557" t="n">
-        <v>732.9014381945541</v>
+        <v>732.9014381947086</v>
       </c>
       <c r="R557" t="n">
-        <v>-5254.957463765163</v>
+        <v>-5254.95746376629</v>
       </c>
       <c r="S557" t="n">
-        <v>5.702995628947246</v>
+        <v>5.702995628948468</v>
       </c>
       <c r="T557" t="n">
-        <v>-0.669906515096558</v>
+        <v>-0.6699065150963621</v>
       </c>
       <c r="U557" t="n">
-        <v>4.879186660898579</v>
+        <v>4.879186660897173</v>
       </c>
       <c r="V557" t="n">
-        <v>7.535210438644087</v>
+        <v>7.535210438644086</v>
       </c>
       <c r="W557" t="n">
         <v>-48.60838487108676</v>
@@ -44487,13 +44487,13 @@
         <v>9</v>
       </c>
       <c r="C558" t="n">
-        <v>212.9111067656693</v>
+        <v>212.9111067656335</v>
       </c>
       <c r="D558" t="n">
-        <v>4.096547753774744</v>
+        <v>4.096547753763324</v>
       </c>
       <c r="E558" t="n">
-        <v>2510.542677828512</v>
+        <v>2510.5426778296</v>
       </c>
       <c r="F558" t="inlineStr">
         <is>
@@ -44501,10 +44501,10 @@
         </is>
       </c>
       <c r="G558" t="n">
-        <v>98.24508080683785</v>
+        <v>98.24508080683408</v>
       </c>
       <c r="H558" t="n">
-        <v>95.23478085019804</v>
+        <v>95.23478085019427</v>
       </c>
       <c r="I558" t="n">
         <v>1e-30</v>
@@ -44513,13 +44513,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K558" t="n">
-        <v>186.5501627815687</v>
+        <v>186.5501627815725</v>
       </c>
       <c r="L558" t="n">
         <v>2.699869328381917e-06</v>
       </c>
       <c r="M558" t="n">
-        <v>73.3113557688645</v>
+        <v>73.31134204649082</v>
       </c>
       <c r="N558" t="n">
         <v>66.19610472533577</v>
@@ -44528,25 +44528,25 @@
         <v>30</v>
       </c>
       <c r="P558" t="n">
-        <v>4635.427219276055</v>
+        <v>4635.42721927458</v>
       </c>
       <c r="Q558" t="n">
-        <v>726.1601864783401</v>
+        <v>726.1601864784153</v>
       </c>
       <c r="R558" t="n">
-        <v>-5205.862685630362</v>
+        <v>-5205.862685631668</v>
       </c>
       <c r="S558" t="n">
-        <v>5.649774320074746</v>
+        <v>5.649774320076144</v>
       </c>
       <c r="T558" t="n">
-        <v>-0.6783344596460467</v>
+        <v>-0.6783344596459514</v>
       </c>
       <c r="U558" t="n">
-        <v>4.939772785983635</v>
+        <v>4.939772785982043</v>
       </c>
       <c r="V558" t="n">
-        <v>7.535346221910701</v>
+        <v>7.535346221910697</v>
       </c>
       <c r="W558" t="n">
         <v>-48.00592805334662</v>
@@ -44566,13 +44566,13 @@
         <v>9</v>
       </c>
       <c r="C559" t="n">
-        <v>214.4131703849984</v>
+        <v>214.4131703849636</v>
       </c>
       <c r="D559" t="n">
-        <v>4.475216536778464</v>
+        <v>4.475216536769</v>
       </c>
       <c r="E559" t="n">
-        <v>2474.788484611784</v>
+        <v>2474.78848461267</v>
       </c>
       <c r="F559" t="inlineStr">
         <is>
@@ -44580,10 +44580,10 @@
         </is>
       </c>
       <c r="G559" t="n">
-        <v>98.36967124667473</v>
+        <v>98.36967124667161</v>
       </c>
       <c r="H559" t="n">
-        <v>95.35937129003491</v>
+        <v>95.3593712900318</v>
       </c>
       <c r="I559" t="n">
         <v>1e-30</v>
@@ -44592,13 +44592,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K559" t="n">
-        <v>186.4255723417319</v>
+        <v>186.4255723417349</v>
       </c>
       <c r="L559" t="n">
         <v>3.306651113363207e-06</v>
       </c>
       <c r="M559" t="n">
-        <v>75.34960944967663</v>
+        <v>75.34960336813739</v>
       </c>
       <c r="N559" t="n">
         <v>66.19610472533577</v>
@@ -44607,25 +44607,25 @@
         <v>30</v>
       </c>
       <c r="P559" t="n">
-        <v>4691.655499048316</v>
+        <v>4691.655499046986</v>
       </c>
       <c r="Q559" t="n">
-        <v>719.3350474349415</v>
+        <v>719.3350474351042</v>
       </c>
       <c r="R559" t="n">
-        <v>-5156.16486121012</v>
+        <v>-5156.164861211308</v>
       </c>
       <c r="S559" t="n">
-        <v>5.595895881478255</v>
+        <v>5.595895881479543</v>
       </c>
       <c r="T559" t="n">
-        <v>-0.6866847374218867</v>
+        <v>-0.6866847374216889</v>
       </c>
       <c r="U559" t="n">
-        <v>4.999791697598162</v>
+        <v>4.999791697596742</v>
       </c>
       <c r="V559" t="n">
-        <v>7.535482974854696</v>
+        <v>7.535482974854692</v>
       </c>
       <c r="W559" t="n">
         <v>-47.40307507887626</v>
@@ -44645,13 +44645,13 @@
         <v>9</v>
       </c>
       <c r="C560" t="n">
-        <v>215.9608612841087</v>
+        <v>215.9608612840754</v>
       </c>
       <c r="D560" t="n">
-        <v>4.843242819019966</v>
+        <v>4.843242819010226</v>
       </c>
       <c r="E560" t="n">
-        <v>2440.59443056009</v>
+        <v>2440.594430560987</v>
       </c>
       <c r="F560" t="inlineStr">
         <is>
@@ -44659,10 +44659,10 @@
         </is>
       </c>
       <c r="G560" t="n">
-        <v>98.49052066006917</v>
+        <v>98.49052066006595</v>
       </c>
       <c r="H560" t="n">
-        <v>95.48022070342935</v>
+        <v>95.48022070342614</v>
       </c>
       <c r="I560" t="n">
         <v>1e-30</v>
@@ -44671,13 +44671,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K560" t="n">
-        <v>186.3047229283374</v>
+        <v>186.3047229283406</v>
       </c>
       <c r="L560" t="n">
         <v>3.721513044668944e-06</v>
       </c>
       <c r="M560" t="n">
-        <v>75.33306197442504</v>
+        <v>75.33304639660884</v>
       </c>
       <c r="N560" t="n">
         <v>66.19610472533577</v>
@@ -44686,25 +44686,25 @@
         <v>30</v>
       </c>
       <c r="P560" t="n">
-        <v>4747.341766621443</v>
+        <v>4747.341766620177</v>
       </c>
       <c r="Q560" t="n">
-        <v>712.426792232475</v>
+        <v>712.4267922325297</v>
       </c>
       <c r="R560" t="n">
-        <v>-5105.869696052083</v>
+        <v>-5105.869696053253</v>
       </c>
       <c r="S560" t="n">
-        <v>5.541366402426766</v>
+        <v>5.54136640242802</v>
       </c>
       <c r="T560" t="n">
-        <v>-0.694956386785475</v>
+        <v>-0.6949563867854097</v>
       </c>
       <c r="U560" t="n">
-        <v>5.059236375342109</v>
+        <v>5.059236375340741</v>
       </c>
       <c r="V560" t="n">
-        <v>7.535620657056911</v>
+        <v>7.535620657056909</v>
       </c>
       <c r="W560" t="n">
         <v>-46.79983871961837</v>
@@ -44724,13 +44724,13 @@
         <v>9</v>
       </c>
       <c r="C561" t="n">
-        <v>217.5541243790049</v>
+        <v>217.5541243789706</v>
       </c>
       <c r="D561" t="n">
-        <v>5.199261385104784</v>
+        <v>5.199261385095344</v>
       </c>
       <c r="E561" t="n">
-        <v>2408.030750974774</v>
+        <v>2408.030750975639</v>
       </c>
       <c r="F561" t="inlineStr">
         <is>
@@ -44738,10 +44738,10 @@
         </is>
       </c>
       <c r="G561" t="n">
-        <v>98.60719240483357</v>
+        <v>98.60719240483047</v>
       </c>
       <c r="H561" t="n">
-        <v>95.59689244819376</v>
+        <v>95.59689244819066</v>
       </c>
       <c r="I561" t="n">
         <v>1e-30</v>
@@ -44750,13 +44750,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K561" t="n">
-        <v>186.188051183573</v>
+        <v>186.1880511835761</v>
       </c>
       <c r="L561" t="n">
         <v>4.182619578303749e-06</v>
       </c>
       <c r="M561" t="n">
-        <v>76.00897003729628</v>
+        <v>76.0089580240972</v>
       </c>
       <c r="N561" t="n">
         <v>66.19610472533577</v>
@@ -44765,25 +44765,25 @@
         <v>30</v>
       </c>
       <c r="P561" t="n">
-        <v>4802.479542154793</v>
+        <v>4802.479542153545</v>
       </c>
       <c r="Q561" t="n">
-        <v>705.4362188033207</v>
+        <v>705.4362188033754</v>
       </c>
       <c r="R561" t="n">
-        <v>-5054.982965538787</v>
+        <v>-5054.982965539971</v>
       </c>
       <c r="S561" t="n">
-        <v>5.486192052118358</v>
+        <v>5.486192052119624</v>
       </c>
       <c r="T561" t="n">
-        <v>-0.7031484341134849</v>
+        <v>-0.703148434113419</v>
       </c>
       <c r="U561" t="n">
-        <v>5.11809986107308</v>
+        <v>5.118099861071727</v>
       </c>
       <c r="V561" t="n">
-        <v>7.535759227910561</v>
+        <v>7.535759227910558</v>
       </c>
       <c r="W561" t="n">
         <v>-46.19623108211105</v>
@@ -44803,13 +44803,13 @@
         <v>9</v>
       </c>
       <c r="C562" t="n">
-        <v>219.1926332876229</v>
+        <v>219.1926332875858</v>
       </c>
       <c r="D562" t="n">
-        <v>5.541834286484073</v>
+        <v>5.54183428647571</v>
       </c>
       <c r="E562" t="n">
-        <v>2377.168012560152</v>
+        <v>2377.168012560902</v>
       </c>
       <c r="F562" t="inlineStr">
         <is>
@@ -44817,10 +44817,10 @@
         </is>
       </c>
       <c r="G562" t="n">
-        <v>98.71923542338774</v>
+        <v>98.719235423385</v>
       </c>
       <c r="H562" t="n">
-        <v>95.70893546674793</v>
+        <v>95.70893546674519</v>
       </c>
       <c r="I562" t="n">
         <v>1e-30</v>
@@ -44829,13 +44829,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K562" t="n">
-        <v>186.0760081650188</v>
+        <v>186.0760081650216</v>
       </c>
       <c r="L562" t="n">
-        <v>4.829673078902939e-06</v>
+        <v>4.978313060379719e-06</v>
       </c>
       <c r="M562" t="n">
-        <v>77.183404834358</v>
+        <v>77.18340537795144</v>
       </c>
       <c r="N562" t="n">
         <v>66.19610472533577</v>
@@ -44844,25 +44844,25 @@
         <v>30</v>
       </c>
       <c r="P562" t="n">
-        <v>4857.062408895637</v>
+        <v>4857.062408894383</v>
       </c>
       <c r="Q562" t="n">
-        <v>698.3641279096347</v>
+        <v>698.3641279097998</v>
       </c>
       <c r="R562" t="n">
-        <v>-5003.510514276192</v>
+        <v>-5003.510514277388</v>
       </c>
       <c r="S562" t="n">
-        <v>5.430379075611245</v>
+        <v>5.430379075612541</v>
       </c>
       <c r="T562" t="n">
-        <v>-0.7112599225686402</v>
+        <v>-0.7112599225684545</v>
       </c>
       <c r="U562" t="n">
-        <v>5.176375259779546</v>
+        <v>5.176375259778208</v>
       </c>
       <c r="V562" t="n">
-        <v>7.535898646634424</v>
+        <v>7.535898646634422</v>
       </c>
       <c r="W562" t="n">
         <v>-45.5922636546492</v>
@@ -44882,13 +44882,13 @@
         <v>9</v>
       </c>
       <c r="C563" t="n">
-        <v>220.8757608815283</v>
+        <v>220.8757608814902</v>
       </c>
       <c r="D563" t="n">
-        <v>5.869460988651413</v>
+        <v>5.869460988643345</v>
       </c>
       <c r="E563" t="n">
-        <v>2348.076633264426</v>
+        <v>2348.076633265137</v>
       </c>
       <c r="F563" t="inlineStr">
         <is>
@@ -44896,10 +44896,10 @@
         </is>
       </c>
       <c r="G563" t="n">
-        <v>98.82618764344912</v>
+        <v>98.82618764344649</v>
       </c>
       <c r="H563" t="n">
-        <v>95.8158876868093</v>
+        <v>95.81588768680668</v>
       </c>
       <c r="I563" t="n">
         <v>1e-30</v>
@@ -44908,13 +44908,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K563" t="n">
-        <v>185.9690559449575</v>
+        <v>185.9690559449601</v>
       </c>
       <c r="L563" t="n">
         <v>5.466818727595008e-06</v>
       </c>
       <c r="M563" t="n">
-        <v>77.86385118496892</v>
+        <v>77.86385205343859</v>
       </c>
       <c r="N563" t="n">
         <v>66.19610472533577</v>
@@ -44923,25 +44923,25 @@
         <v>30</v>
       </c>
       <c r="P563" t="n">
-        <v>4911.08401338113</v>
+        <v>4911.084013379887</v>
       </c>
       <c r="Q563" t="n">
-        <v>691.2113262444966</v>
+        <v>691.2113262446626</v>
       </c>
       <c r="R563" t="n">
-        <v>-4951.45825546481</v>
+        <v>-4951.458255466021</v>
       </c>
       <c r="S563" t="n">
-        <v>5.373933793690897</v>
+        <v>5.37393379369221</v>
       </c>
       <c r="T563" t="n">
-        <v>-0.7192899079015461</v>
+        <v>-0.7192899079013608</v>
       </c>
       <c r="U563" t="n">
-        <v>5.234055740439508</v>
+        <v>5.234055740438181</v>
       </c>
       <c r="V563" t="n">
-        <v>7.536038872286277</v>
+        <v>7.536038872286274</v>
       </c>
       <c r="W563" t="n">
         <v>-44.9879473507686</v>
@@ -44961,13 +44961,13 @@
         <v>9</v>
       </c>
       <c r="C564" t="n">
-        <v>222.6025515021458</v>
+        <v>222.6025515021084</v>
       </c>
       <c r="D564" t="n">
-        <v>6.180591662978633</v>
+        <v>6.180591662969993</v>
       </c>
       <c r="E564" t="n">
-        <v>2320.826340102502</v>
+        <v>2320.82634010325</v>
       </c>
       <c r="F564" t="inlineStr">
         <is>
@@ -44975,10 +44975,10 @@
         </is>
       </c>
       <c r="G564" t="n">
-        <v>98.92758008106901</v>
+        <v>98.9275800810662</v>
       </c>
       <c r="H564" t="n">
-        <v>95.9172801244292</v>
+        <v>95.91728012442638</v>
       </c>
       <c r="I564" t="n">
         <v>1e-30</v>
@@ -44987,13 +44987,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K564" t="n">
-        <v>185.8676635073376</v>
+        <v>185.8676635073404</v>
       </c>
       <c r="L564" t="n">
         <v>6.156649318399962e-06</v>
       </c>
       <c r="M564" t="n">
-        <v>78.57043268864521</v>
+        <v>78.57042235289522</v>
       </c>
       <c r="N564" t="n">
         <v>66.19610472533577</v>
@@ -45002,25 +45002,25 @@
         <v>30</v>
       </c>
       <c r="P564" t="n">
-        <v>4964.538065163752</v>
+        <v>4964.538065162543</v>
       </c>
       <c r="Q564" t="n">
-        <v>683.9786334095611</v>
+        <v>683.9786334096182</v>
       </c>
       <c r="R564" t="n">
-        <v>-4898.832170263079</v>
+        <v>-4898.832170264296</v>
       </c>
       <c r="S564" t="n">
-        <v>5.316862603295606</v>
+        <v>5.316862603296913</v>
       </c>
       <c r="T564" t="n">
-        <v>-0.7272374506177417</v>
+        <v>-0.727237450617677</v>
       </c>
       <c r="U564" t="n">
-        <v>5.291134536872688</v>
+        <v>5.291134536871381</v>
       </c>
       <c r="V564" t="n">
-        <v>7.536179863776559</v>
+        <v>7.536179863776558</v>
       </c>
       <c r="W564" t="n">
         <v>-44.38329254936569</v>
@@ -45040,13 +45040,13 @@
         <v>9</v>
       </c>
       <c r="C565" t="n">
-        <v>224.3716961994747</v>
+        <v>224.3716961994361</v>
       </c>
       <c r="D565" t="n">
-        <v>6.473643660315294</v>
+        <v>6.47364366030705</v>
       </c>
       <c r="E565" t="n">
-        <v>2295.485576095053</v>
+        <v>2295.485576095764</v>
       </c>
       <c r="F565" t="inlineStr">
         <is>
@@ -45054,10 +45054,10 @@
         </is>
       </c>
       <c r="G565" t="n">
-        <v>99.02294161400349</v>
+        <v>99.02294161400079</v>
       </c>
       <c r="H565" t="n">
-        <v>96.01264165736367</v>
+        <v>96.01264165736097</v>
       </c>
       <c r="I565" t="n">
         <v>1e-30</v>
@@ -45066,13 +45066,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K565" t="n">
-        <v>185.7723019744031</v>
+        <v>185.7723019744058</v>
       </c>
       <c r="L565" t="n">
         <v>6.936089891014042e-06</v>
       </c>
       <c r="M565" t="n">
-        <v>79.64814691193459</v>
+        <v>79.64813667632153</v>
       </c>
       <c r="N565" t="n">
         <v>66.19610472533577</v>
@@ -45081,25 +45081,25 @@
         <v>30</v>
       </c>
       <c r="P565" t="n">
-        <v>5017.418337580904</v>
+        <v>5017.418337579703</v>
       </c>
       <c r="Q565" t="n">
-        <v>676.6668820222693</v>
+        <v>676.6668820223289</v>
       </c>
       <c r="R565" t="n">
-        <v>-4845.638307145966</v>
+        <v>-4845.638307147206</v>
       </c>
       <c r="S565" t="n">
-        <v>5.25917197692975</v>
+        <v>5.259171976931076</v>
       </c>
       <c r="T565" t="n">
-        <v>-0.7351016162973012</v>
+        <v>-0.7351016162972377</v>
       </c>
       <c r="U565" t="n">
-        <v>5.347604948591117</v>
+        <v>5.347604948589817</v>
       </c>
       <c r="V565" t="n">
-        <v>7.536321579882475</v>
+        <v>7.536321579882471</v>
       </c>
       <c r="W565" t="n">
         <v>-43.77830913176701</v>
@@ -45119,13 +45119,13 @@
         <v>9</v>
       </c>
       <c r="C566" t="n">
-        <v>226.181512337324</v>
+        <v>226.1815123372845</v>
       </c>
       <c r="D566" t="n">
-        <v>6.747021104045167</v>
+        <v>6.747021104037262</v>
       </c>
       <c r="E566" t="n">
-        <v>2272.120866400359</v>
+        <v>2272.120866401027</v>
       </c>
       <c r="F566" t="inlineStr">
         <is>
@@ -45133,10 +45133,10 @@
         </is>
       </c>
       <c r="G566" t="n">
-        <v>99.11180437506337</v>
+        <v>99.11180437506079</v>
       </c>
       <c r="H566" t="n">
-        <v>96.10150441842356</v>
+        <v>96.10150441842097</v>
       </c>
       <c r="I566" t="n">
         <v>1e-30</v>
@@ -45145,13 +45145,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K566" t="n">
-        <v>185.6834392133432</v>
+        <v>185.6834392133458</v>
       </c>
       <c r="L566" t="n">
         <v>7.588506156264613e-06</v>
       </c>
       <c r="M566" t="n">
-        <v>80.36830864612979</v>
+        <v>80.36829935483254</v>
       </c>
       <c r="N566" t="n">
         <v>66.19610472533577</v>
@@ -45160,25 +45160,25 @@
         <v>30</v>
       </c>
       <c r="P566" t="n">
-        <v>5069.718669982428</v>
+        <v>5069.718669981241</v>
       </c>
       <c r="Q566" t="n">
-        <v>669.2769067001054</v>
+        <v>669.2769067001641</v>
       </c>
       <c r="R566" t="n">
-        <v>-4791.882781260651</v>
+        <v>-4791.882781261899</v>
       </c>
       <c r="S566" t="n">
-        <v>5.200868460442428</v>
+        <v>5.200868460443766</v>
       </c>
       <c r="T566" t="n">
-        <v>-0.7428814872685925</v>
+        <v>-0.7428814872685285</v>
       </c>
       <c r="U566" t="n">
-        <v>5.403460341648873</v>
+        <v>5.403460341647587</v>
       </c>
       <c r="V566" t="n">
-        <v>7.536463979262645</v>
+        <v>7.536463979262639</v>
       </c>
       <c r="W566" t="n">
         <v>-43.17300651598499</v>
@@ -45198,13 +45198,13 @@
         <v>9</v>
       </c>
       <c r="C567" t="n">
-        <v>228.0299284037843</v>
+        <v>228.0299284037427</v>
       </c>
       <c r="D567" t="n">
-        <v>6.99913775725783</v>
+        <v>6.999137757250163</v>
       </c>
       <c r="E567" t="n">
-        <v>2250.796124886036</v>
+        <v>2250.796124886676</v>
       </c>
       <c r="F567" t="inlineStr">
         <is>
@@ -45212,10 +45212,10 @@
         </is>
       </c>
       <c r="G567" t="n">
-        <v>99.19370980211954</v>
+        <v>99.19370980211708</v>
       </c>
       <c r="H567" t="n">
-        <v>96.18340984547973</v>
+        <v>96.18340984547727</v>
       </c>
       <c r="I567" t="n">
         <v>1e-30</v>
@@ -45224,13 +45224,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K567" t="n">
-        <v>185.601533786287</v>
+        <v>185.6015337862895</v>
       </c>
       <c r="L567" t="n">
         <v>8.408695236852947e-06</v>
       </c>
       <c r="M567" t="n">
-        <v>81.40110483951221</v>
+        <v>81.40109533686675</v>
       </c>
       <c r="N567" t="n">
         <v>66.19610472533577</v>
@@ -45239,25 +45239,25 @@
         <v>30</v>
       </c>
       <c r="P567" t="n">
-        <v>5121.432966477251</v>
+        <v>5121.432966476044</v>
       </c>
       <c r="Q567" t="n">
-        <v>661.8095585636951</v>
+        <v>661.8095585637594</v>
       </c>
       <c r="R567" t="n">
-        <v>-4737.571773765349</v>
+        <v>-4737.571773766646</v>
       </c>
       <c r="S567" t="n">
-        <v>5.141958674525446</v>
+        <v>5.141958674526834</v>
       </c>
       <c r="T567" t="n">
-        <v>-0.7505761473351027</v>
+        <v>-0.750576147335034</v>
       </c>
       <c r="U567" t="n">
-        <v>5.458694149479199</v>
+        <v>5.458694149477893</v>
       </c>
       <c r="V567" t="n">
-        <v>7.53660702047243</v>
+        <v>7.536607020472425</v>
       </c>
       <c r="W567" t="n">
         <v>-42.5673936884317</v>
@@ -45277,13 +45277,13 @@
         <v>9</v>
       </c>
       <c r="C568" t="n">
-        <v>229.9144761738403</v>
+        <v>229.9144761737915</v>
       </c>
       <c r="D568" t="n">
-        <v>7.228442318890679</v>
+        <v>7.228442318883984</v>
       </c>
       <c r="E568" t="n">
-        <v>2231.571953806446</v>
+        <v>2231.571953807002</v>
       </c>
       <c r="F568" t="inlineStr">
         <is>
@@ -45291,10 +45291,10 @@
         </is>
       </c>
       <c r="G568" t="n">
-        <v>99.26821508560988</v>
+        <v>99.26821508560772</v>
       </c>
       <c r="H568" t="n">
-        <v>96.25791512897007</v>
+        <v>96.25791512896791</v>
       </c>
       <c r="I568" t="n">
         <v>1e-30</v>
@@ -45303,13 +45303,13 @@
         <v>96.19610472533579</v>
       </c>
       <c r="K568" t="n">
-        <v>185.5270285027967</v>
+        <v>185.5270285027989</v>
       </c>
       <c r="L568" t="n">
         <v>9.155702348202514e-06</v>
       </c>
       <c r="M568" t="n">
-        <v>82.13855383466304</v>
+        <v>82.1385537448414</v>
       </c>
       <c r="N568" t="n">
         <v>66.19610472533577</v>
@@ -45318,25 +45318,25 @@
         <v>30</v>
       </c>
       <c r="P568" t="n">
-        <v>5172.555198619751</v>
+        <v>5172.555198618413</v>
       </c>
       <c r="Q568" t="n">
-        <v>654.265690397388</v>
+        <v>654.2656903975879</v>
       </c>
       <c r="R568" t="n">
-        <v>-4682.711531172634</v>
+        <v>-4682.711531174085</v>
       </c>
       <c r="S568" t="n">
-        <v>5.082449311915426</v>
+        <v>5.082449311917001</v>
       </c>
       <c r="T568" t="n">
-        <v>-0.7581846971075861</v>
+        <v>-0.7581846971073876</v>
       </c>
       <c r="U568" t="n">
-        <v>5.513299873736206</v>
+        <v>5.513299873734779</v>
       </c>
       <c r="V568" t="n">
-        <v>7.536750661980093</v>
+        <v>7.536750661980092</v>
       </c>
       <c r="W568" t="n">
         <v>-41.9614792332833</v>

--- a/Reports/SAOCOM1A_transmitterCBA.xlsx
+++ b/Reports/SAOCOM1A_transmitterCBA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y606"/>
+  <dimension ref="A1:Z606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,11 @@
           <t>Alt</t>
         </is>
       </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Modulation</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -633,6 +638,11 @@
       <c r="Y2" t="n">
         <v>629.1458457996304</v>
       </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -712,6 +722,11 @@
       <c r="Y3" t="n">
         <v>629.3219801624577</v>
       </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -791,6 +806,11 @@
       <c r="Y4" t="n">
         <v>629.5118270326534</v>
       </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -870,6 +890,11 @@
       <c r="Y5" t="n">
         <v>629.7045834935557</v>
       </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -949,6 +974,11 @@
       <c r="Y6" t="n">
         <v>629.9001821203063</v>
       </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1028,6 +1058,11 @@
       <c r="Y7" t="n">
         <v>630.0985540848775</v>
       </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1107,6 +1142,11 @@
       <c r="Y8" t="n">
         <v>630.2996291866388</v>
       </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1186,6 +1226,11 @@
       <c r="Y9" t="n">
         <v>630.5033358840981</v>
       </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1265,6 +1310,11 @@
       <c r="Y10" t="n">
         <v>630.709601326982</v>
       </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1344,6 +1394,11 @@
       <c r="Y11" t="n">
         <v>630.9183513889012</v>
       </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1423,6 +1478,11 @@
       <c r="Y12" t="n">
         <v>631.1295107006389</v>
       </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1502,6 +1562,11 @@
       <c r="Y13" t="n">
         <v>631.3430026840794</v>
       </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1581,6 +1646,11 @@
       <c r="Y14" t="n">
         <v>631.5587495867221</v>
       </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1660,6 +1730,11 @@
       <c r="Y15" t="n">
         <v>631.776672516444</v>
       </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1739,6 +1814,11 @@
       <c r="Y16" t="n">
         <v>631.9966914773037</v>
       </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1818,6 +1898,11 @@
       <c r="Y17" t="n">
         <v>632.2187254050531</v>
       </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1897,6 +1982,11 @@
       <c r="Y18" t="n">
         <v>632.4426922041179</v>
       </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1976,6 +2066,11 @@
       <c r="Y19" t="n">
         <v>632.6685087842083</v>
       </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2055,6 +2150,11 @@
       <c r="Y20" t="n">
         <v>632.8960910977223</v>
       </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2134,6 +2234,11 @@
       <c r="Y21" t="n">
         <v>633.125354177596</v>
       </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2213,6 +2318,11 @@
       <c r="Y22" t="n">
         <v>633.3562121754001</v>
       </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2292,6 +2402,11 @@
       <c r="Y23" t="n">
         <v>633.5885784000217</v>
       </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2371,6 +2486,11 @@
       <c r="Y24" t="n">
         <v>633.8223653564586</v>
       </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2450,6 +2570,11 @@
       <c r="Y25" t="n">
         <v>634.0574847851158</v>
       </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2529,6 +2654,11 @@
       <c r="Y26" t="n">
         <v>634.2938477015316</v>
       </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2608,6 +2738,11 @@
       <c r="Y27" t="n">
         <v>634.5313644359974</v>
       </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2687,6 +2822,11 @@
       <c r="Y28" t="n">
         <v>634.7699446741386</v>
       </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2766,6 +2906,11 @@
       <c r="Y29" t="n">
         <v>635.0094974967993</v>
       </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2845,6 +2990,11 @@
       <c r="Y30" t="n">
         <v>635.2499314212266</v>
       </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2924,6 +3074,11 @@
       <c r="Y31" t="n">
         <v>635.4911544416548</v>
       </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3002,6 +3157,11 @@
       </c>
       <c r="Y32" t="n">
         <v>635.7330740705323</v>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -3082,6 +3242,11 @@
       <c r="Y33" t="n">
         <v>635.9755973797784</v>
       </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3161,6 +3326,11 @@
       <c r="Y34" t="n">
         <v>636.2186310421655</v>
       </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3240,6 +3410,11 @@
       <c r="Y35" t="n">
         <v>636.4620813729867</v>
       </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3319,6 +3494,11 @@
       <c r="Y36" t="n">
         <v>636.7058543716621</v>
       </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3398,6 +3578,11 @@
       <c r="Y37" t="n">
         <v>636.9498557637327</v>
       </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3477,6 +3662,11 @@
       <c r="Y38" t="n">
         <v>637.1939910423609</v>
       </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -3556,6 +3746,11 @@
       <c r="Y39" t="n">
         <v>637.4381655106487</v>
       </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3635,6 +3830,11 @@
       <c r="Y40" t="n">
         <v>637.682284323458</v>
       </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -3714,6 +3914,11 @@
       <c r="Y41" t="n">
         <v>637.926252529476</v>
       </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -3793,6 +3998,11 @@
       <c r="Y42" t="n">
         <v>638.1699751130836</v>
       </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -3872,6 +4082,11 @@
       <c r="Y43" t="n">
         <v>638.4133570365641</v>
       </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -3951,6 +4166,11 @@
       <c r="Y44" t="n">
         <v>638.6563032818976</v>
       </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -4030,6 +4250,11 @@
       <c r="Y45" t="n">
         <v>638.8987188925717</v>
       </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -4109,6 +4334,11 @@
       <c r="Y46" t="n">
         <v>639.140509015682</v>
       </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -4188,6 +4418,11 @@
       <c r="Y47" t="n">
         <v>639.3815789434566</v>
       </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -4267,6 +4502,11 @@
       <c r="Y48" t="n">
         <v>639.6218341548931</v>
       </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -4346,6 +4586,11 @@
       <c r="Y49" t="n">
         <v>639.8611803573333</v>
       </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -4425,6 +4670,11 @@
       <c r="Y50" t="n">
         <v>640.099523527669</v>
       </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -4504,6 +4754,11 @@
       <c r="Y51" t="n">
         <v>640.3367699535447</v>
       </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -4583,6 +4838,11 @@
       <c r="Y52" t="n">
         <v>640.5728262744891</v>
       </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -4662,6 +4922,11 @@
       <c r="Y53" t="n">
         <v>640.8075995225</v>
       </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -4741,6 +5006,11 @@
       <c r="Y54" t="n">
         <v>641.0409971625733</v>
       </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -4820,6 +5090,11 @@
       <c r="Y55" t="n">
         <v>641.2729271333505</v>
       </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -4899,6 +5174,11 @@
       <c r="Y56" t="n">
         <v>641.5032978867397</v>
       </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -4978,6 +5258,11 @@
       <c r="Y57" t="n">
         <v>641.7320184279736</v>
       </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -5057,6 +5342,11 @@
       <c r="Y58" t="n">
         <v>641.958998355157</v>
       </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -5136,6 +5426,11 @@
       <c r="Y59" t="n">
         <v>642.1841478981556</v>
       </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -5215,6 +5510,11 @@
       <c r="Y60" t="n">
         <v>642.4073779578356</v>
       </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -5294,6 +5594,11 @@
       <c r="Y61" t="n">
         <v>642.5306075445462</v>
       </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -5373,6 +5678,11 @@
       <c r="Y62" t="n">
         <v>626.178446237447</v>
       </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -5452,6 +5762,11 @@
       <c r="Y63" t="n">
         <v>626.2881058423094</v>
       </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -5531,6 +5846,11 @@
       <c r="Y64" t="n">
         <v>626.4101850586349</v>
       </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -5610,6 +5930,11 @@
       <c r="Y65" t="n">
         <v>626.5361683746912</v>
       </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -5689,6 +6014,11 @@
       <c r="Y66" t="n">
         <v>626.6660207538102</v>
       </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -5768,6 +6098,11 @@
       <c r="Y67" t="n">
         <v>626.7997053050732</v>
       </c>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -5847,6 +6182,11 @@
       <c r="Y68" t="n">
         <v>626.9371832988576</v>
       </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -5926,6 +6266,11 @@
       <c r="Y69" t="n">
         <v>627.0784141831643</v>
       </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -6005,6 +6350,11 @@
       <c r="Y70" t="n">
         <v>627.2233556008551</v>
       </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -6084,6 +6434,11 @@
       <c r="Y71" t="n">
         <v>627.3719634079069</v>
       </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -6163,6 +6518,11 @@
       <c r="Y72" t="n">
         <v>627.5241916923439</v>
       </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -6242,6 +6602,11 @@
       <c r="Y73" t="n">
         <v>627.6799927940649</v>
       </c>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -6321,6 +6686,11 @@
       <c r="Y74" t="n">
         <v>627.8393173257867</v>
       </c>
+      <c r="Z74" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -6400,6 +6770,11 @@
       <c r="Y75" t="n">
         <v>628.002114194433</v>
       </c>
+      <c r="Z75" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -6479,6 +6854,11 @@
       <c r="Y76" t="n">
         <v>628.1683306235607</v>
       </c>
+      <c r="Z76" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -6558,6 +6938,11 @@
       <c r="Y77" t="n">
         <v>628.3379121766384</v>
       </c>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -6637,6 +7022,11 @@
       <c r="Y78" t="n">
         <v>628.5108027809847</v>
       </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -6716,6 +7106,11 @@
       <c r="Y79" t="n">
         <v>628.6869447526381</v>
       </c>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -6795,6 +7190,11 @@
       <c r="Y80" t="n">
         <v>628.8662788218413</v>
       </c>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -6874,6 +7274,11 @@
       <c r="Y81" t="n">
         <v>629.0487441594279</v>
       </c>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -6953,6 +7358,11 @@
       <c r="Y82" t="n">
         <v>629.2342784038475</v>
       </c>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -7032,6 +7442,11 @@
       <c r="Y83" t="n">
         <v>629.4228176890623</v>
       </c>
+      <c r="Z83" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -7111,6 +7526,11 @@
       <c r="Y84" t="n">
         <v>629.6142966729901</v>
       </c>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -7190,6 +7610,11 @@
       <c r="Y85" t="n">
         <v>629.8086485666224</v>
       </c>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -7269,6 +7694,11 @@
       <c r="Y86" t="n">
         <v>630.0058051641801</v>
       </c>
+      <c r="Z86" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -7348,6 +7778,11 @@
       <c r="Y87" t="n">
         <v>630.2056968734016</v>
       </c>
+      <c r="Z87" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -7427,6 +7862,11 @@
       <c r="Y88" t="n">
         <v>630.4082527468275</v>
       </c>
+      <c r="Z88" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -7506,6 +7946,11 @@
       <c r="Y89" t="n">
         <v>630.6134005138149</v>
       </c>
+      <c r="Z89" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -7585,6 +8030,11 @@
       <c r="Y90" t="n">
         <v>630.8210666127774</v>
       </c>
+      <c r="Z90" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -7664,6 +8114,11 @@
       <c r="Y91" t="n">
         <v>631.0311762242261</v>
       </c>
+      <c r="Z91" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -7743,6 +8198,11 @@
       <c r="Y92" t="n">
         <v>631.2436533046559</v>
       </c>
+      <c r="Z92" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -7822,6 +8282,11 @@
       <c r="Y93" t="n">
         <v>631.4584206205034</v>
       </c>
+      <c r="Z93" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -7901,6 +8366,11 @@
       <c r="Y94" t="n">
         <v>631.6753997827761</v>
       </c>
+      <c r="Z94" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -7980,6 +8450,11 @@
       <c r="Y95" t="n">
         <v>631.8945112827479</v>
       </c>
+      <c r="Z95" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -8059,6 +8534,11 @@
       <c r="Y96" t="n">
         <v>632.1156745272565</v>
       </c>
+      <c r="Z96" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -8138,6 +8618,11 @@
       <c r="Y97" t="n">
         <v>632.3388078752575</v>
       </c>
+      <c r="Z97" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -8217,6 +8702,11 @@
       <c r="Y98" t="n">
         <v>632.5638286743451</v>
       </c>
+      <c r="Z98" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -8296,6 +8786,11 @@
       <c r="Y99" t="n">
         <v>632.7906532981283</v>
       </c>
+      <c r="Z99" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -8375,6 +8870,11 @@
       <c r="Y100" t="n">
         <v>633.0191971835675</v>
       </c>
+      <c r="Z100" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -8454,6 +8954,11 @@
       <c r="Y101" t="n">
         <v>633.2493748692046</v>
       </c>
+      <c r="Z101" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -8533,6 +9038,11 @@
       <c r="Y102" t="n">
         <v>633.4811000335267</v>
       </c>
+      <c r="Z102" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -8612,6 +9122,11 @@
       <c r="Y103" t="n">
         <v>633.7142855335304</v>
       </c>
+      <c r="Z103" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -8691,6 +9206,11 @@
       <c r="Y104" t="n">
         <v>633.9488434440941</v>
       </c>
+      <c r="Z104" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -8770,6 +9290,11 @@
       <c r="Y105" t="n">
         <v>634.1846850973594</v>
       </c>
+      <c r="Z105" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -8849,6 +9374,11 @@
       <c r="Y106" t="n">
         <v>634.4217211223161</v>
       </c>
+      <c r="Z106" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -8928,6 +9458,11 @@
       <c r="Y107" t="n">
         <v>634.6598614851255</v>
       </c>
+      <c r="Z107" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -9007,6 +9542,11 @@
       <c r="Y108" t="n">
         <v>634.8990155291697</v>
       </c>
+      <c r="Z108" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -9086,6 +9626,11 @@
       <c r="Y109" t="n">
         <v>635.1390920157731</v>
       </c>
+      <c r="Z109" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -9165,6 +9710,11 @@
       <c r="Y110" t="n">
         <v>635.3799991650588</v>
       </c>
+      <c r="Z110" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -9244,6 +9794,11 @@
       <c r="Y111" t="n">
         <v>635.6216446968348</v>
       </c>
+      <c r="Z111" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -9323,6 +9878,11 @@
       <c r="Y112" t="n">
         <v>635.8639358717815</v>
       </c>
+      <c r="Z112" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -9402,6 +9962,11 @@
       <c r="Y113" t="n">
         <v>636.1067795329288</v>
       </c>
+      <c r="Z113" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -9481,6 +10046,11 @@
       <c r="Y114" t="n">
         <v>636.3500821471091</v>
       </c>
+      <c r="Z114" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -9560,6 +10130,11 @@
       <c r="Y115" t="n">
         <v>636.5937498465781</v>
       </c>
+      <c r="Z115" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -9639,6 +10214,11 @@
       <c r="Y116" t="n">
         <v>636.8376884708849</v>
       </c>
+      <c r="Z116" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -9718,6 +10298,11 @@
       <c r="Y117" t="n">
         <v>637.0818036085432</v>
       </c>
+      <c r="Z117" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -9797,6 +10382,11 @@
       <c r="Y118" t="n">
         <v>637.3260006391373</v>
       </c>
+      <c r="Z118" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -9876,6 +10466,11 @@
       <c r="Y119" t="n">
         <v>637.5701847752041</v>
       </c>
+      <c r="Z119" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -9955,6 +10550,11 @@
       <c r="Y120" t="n">
         <v>637.8142611041604</v>
       </c>
+      <c r="Z120" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -10034,6 +10634,11 @@
       <c r="Y121" t="n">
         <v>638.058134630435</v>
       </c>
+      <c r="Z121" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -10113,6 +10718,11 @@
       <c r="Y122" t="n">
         <v>638.3017103174162</v>
       </c>
+      <c r="Z122" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -10192,6 +10802,11 @@
       <c r="Y123" t="n">
         <v>638.5448931293826</v>
       </c>
+      <c r="Z123" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -10271,6 +10886,11 @@
       <c r="Y124" t="n">
         <v>638.7875880735219</v>
       </c>
+      <c r="Z124" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -10350,6 +10970,11 @@
       <c r="Y125" t="n">
         <v>639.0297002416828</v>
       </c>
+      <c r="Z125" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -10429,6 +11054,11 @@
       <c r="Y126" t="n">
         <v>639.2711348522827</v>
       </c>
+      <c r="Z126" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -10508,6 +11138,11 @@
       <c r="Y127" t="n">
         <v>639.5117972917974</v>
       </c>
+      <c r="Z127" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -10587,6 +11222,11 @@
       <c r="Y128" t="n">
         <v>639.7515931565044</v>
       </c>
+      <c r="Z128" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -10666,6 +11306,11 @@
       <c r="Y129" t="n">
         <v>639.9904282936604</v>
       </c>
+      <c r="Z129" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -10745,6 +11390,11 @@
       <c r="Y130" t="n">
         <v>640.228208842906</v>
       </c>
+      <c r="Z130" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -10824,6 +11474,11 @@
       <c r="Y131" t="n">
         <v>640.4648412774715</v>
       </c>
+      <c r="Z131" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -10903,6 +11558,11 @@
       <c r="Y132" t="n">
         <v>640.7002324446772</v>
       </c>
+      <c r="Z132" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -10982,6 +11642,11 @@
       <c r="Y133" t="n">
         <v>640.9342896067902</v>
       </c>
+      <c r="Z133" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -11061,6 +11726,11 @@
       <c r="Y134" t="n">
         <v>641.1669204816224</v>
       </c>
+      <c r="Z134" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -11140,6 +11810,11 @@
       <c r="Y135" t="n">
         <v>641.3980332824136</v>
       </c>
+      <c r="Z135" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -11219,6 +11894,11 @@
       <c r="Y136" t="n">
         <v>641.6275367577608</v>
       </c>
+      <c r="Z136" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -11298,6 +11978,11 @@
       <c r="Y137" t="n">
         <v>641.8553402316584</v>
       </c>
+      <c r="Z137" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -11377,6 +12062,11 @@
       <c r="Y138" t="n">
         <v>642.0813536422941</v>
       </c>
+      <c r="Z138" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -11456,6 +12146,11 @@
       <c r="Y139" t="n">
         <v>642.3054875813671</v>
       </c>
+      <c r="Z139" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -11535,6 +12230,11 @@
       <c r="Y140" t="n">
         <v>642.5276533327261</v>
       </c>
+      <c r="Z140" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -11614,6 +12314,11 @@
       <c r="Y141" t="n">
         <v>642.5927707301488</v>
       </c>
+      <c r="Z141" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -11693,6 +12398,11 @@
       <c r="Y142" t="n">
         <v>630.6881817410214</v>
       </c>
+      <c r="Z142" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -11772,6 +12482,11 @@
       <c r="Y143" t="n">
         <v>630.8913125643572</v>
       </c>
+      <c r="Z143" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -11851,6 +12566,11 @@
       <c r="Y144" t="n">
         <v>631.1022848743679</v>
       </c>
+      <c r="Z144" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -11930,6 +12650,11 @@
       <c r="Y145" t="n">
         <v>631.315597938301</v>
       </c>
+      <c r="Z145" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -12009,6 +12734,11 @@
       <c r="Y146" t="n">
         <v>631.5311741088954</v>
       </c>
+      <c r="Z146" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -12088,6 +12818,11 @@
       <c r="Y147" t="n">
         <v>631.7489345960207</v>
       </c>
+      <c r="Z147" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -12167,6 +12902,11 @@
       <c r="Y148" t="n">
         <v>631.9687995019794</v>
       </c>
+      <c r="Z148" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -12246,6 +12986,11 @@
       <c r="Y149" t="n">
         <v>632.1906878576323</v>
       </c>
+      <c r="Z149" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -12325,6 +13070,11 @@
       <c r="Y150" t="n">
         <v>632.4145176585025</v>
       </c>
+      <c r="Z150" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -12404,6 +13154,11 @@
       <c r="Y151" t="n">
         <v>632.6402059020137</v>
       </c>
+      <c r="Z151" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -12483,6 +13238,11 @@
       <c r="Y152" t="n">
         <v>632.8676686246027</v>
       </c>
+      <c r="Z152" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -12562,6 +13322,11 @@
       <c r="Y153" t="n">
         <v>633.0968209393983</v>
       </c>
+      <c r="Z153" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -12641,6 +13406,11 @@
       <c r="Y154" t="n">
         <v>633.327577074574</v>
       </c>
+      <c r="Z154" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -12720,6 +13490,11 @@
       <c r="Y155" t="n">
         <v>633.5598504118152</v>
       </c>
+      <c r="Z155" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -12799,6 +13574,11 @@
       <c r="Y156" t="n">
         <v>633.7935535250341</v>
       </c>
+      <c r="Z156" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -12878,6 +13658,11 @@
       <c r="Y157" t="n">
         <v>634.0285982197937</v>
       </c>
+      <c r="Z157" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -12957,6 +13742,11 @@
       <c r="Y158" t="n">
         <v>634.2648955729483</v>
       </c>
+      <c r="Z158" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -13036,6 +13826,11 @@
       <c r="Y159" t="n">
         <v>634.5023559721836</v>
       </c>
+      <c r="Z159" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -13115,6 +13910,11 @@
       <c r="Y160" t="n">
         <v>634.7408891564526</v>
       </c>
+      <c r="Z160" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -13194,6 +13994,11 @@
       <c r="Y161" t="n">
         <v>634.8227602540132</v>
       </c>
+      <c r="Z161" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -13273,6 +14078,11 @@
       <c r="Y162" t="n">
         <v>642.3222712037898</v>
       </c>
+      <c r="Z162" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -13352,6 +14162,11 @@
       <c r="Y163" t="n">
         <v>642.1150773941157</v>
       </c>
+      <c r="Z163" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -13431,6 +14246,11 @@
       <c r="Y164" t="n">
         <v>641.8901668363908</v>
       </c>
+      <c r="Z164" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -13510,6 +14330,11 @@
       <c r="Y165" t="n">
         <v>641.6634889544149</v>
       </c>
+      <c r="Z165" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -13589,6 +14414,11 @@
       <c r="Y166" t="n">
         <v>641.4351338513512</v>
       </c>
+      <c r="Z166" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -13668,6 +14498,11 @@
       <c r="Y167" t="n">
         <v>641.20519222973</v>
       </c>
+      <c r="Z167" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -13747,6 +14582,11 @@
       <c r="Y168" t="n">
         <v>640.9737553518125</v>
       </c>
+      <c r="Z168" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -13826,6 +14666,11 @@
       <c r="Y169" t="n">
         <v>640.7409149999663</v>
       </c>
+      <c r="Z169" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -13905,6 +14750,11 @@
       <c r="Y170" t="n">
         <v>640.5067634366167</v>
       </c>
+      <c r="Z170" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -13984,6 +14834,11 @@
       <c r="Y171" t="n">
         <v>640.271393364104</v>
       </c>
+      <c r="Z171" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -14063,6 +14918,11 @@
       <c r="Y172" t="n">
         <v>640.034897884063</v>
       </c>
+      <c r="Z172" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -14142,6 +15002,11 @@
       <c r="Y173" t="n">
         <v>639.7973704567567</v>
       </c>
+      <c r="Z173" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -14221,6 +15086,11 @@
       <c r="Y174" t="n">
         <v>639.5589048601292</v>
       </c>
+      <c r="Z174" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -14300,6 +15170,11 @@
       <c r="Y175" t="n">
         <v>639.3195951487423</v>
       </c>
+      <c r="Z175" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -14379,6 +15254,11 @@
       <c r="Y176" t="n">
         <v>639.0795356125209</v>
       </c>
+      <c r="Z176" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -14458,6 +15338,11 @@
       <c r="Y177" t="n">
         <v>638.8388207352649</v>
       </c>
+      <c r="Z177" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -14537,6 +15422,11 @@
       <c r="Y178" t="n">
         <v>638.5975451530066</v>
       </c>
+      <c r="Z178" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -14616,6 +15506,11 @@
       <c r="Y179" t="n">
         <v>638.3558036124581</v>
       </c>
+      <c r="Z179" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -14695,6 +15590,11 @@
       <c r="Y180" t="n">
         <v>638.1136909293646</v>
       </c>
+      <c r="Z180" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -14774,6 +15674,11 @@
       <c r="Y181" t="n">
         <v>637.8713019461902</v>
       </c>
+      <c r="Z181" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -14853,6 +15758,11 @@
       <c r="Y182" t="n">
         <v>637.6287314907476</v>
       </c>
+      <c r="Z182" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -14932,6 +15842,11 @@
       <c r="Y183" t="n">
         <v>637.3860743338485</v>
       </c>
+      <c r="Z183" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -15011,6 +15926,11 @@
       <c r="Y184" t="n">
         <v>637.1434251475939</v>
       </c>
+      <c r="Z184" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -15090,6 +16010,11 @@
       <c r="Y185" t="n">
         <v>636.9008784631915</v>
       </c>
+      <c r="Z185" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -15169,6 +16094,11 @@
       <c r="Y186" t="n">
         <v>636.6585286292857</v>
       </c>
+      <c r="Z186" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -15248,6 +16178,11 @@
       <c r="Y187" t="n">
         <v>636.416469769641</v>
       </c>
+      <c r="Z187" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -15327,6 +16262,11 @@
       <c r="Y188" t="n">
         <v>636.1747957416615</v>
       </c>
+      <c r="Z188" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -15406,6 +16346,11 @@
       <c r="Y189" t="n">
         <v>635.9336000944988</v>
       </c>
+      <c r="Z189" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -15485,6 +16430,11 @@
       <c r="Y190" t="n">
         <v>635.6929760271682</v>
       </c>
+      <c r="Z190" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -15564,6 +16514,11 @@
       <c r="Y191" t="n">
         <v>635.4530163473821</v>
       </c>
+      <c r="Z191" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -15643,6 +16598,11 @@
       <c r="Y192" t="n">
         <v>635.2138134297401</v>
       </c>
+      <c r="Z192" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -15722,6 +16682,11 @@
       <c r="Y193" t="n">
         <v>634.9754591747467</v>
       </c>
+      <c r="Z193" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -15801,6 +16766,11 @@
       <c r="Y194" t="n">
         <v>634.7380449676122</v>
       </c>
+      <c r="Z194" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -15880,6 +16850,11 @@
       <c r="Y195" t="n">
         <v>634.5016616373205</v>
       </c>
+      <c r="Z195" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -15959,6 +16934,11 @@
       <c r="Y196" t="n">
         <v>634.2663994159789</v>
       </c>
+      <c r="Z196" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -16038,6 +17018,11 @@
       <c r="Y197" t="n">
         <v>634.0323478984799</v>
       </c>
+      <c r="Z197" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -16117,6 +17102,11 @@
       <c r="Y198" t="n">
         <v>633.7995960023178</v>
       </c>
+      <c r="Z198" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -16196,6 +17186,11 @@
       <c r="Y199" t="n">
         <v>633.5682319275322</v>
       </c>
+      <c r="Z199" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -16275,6 +17270,11 @@
       <c r="Y200" t="n">
         <v>633.338343117313</v>
       </c>
+      <c r="Z200" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -16354,6 +17354,11 @@
       <c r="Y201" t="n">
         <v>633.1100162186569</v>
       </c>
+      <c r="Z201" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -16433,6 +17438,11 @@
       <c r="Y202" t="n">
         <v>632.8833370433301</v>
       </c>
+      <c r="Z202" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -16512,6 +17522,11 @@
       <c r="Y203" t="n">
         <v>632.6583905294635</v>
       </c>
+      <c r="Z203" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -16591,6 +17606,11 @@
       <c r="Y204" t="n">
         <v>632.4352607032453</v>
       </c>
+      <c r="Z204" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -16670,6 +17690,11 @@
       <c r="Y205" t="n">
         <v>632.2140306410772</v>
       </c>
+      <c r="Z205" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -16749,6 +17774,11 @@
       <c r="Y206" t="n">
         <v>631.9947824323642</v>
       </c>
+      <c r="Z206" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -16828,6 +17858,11 @@
       <c r="Y207" t="n">
         <v>631.7775971424163</v>
       </c>
+      <c r="Z207" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -16907,6 +17942,11 @@
       <c r="Y208" t="n">
         <v>631.5625547759633</v>
       </c>
+      <c r="Z208" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -16986,6 +18026,11 @@
       <c r="Y209" t="n">
         <v>631.3497342412719</v>
       </c>
+      <c r="Z209" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -17065,6 +18110,11 @@
       <c r="Y210" t="n">
         <v>631.1392133144415</v>
       </c>
+      <c r="Z210" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -17144,6 +18194,11 @@
       <c r="Y211" t="n">
         <v>630.9310686044959</v>
       </c>
+      <c r="Z211" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -17223,6 +18278,11 @@
       <c r="Y212" t="n">
         <v>630.7253755189339</v>
       </c>
+      <c r="Z212" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -17302,6 +18362,11 @@
       <c r="Y213" t="n">
         <v>630.5222082297392</v>
       </c>
+      <c r="Z213" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -17381,6 +18446,11 @@
       <c r="Y214" t="n">
         <v>630.3216396401072</v>
       </c>
+      <c r="Z214" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -17460,6 +18530,11 @@
       <c r="Y215" t="n">
         <v>630.1237413515615</v>
       </c>
+      <c r="Z215" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -17539,6 +18614,11 @@
       <c r="Y216" t="n">
         <v>629.9285836318551</v>
       </c>
+      <c r="Z216" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -17618,6 +18698,11 @@
       <c r="Y217" t="n">
         <v>629.7362353833846</v>
       </c>
+      <c r="Z217" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -17697,6 +18782,11 @@
       <c r="Y218" t="n">
         <v>629.5467641123506</v>
       </c>
+      <c r="Z218" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -17776,6 +18866,11 @@
       <c r="Y219" t="n">
         <v>629.3602358984509</v>
       </c>
+      <c r="Z219" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -17855,6 +18950,11 @@
       <c r="Y220" t="n">
         <v>629.176715365297</v>
       </c>
+      <c r="Z220" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -17934,6 +19034,11 @@
       <c r="Y221" t="n">
         <v>628.9962656514816</v>
       </c>
+      <c r="Z221" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -18013,6 +19118,11 @@
       <c r="Y222" t="n">
         <v>628.8189483825604</v>
       </c>
+      <c r="Z222" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -18092,6 +19202,11 @@
       <c r="Y223" t="n">
         <v>628.6448236433573</v>
       </c>
+      <c r="Z223" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -18171,6 +19286,11 @@
       <c r="Y224" t="n">
         <v>628.4739499513126</v>
       </c>
+      <c r="Z224" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -18250,6 +19370,11 @@
       <c r="Y225" t="n">
         <v>628.3063842306266</v>
       </c>
+      <c r="Z225" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -18329,6 +19454,11 @@
       <c r="Y226" t="n">
         <v>628.1421817867827</v>
       </c>
+      <c r="Z226" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -18408,6 +19538,11 @@
       <c r="Y227" t="n">
         <v>627.9813962823345</v>
       </c>
+      <c r="Z227" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -18487,6 +19622,11 @@
       <c r="Y228" t="n">
         <v>627.8240797131566</v>
       </c>
+      <c r="Z228" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -18566,6 +19706,11 @@
       <c r="Y229" t="n">
         <v>627.670282385545</v>
       </c>
+      <c r="Z229" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -18645,6 +19790,11 @@
       <c r="Y230" t="n">
         <v>627.5200528942497</v>
       </c>
+      <c r="Z230" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -18724,6 +19874,11 @@
       <c r="Y231" t="n">
         <v>627.3734381013071</v>
       </c>
+      <c r="Z231" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -18803,6 +19958,11 @@
       <c r="Y232" t="n">
         <v>627.2304831155647</v>
       </c>
+      <c r="Z232" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -18882,6 +20042,11 @@
       <c r="Y233" t="n">
         <v>627.0912312733251</v>
       </c>
+      <c r="Z233" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -18961,6 +20126,11 @@
       <c r="Y234" t="n">
         <v>626.9557241195544</v>
       </c>
+      <c r="Z234" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -19040,6 +20210,11 @@
       <c r="Y235" t="n">
         <v>626.8240013902282</v>
       </c>
+      <c r="Z235" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -19119,6 +20294,11 @@
       <c r="Y236" t="n">
         <v>626.6961009954055</v>
       </c>
+      <c r="Z236" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -19198,6 +20378,11 @@
       <c r="Y237" t="n">
         <v>626.5720590032086</v>
       </c>
+      <c r="Z237" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -19277,6 +20462,11 @@
       <c r="Y238" t="n">
         <v>626.451909624811</v>
       </c>
+      <c r="Z238" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -19356,6 +20546,11 @@
       <c r="Y239" t="n">
         <v>626.3999673147622</v>
       </c>
+      <c r="Z239" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -19435,6 +20630,11 @@
       <c r="Y240" t="n">
         <v>643.0172107929366</v>
       </c>
+      <c r="Z240" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -19514,6 +20714,11 @@
       <c r="Y241" t="n">
         <v>642.8124080623868</v>
       </c>
+      <c r="Z241" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -19593,6 +20798,11 @@
       <c r="Y242" t="n">
         <v>642.5936692787635</v>
       </c>
+      <c r="Z242" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -19672,6 +20882,11 @@
       <c r="Y243" t="n">
         <v>642.3728836583332</v>
       </c>
+      <c r="Z243" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -19751,6 +20966,11 @@
       <c r="Y244" t="n">
         <v>642.150139161108</v>
       </c>
+      <c r="Z244" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -19830,6 +21050,11 @@
       <c r="Y245" t="n">
         <v>641.92552446847</v>
       </c>
+      <c r="Z245" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -19909,6 +21134,11 @@
       <c r="Y246" t="n">
         <v>641.6991289446645</v>
       </c>
+      <c r="Z246" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -19988,6 +21218,11 @@
       <c r="Y247" t="n">
         <v>641.4710425979479</v>
       </c>
+      <c r="Z247" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -20067,6 +21302,11 @@
       <c r="Y248" t="n">
         <v>641.2413560416881</v>
       </c>
+      <c r="Z248" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -20146,6 +21386,11 @@
       <c r="Y249" t="n">
         <v>641.0101604549075</v>
       </c>
+      <c r="Z249" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -20225,6 +21470,11 @@
       <c r="Y250" t="n">
         <v>640.7775475426314</v>
       </c>
+      <c r="Z250" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -20304,6 +21554,11 @@
       <c r="Y251" t="n">
         <v>640.5436094958366</v>
       </c>
+      <c r="Z251" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -20383,6 +21638,11 @@
       <c r="Y252" t="n">
         <v>640.308438951426</v>
       </c>
+      <c r="Z252" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -20462,6 +21722,11 @@
       <c r="Y253" t="n">
         <v>640.0721289515378</v>
       </c>
+      <c r="Z253" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -20541,6 +21806,11 @@
       <c r="Y254" t="n">
         <v>639.8347729030613</v>
       </c>
+      <c r="Z254" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -20620,6 +21890,11 @@
       <c r="Y255" t="n">
         <v>639.5964645366541</v>
       </c>
+      <c r="Z255" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -20699,6 +21974,11 @@
       <c r="Y256" t="n">
         <v>639.357297865608</v>
       </c>
+      <c r="Z256" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -20778,6 +22058,11 @@
       <c r="Y257" t="n">
         <v>639.1173671447276</v>
       </c>
+      <c r="Z257" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -20857,6 +22142,11 @@
       <c r="Y258" t="n">
         <v>638.8767668288109</v>
       </c>
+      <c r="Z258" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -20936,6 +22226,11 @@
       <c r="Y259" t="n">
         <v>638.6355915311024</v>
       </c>
+      <c r="Z259" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -21015,6 +22310,11 @@
       <c r="Y260" t="n">
         <v>638.3939359818227</v>
       </c>
+      <c r="Z260" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -21094,6 +22394,11 @@
       <c r="Y261" t="n">
         <v>638.1518949860788</v>
       </c>
+      <c r="Z261" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -21173,6 +22478,11 @@
       <c r="Y262" t="n">
         <v>637.9095633822618</v>
       </c>
+      <c r="Z262" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -21252,6 +22562,11 @@
       <c r="Y263" t="n">
         <v>637.6670360000844</v>
       </c>
+      <c r="Z263" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -21331,6 +22646,11 @@
       <c r="Y264" t="n">
         <v>637.4244076186671</v>
       </c>
+      <c r="Z264" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -21410,6 +22730,11 @@
       <c r="Y265" t="n">
         <v>637.1817729243699</v>
       </c>
+      <c r="Z265" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -21489,6 +22814,11 @@
       <c r="Y266" t="n">
         <v>636.9392264692049</v>
       </c>
+      <c r="Z266" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -21568,6 +22898,11 @@
       <c r="Y267" t="n">
         <v>636.6968626285686</v>
       </c>
+      <c r="Z267" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -21647,6 +22982,11 @@
       <c r="Y268" t="n">
         <v>636.4547755593596</v>
       </c>
+      <c r="Z268" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -21726,6 +23066,11 @@
       <c r="Y269" t="n">
         <v>636.2130591581825</v>
       </c>
+      <c r="Z269" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -21805,6 +23150,11 @@
       <c r="Y270" t="n">
         <v>635.9718070197077</v>
       </c>
+      <c r="Z270" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -21884,6 +23234,11 @@
       <c r="Y271" t="n">
         <v>635.731112394562</v>
       </c>
+      <c r="Z271" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -21963,6 +23318,11 @@
       <c r="Y272" t="n">
         <v>635.491068148141</v>
       </c>
+      <c r="Z272" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -22042,6 +23402,11 @@
       <c r="Y273" t="n">
         <v>635.251766719158</v>
       </c>
+      <c r="Z273" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -22121,6 +23486,11 @@
       <c r="Y274" t="n">
         <v>635.0133000780002</v>
       </c>
+      <c r="Z274" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -22200,6 +23570,11 @@
       <c r="Y275" t="n">
         <v>634.7757596859528</v>
       </c>
+      <c r="Z275" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -22279,6 +23654,11 @@
       <c r="Y276" t="n">
         <v>634.5392364541891</v>
       </c>
+      <c r="Z276" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -22358,6 +23738,11 @@
       <c r="Y277" t="n">
         <v>634.3038207030829</v>
       </c>
+      <c r="Z277" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -22437,6 +23822,11 @@
       <c r="Y278" t="n">
         <v>634.069602121597</v>
       </c>
+      <c r="Z278" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -22516,6 +23906,11 @@
       <c r="Y279" t="n">
         <v>633.8366697273215</v>
       </c>
+      <c r="Z279" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -22595,6 +23990,11 @@
       <c r="Y280" t="n">
         <v>633.6051118263791</v>
       </c>
+      <c r="Z280" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -22674,6 +24074,11 @@
       <c r="Y281" t="n">
         <v>633.3750159737605</v>
       </c>
+      <c r="Z281" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -22753,6 +24158,11 @@
       <c r="Y282" t="n">
         <v>633.1464689341576</v>
       </c>
+      <c r="Z282" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -22832,6 +24242,11 @@
       <c r="Y283" t="n">
         <v>632.9195566427907</v>
       </c>
+      <c r="Z283" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -22911,6 +24326,11 @@
       <c r="Y284" t="n">
         <v>632.694364166879</v>
       </c>
+      <c r="Z284" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -22990,6 +24410,11 @@
       <c r="Y285" t="n">
         <v>632.4709756674599</v>
       </c>
+      <c r="Z285" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -23069,6 +24494,11 @@
       <c r="Y286" t="n">
         <v>632.2494743612872</v>
       </c>
+      <c r="Z286" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -23148,6 +24578,11 @@
       <c r="Y287" t="n">
         <v>632.0299424836962</v>
       </c>
+      <c r="Z287" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -23227,6 +24662,11 @@
       <c r="Y288" t="n">
         <v>631.8124612513352</v>
       </c>
+      <c r="Z288" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -23306,6 +24746,11 @@
       <c r="Y289" t="n">
         <v>631.5971108257615</v>
       </c>
+      <c r="Z289" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -23385,6 +24830,11 @@
       <c r="Y290" t="n">
         <v>631.3839702772831</v>
       </c>
+      <c r="Z290" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -23464,6 +24914,11 @@
       <c r="Y291" t="n">
         <v>631.1731175493705</v>
       </c>
+      <c r="Z291" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -23543,6 +24998,11 @@
       <c r="Y292" t="n">
         <v>630.9646294235089</v>
       </c>
+      <c r="Z292" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -23622,6 +25082,11 @@
       <c r="Y293" t="n">
         <v>630.7585814848959</v>
       </c>
+      <c r="Z293" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -23701,6 +25166,11 @@
       <c r="Y294" t="n">
         <v>630.5550480881357</v>
       </c>
+      <c r="Z294" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -23780,6 +25250,11 @@
       <c r="Y295" t="n">
         <v>630.3541023238879</v>
       </c>
+      <c r="Z295" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -23859,6 +25334,11 @@
       <c r="Y296" t="n">
         <v>630.1558159861768</v>
       </c>
+      <c r="Z296" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -23938,6 +25418,11 @@
       <c r="Y297" t="n">
         <v>629.9602595398562</v>
       </c>
+      <c r="Z297" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -24017,6 +25502,11 @@
       <c r="Y298" t="n">
         <v>629.7675020891389</v>
       </c>
+      <c r="Z298" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -24096,6 +25586,11 @@
       <c r="Y299" t="n">
         <v>629.5776113466045</v>
       </c>
+      <c r="Z299" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -24175,6 +25670,11 @@
       <c r="Y300" t="n">
         <v>629.390653602813</v>
       </c>
+      <c r="Z300" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -24254,6 +25754,11 @@
       <c r="Y301" t="n">
         <v>629.2066936965032</v>
       </c>
+      <c r="Z301" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -24333,6 +25838,11 @@
       <c r="Y302" t="n">
         <v>629.0257949859222</v>
       </c>
+      <c r="Z302" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -24412,6 +25922,11 @@
       <c r="Y303" t="n">
         <v>628.8480193201627</v>
       </c>
+      <c r="Z303" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -24491,6 +26006,11 @@
       <c r="Y304" t="n">
         <v>628.6734270116884</v>
       </c>
+      <c r="Z304" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -24570,6 +26090,11 @@
       <c r="Y305" t="n">
         <v>628.5020768097144</v>
       </c>
+      <c r="Z305" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -24649,6 +26174,11 @@
       <c r="Y306" t="n">
         <v>628.3427117941425</v>
       </c>
+      <c r="Z306" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -24728,6 +26258,11 @@
       <c r="Y307" t="n">
         <v>627.9326353255369</v>
       </c>
+      <c r="Z307" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -24807,6 +26342,11 @@
       <c r="Y308" t="n">
         <v>628.088971571142</v>
       </c>
+      <c r="Z308" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -24886,6 +26426,11 @@
       <c r="Y309" t="n">
         <v>628.2582217285002</v>
       </c>
+      <c r="Z309" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -24965,6 +26510,11 @@
       <c r="Y310" t="n">
         <v>628.4307956509288</v>
       </c>
+      <c r="Z310" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -25044,6 +26594,11 @@
       <c r="Y311" t="n">
         <v>628.6066358869832</v>
       </c>
+      <c r="Z311" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -25123,6 +26678,11 @@
       <c r="Y312" t="n">
         <v>628.7856833946292</v>
       </c>
+      <c r="Z312" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -25202,6 +26762,11 @@
       <c r="Y313" t="n">
         <v>628.9678775672432</v>
       </c>
+      <c r="Z313" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -25281,6 +26846,11 @@
       <c r="Y314" t="n">
         <v>629.1531562607333</v>
       </c>
+      <c r="Z314" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -25360,6 +26930,11 @@
       <c r="Y315" t="n">
         <v>629.3414558212179</v>
       </c>
+      <c r="Z315" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -25439,6 +27014,11 @@
       <c r="Y316" t="n">
         <v>629.5327111133954</v>
       </c>
+      <c r="Z316" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -25518,6 +27098,11 @@
       <c r="Y317" t="n">
         <v>629.7268555495704</v>
       </c>
+      <c r="Z317" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -25597,6 +27182,11 @@
       <c r="Y318" t="n">
         <v>629.9238211196362</v>
       </c>
+      <c r="Z318" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -25676,6 +27266,11 @@
       <c r="Y319" t="n">
         <v>630.1235384214405</v>
       </c>
+      <c r="Z319" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -25755,6 +27350,11 @@
       <c r="Y320" t="n">
         <v>630.3259366917035</v>
       </c>
+      <c r="Z320" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -25834,6 +27434,11 @@
       <c r="Y321" t="n">
         <v>630.5309438381497</v>
       </c>
+      <c r="Z321" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -25913,6 +27518,11 @@
       <c r="Y322" t="n">
         <v>630.7384864716187</v>
       </c>
+      <c r="Z322" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -25992,6 +27602,11 @@
       <c r="Y323" t="n">
         <v>630.9484899389478</v>
       </c>
+      <c r="Z323" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -26071,6 +27686,11 @@
       <c r="Y324" t="n">
         <v>631.1608783568495</v>
       </c>
+      <c r="Z324" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -26150,6 +27770,11 @@
       <c r="Y325" t="n">
         <v>631.3755746456618</v>
       </c>
+      <c r="Z325" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -26229,6 +27854,11 @@
       <c r="Y326" t="n">
         <v>631.5925005642</v>
       </c>
+      <c r="Z326" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -26308,6 +27938,11 @@
       <c r="Y327" t="n">
         <v>631.8115767449448</v>
       </c>
+      <c r="Z327" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -26387,6 +28022,11 @@
       <c r="Y328" t="n">
         <v>632.0327227296165</v>
       </c>
+      <c r="Z328" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -26466,6 +28106,11 @@
       <c r="Y329" t="n">
         <v>632.2558570054593</v>
       </c>
+      <c r="Z329" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -26545,6 +28190,11 @@
       <c r="Y330" t="n">
         <v>632.4808970419003</v>
       </c>
+      <c r="Z330" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -26624,6 +28274,11 @@
       <c r="Y331" t="n">
         <v>632.7077593275625</v>
       </c>
+      <c r="Z331" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -26703,6 +28358,11 @@
       <c r="Y332" t="n">
         <v>632.9363594078341</v>
       </c>
+      <c r="Z332" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -26782,6 +28442,11 @@
       <c r="Y333" t="n">
         <v>633.1666119228983</v>
       </c>
+      <c r="Z333" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -26861,6 +28526,11 @@
       <c r="Y334" t="n">
         <v>633.3984306460347</v>
       </c>
+      <c r="Z334" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -26940,6 +28610,11 @@
       <c r="Y335" t="n">
         <v>633.6317285221892</v>
       </c>
+      <c r="Z335" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -27019,6 +28694,11 @@
       <c r="Y336" t="n">
         <v>633.8664177072802</v>
       </c>
+      <c r="Z336" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -27098,6 +28778,11 @@
       <c r="Y337" t="n">
         <v>634.1024096074575</v>
       </c>
+      <c r="Z337" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -27177,6 +28862,11 @@
       <c r="Y338" t="n">
         <v>634.3396149188357</v>
       </c>
+      <c r="Z338" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -27256,6 +28946,11 @@
       <c r="Y339" t="n">
         <v>634.5779436676181</v>
       </c>
+      <c r="Z339" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -27335,6 +29030,11 @@
       <c r="Y340" t="n">
         <v>634.8173052501945</v>
       </c>
+      <c r="Z340" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -27414,6 +29114,11 @@
       <c r="Y341" t="n">
         <v>635.0576084736983</v>
       </c>
+      <c r="Z341" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -27493,6 +29198,11 @@
       <c r="Y342" t="n">
         <v>635.298761597005</v>
       </c>
+      <c r="Z342" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -27572,6 +29282,11 @@
       <c r="Y343" t="n">
         <v>635.5406723715479</v>
       </c>
+      <c r="Z343" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -27651,6 +29366,11 @@
       <c r="Y344" t="n">
         <v>635.7832480824513</v>
       </c>
+      <c r="Z344" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -27730,6 +29450,11 @@
       <c r="Y345" t="n">
         <v>636.0263955899708</v>
       </c>
+      <c r="Z345" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -27809,6 +29534,11 @@
       <c r="Y346" t="n">
         <v>636.2700213709855</v>
       </c>
+      <c r="Z346" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -27888,6 +29618,11 @@
       <c r="Y347" t="n">
         <v>636.5140315605621</v>
       </c>
+      <c r="Z347" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -27967,6 +29702,11 @@
       <c r="Y348" t="n">
         <v>636.7583319938954</v>
       </c>
+      <c r="Z348" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -28046,6 +29786,11 @@
       <c r="Y349" t="n">
         <v>637.002828247917</v>
       </c>
+      <c r="Z349" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -28125,6 +29870,11 @@
       <c r="Y350" t="n">
         <v>637.2474256833398</v>
       </c>
+      <c r="Z350" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -28204,6 +29954,11 @@
       <c r="Y351" t="n">
         <v>637.4920294866345</v>
       </c>
+      <c r="Z351" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -28283,6 +30038,11 @@
       <c r="Y352" t="n">
         <v>637.7365447120045</v>
       </c>
+      <c r="Z352" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -28362,6 +30122,11 @@
       <c r="Y353" t="n">
         <v>637.980876323341</v>
       </c>
+      <c r="Z353" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -28441,6 +30206,11 @@
       <c r="Y354" t="n">
         <v>638.2249292364554</v>
       </c>
+      <c r="Z354" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -28520,6 +30290,11 @@
       <c r="Y355" t="n">
         <v>638.4686083607105</v>
       </c>
+      <c r="Z355" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -28599,6 +30374,11 @@
       <c r="Y356" t="n">
         <v>638.7118186412649</v>
       </c>
+      <c r="Z356" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -28678,6 +30458,11 @@
       <c r="Y357" t="n">
         <v>638.954465100896</v>
       </c>
+      <c r="Z357" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -28757,6 +30542,11 @@
       <c r="Y358" t="n">
         <v>639.1964528816246</v>
       </c>
+      <c r="Z358" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -28836,6 +30626,11 @@
       <c r="Y359" t="n">
         <v>639.4376872866773</v>
       </c>
+      <c r="Z359" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -28915,6 +30710,11 @@
       <c r="Y360" t="n">
         <v>639.6780738218373</v>
       </c>
+      <c r="Z360" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -28994,6 +30794,11 @@
       <c r="Y361" t="n">
         <v>639.9175182369469</v>
       </c>
+      <c r="Z361" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -29073,6 +30878,11 @@
       <c r="Y362" t="n">
         <v>640.1559265672108</v>
       </c>
+      <c r="Z362" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -29152,6 +30962,11 @@
       <c r="Y363" t="n">
         <v>640.3932051743607</v>
       </c>
+      <c r="Z363" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -29231,6 +31046,11 @@
       <c r="Y364" t="n">
         <v>640.6292607875064</v>
       </c>
+      <c r="Z364" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -29310,6 +31130,11 @@
       <c r="Y365" t="n">
         <v>640.8640005437105</v>
       </c>
+      <c r="Z365" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -29389,6 +31214,11 @@
       <c r="Y366" t="n">
         <v>641.0973320287115</v>
       </c>
+      <c r="Z366" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -29468,6 +31298,11 @@
       <c r="Y367" t="n">
         <v>641.3291633169682</v>
       </c>
+      <c r="Z367" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -29547,6 +31382,11 @@
       <c r="Y368" t="n">
         <v>641.5594030117388</v>
       </c>
+      <c r="Z368" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -29626,6 +31466,11 @@
       <c r="Y369" t="n">
         <v>641.7879602846702</v>
       </c>
+      <c r="Z369" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -29705,6 +31550,11 @@
       <c r="Y370" t="n">
         <v>642.0147449152095</v>
       </c>
+      <c r="Z370" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -29784,6 +31634,11 @@
       <c r="Y371" t="n">
         <v>642.2396673297475</v>
       </c>
+      <c r="Z371" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -29863,6 +31718,11 @@
       <c r="Y372" t="n">
         <v>642.4626386403388</v>
       </c>
+      <c r="Z372" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -29942,6 +31802,11 @@
       <c r="Y373" t="n">
         <v>642.6835706830748</v>
       </c>
+      <c r="Z373" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -30021,6 +31886,11 @@
       <c r="Y374" t="n">
         <v>642.9023760560925</v>
       </c>
+      <c r="Z374" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -30100,6 +31970,11 @@
       <c r="Y375" t="n">
         <v>642.9092003746371</v>
       </c>
+      <c r="Z375" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -30179,6 +32054,11 @@
       <c r="Y376" t="n">
         <v>626.1409599985483</v>
       </c>
+      <c r="Z376" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -30258,6 +32138,11 @@
       <c r="Y377" t="n">
         <v>626.252902699229</v>
       </c>
+      <c r="Z377" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -30337,6 +32222,11 @@
       <c r="Y378" t="n">
         <v>626.3758797100614</v>
       </c>
+      <c r="Z378" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -30416,6 +32306,11 @@
       <c r="Y379" t="n">
         <v>626.5027604720283</v>
       </c>
+      <c r="Z379" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -30495,6 +32390,11 @@
       <c r="Y380" t="n">
         <v>626.6335095746828</v>
       </c>
+      <c r="Z380" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -30574,6 +32474,11 @@
       <c r="Y381" t="n">
         <v>626.7680897553799</v>
       </c>
+      <c r="Z381" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -30653,6 +32558,11 @@
       <c r="Y382" t="n">
         <v>626.9064619149474</v>
       </c>
+      <c r="Z382" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -30732,6 +32642,11 @@
       <c r="Y383" t="n">
         <v>627.0485851342202</v>
       </c>
+      <c r="Z383" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -30811,6 +32726,11 @@
       <c r="Y384" t="n">
         <v>627.19441669148</v>
       </c>
+      <c r="Z384" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -30890,6 +32810,11 @@
       <c r="Y385" t="n">
         <v>627.3439120808192</v>
       </c>
+      <c r="Z385" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -30969,6 +32894,11 @@
       <c r="Y386" t="n">
         <v>627.4970250312847</v>
       </c>
+      <c r="Z386" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -31048,6 +32978,11 @@
       <c r="Y387" t="n">
         <v>627.6537075269454</v>
       </c>
+      <c r="Z387" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -31127,6 +33062,11 @@
       <c r="Y388" t="n">
         <v>627.8139098277459</v>
       </c>
+      <c r="Z388" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -31206,6 +33146,11 @@
       <c r="Y389" t="n">
         <v>627.9775804914181</v>
       </c>
+      <c r="Z389" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -31285,6 +33230,11 @@
       <c r="Y390" t="n">
         <v>628.1446663958035</v>
       </c>
+      <c r="Z390" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -31364,6 +33314,11 @@
       <c r="Y391" t="n">
         <v>628.3151127623776</v>
       </c>
+      <c r="Z391" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -31443,6 +33398,11 @@
       <c r="Y392" t="n">
         <v>628.4888631803562</v>
       </c>
+      <c r="Z392" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -31522,6 +33482,11 @@
       <c r="Y393" t="n">
         <v>628.6658596317205</v>
       </c>
+      <c r="Z393" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -31601,6 +33566,11 @@
       <c r="Y394" t="n">
         <v>628.8460425167543</v>
       </c>
+      <c r="Z394" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -31680,6 +33650,11 @@
       <c r="Y395" t="n">
         <v>629.0293506808371</v>
       </c>
+      <c r="Z395" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -31759,6 +33734,11 @@
       <c r="Y396" t="n">
         <v>629.2157214413113</v>
       </c>
+      <c r="Z396" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -31838,6 +33818,11 @@
       <c r="Y397" t="n">
         <v>629.4050906156394</v>
       </c>
+      <c r="Z397" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -31917,6 +33902,11 @@
       <c r="Y398" t="n">
         <v>629.5973925501396</v>
       </c>
+      <c r="Z398" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -31996,6 +33986,11 @@
       <c r="Y399" t="n">
         <v>629.7925601490374</v>
       </c>
+      <c r="Z399" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -32075,6 +34070,11 @@
       <c r="Y400" t="n">
         <v>629.990524904776</v>
       </c>
+      <c r="Z400" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -32154,6 +34154,11 @@
       <c r="Y401" t="n">
         <v>630.1912169285594</v>
       </c>
+      <c r="Z401" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -32233,6 +34238,11 @@
       <c r="Y402" t="n">
         <v>630.3945649817842</v>
       </c>
+      <c r="Z402" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -32312,6 +34322,11 @@
       <c r="Y403" t="n">
         <v>630.6004965078527</v>
       </c>
+      <c r="Z403" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -32391,6 +34406,11 @@
       <c r="Y404" t="n">
         <v>630.8089376650236</v>
       </c>
+      <c r="Z404" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -32470,6 +34490,11 @@
       <c r="Y405" t="n">
         <v>631.0198133592714</v>
       </c>
+      <c r="Z405" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -32549,6 +34574,11 @@
       <c r="Y406" t="n">
         <v>631.233047278202</v>
       </c>
+      <c r="Z406" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -32628,6 +34658,11 @@
       <c r="Y407" t="n">
         <v>631.4485619254215</v>
       </c>
+      <c r="Z407" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -32707,6 +34742,11 @@
       <c r="Y408" t="n">
         <v>631.666278655146</v>
       </c>
+      <c r="Z408" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -32786,6 +34826,11 @@
       <c r="Y409" t="n">
         <v>631.8861177078418</v>
       </c>
+      <c r="Z409" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -32865,6 +34910,11 @@
       <c r="Y410" t="n">
         <v>632.1079982458903</v>
       </c>
+      <c r="Z410" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -32944,6 +34994,11 @@
       <c r="Y411" t="n">
         <v>632.3318383900635</v>
       </c>
+      <c r="Z411" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -33023,6 +35078,11 @@
       <c r="Y412" t="n">
         <v>632.5575552561578</v>
       </c>
+      <c r="Z412" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -33102,6 +35162,11 @@
       <c r="Y413" t="n">
         <v>632.7850649925949</v>
       </c>
+      <c r="Z413" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -33181,6 +35246,11 @@
       <c r="Y414" t="n">
         <v>633.0142828177695</v>
       </c>
+      <c r="Z414" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -33260,6 +35330,11 @@
       <c r="Y415" t="n">
         <v>633.2451230581829</v>
       </c>
+      <c r="Z415" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -33339,6 +35414,11 @@
       <c r="Y416" t="n">
         <v>633.4774991871428</v>
       </c>
+      <c r="Z416" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -33418,6 +35498,11 @@
       <c r="Y417" t="n">
         <v>633.7113238634089</v>
       </c>
+      <c r="Z417" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -33497,6 +35582,11 @@
       <c r="Y418" t="n">
         <v>633.9465089704499</v>
       </c>
+      <c r="Z418" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -33576,6 +35666,11 @@
       <c r="Y419" t="n">
         <v>634.1829656559559</v>
       </c>
+      <c r="Z419" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -33655,6 +35750,11 @@
       <c r="Y420" t="n">
         <v>634.4206043715897</v>
       </c>
+      <c r="Z420" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -33734,6 +35834,11 @@
       <c r="Y421" t="n">
         <v>634.6593349133198</v>
       </c>
+      <c r="Z421" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -33813,6 +35918,11 @@
       <c r="Y422" t="n">
         <v>634.8990664614834</v>
       </c>
+      <c r="Z422" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -33892,6 +36002,11 @@
       <c r="Y423" t="n">
         <v>635.1397076216663</v>
       </c>
+      <c r="Z423" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -33971,6 +36086,11 @@
       <c r="Y424" t="n">
         <v>635.3811664654208</v>
       </c>
+      <c r="Z424" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
@@ -34050,6 +36170,11 @@
       <c r="Y425" t="n">
         <v>635.6233505713328</v>
       </c>
+      <c r="Z425" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -34129,6 +36254,11 @@
       <c r="Y426" t="n">
         <v>635.8661670663802</v>
       </c>
+      <c r="Z426" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -34208,6 +36338,11 @@
       <c r="Y427" t="n">
         <v>636.1095226672196</v>
       </c>
+      <c r="Z427" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -34287,6 +36422,11 @@
       <c r="Y428" t="n">
         <v>636.3533237217588</v>
       </c>
+      <c r="Z428" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -34366,6 +36506,11 @@
       <c r="Y429" t="n">
         <v>636.5974762507775</v>
       </c>
+      <c r="Z429" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -34445,6 +36590,11 @@
       <c r="Y430" t="n">
         <v>636.8418859899216</v>
       </c>
+      <c r="Z430" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -34524,6 +36674,11 @@
       <c r="Y431" t="n">
         <v>637.0864584314244</v>
       </c>
+      <c r="Z431" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -34603,6 +36758,11 @@
       <c r="Y432" t="n">
         <v>637.3310988659896</v>
       </c>
+      <c r="Z432" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -34682,6 +36842,11 @@
       <c r="Y433" t="n">
         <v>637.5757124248948</v>
       </c>
+      <c r="Z433" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -34761,6 +36926,11 @@
       <c r="Y434" t="n">
         <v>637.8202041220004</v>
       </c>
+      <c r="Z434" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -34840,6 +37010,11 @@
       <c r="Y435" t="n">
         <v>638.0644788956881</v>
       </c>
+      <c r="Z435" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -34919,6 +37094,11 @@
       <c r="Y436" t="n">
         <v>638.3084416508207</v>
       </c>
+      <c r="Z436" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -34998,6 +37178,11 @@
       <c r="Y437" t="n">
         <v>638.5519973009631</v>
       </c>
+      <c r="Z437" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -35077,6 +37262,11 @@
       <c r="Y438" t="n">
         <v>638.7950508100276</v>
       </c>
+      <c r="Z438" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -35156,6 +37346,11 @@
       <c r="Y439" t="n">
         <v>639.0375072343099</v>
       </c>
+      <c r="Z439" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
@@ -35235,6 +37430,11 @@
       <c r="Y440" t="n">
         <v>639.279271764154</v>
       </c>
+      <c r="Z440" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -35314,6 +37514,11 @@
       <c r="Y441" t="n">
         <v>639.5202497656196</v>
       </c>
+      <c r="Z441" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
@@ -35393,6 +37598,11 @@
       <c r="Y442" t="n">
         <v>639.7603468220391</v>
       </c>
+      <c r="Z442" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -35472,6 +37682,11 @@
       <c r="Y443" t="n">
         <v>639.9994687754316</v>
       </c>
+      <c r="Z443" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
@@ -35551,6 +37766,11 @@
       <c r="Y444" t="n">
         <v>640.237521767684</v>
       </c>
+      <c r="Z444" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
@@ -35630,6 +37850,11 @@
       <c r="Y445" t="n">
         <v>640.4744122814913</v>
       </c>
+      <c r="Z445" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
@@ -35709,6 +37934,11 @@
       <c r="Y446" t="n">
         <v>640.7100471814629</v>
       </c>
+      <c r="Z446" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
@@ -35788,6 +38018,11 @@
       <c r="Y447" t="n">
         <v>640.9443337544333</v>
       </c>
+      <c r="Z447" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
@@ -35867,6 +38102,11 @@
       <c r="Y448" t="n">
         <v>641.1771797501204</v>
       </c>
+      <c r="Z448" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -35946,6 +38186,11 @@
       <c r="Y449" t="n">
         <v>641.4084934211281</v>
       </c>
+      <c r="Z449" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -36025,6 +38270,11 @@
       <c r="Y450" t="n">
         <v>641.638183562669</v>
       </c>
+      <c r="Z450" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
@@ -36104,6 +38354,11 @@
       <c r="Y451" t="n">
         <v>641.8661595525577</v>
       </c>
+      <c r="Z451" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -36183,6 +38438,11 @@
       <c r="Y452" t="n">
         <v>642.0758473941742</v>
       </c>
+      <c r="Z452" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
@@ -36262,6 +38522,11 @@
       <c r="Y453" t="n">
         <v>635.8912428183701</v>
       </c>
+      <c r="Z453" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
@@ -36341,6 +38606,11 @@
       <c r="Y454" t="n">
         <v>635.6737173865159</v>
       </c>
+      <c r="Z454" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
@@ -36420,6 +38690,11 @@
       <c r="Y455" t="n">
         <v>635.4341862852497</v>
       </c>
+      <c r="Z455" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
@@ -36499,6 +38774,11 @@
       <c r="Y456" t="n">
         <v>635.1954290416095</v>
       </c>
+      <c r="Z456" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
@@ -36578,6 +38858,11 @@
       <c r="Y457" t="n">
         <v>634.9575374027912</v>
       </c>
+      <c r="Z457" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
@@ -36657,6 +38942,11 @@
       <c r="Y458" t="n">
         <v>634.7206025914007</v>
       </c>
+      <c r="Z458" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
@@ -36736,6 +39026,11 @@
       <c r="Y459" t="n">
         <v>634.4847152645134</v>
       </c>
+      <c r="Z459" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
@@ -36815,6 +39110,11 @@
       <c r="Y460" t="n">
         <v>634.2499654732104</v>
       </c>
+      <c r="Z460" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
@@ -36894,6 +39194,11 @@
       <c r="Y461" t="n">
         <v>634.0164426222294</v>
       </c>
+      <c r="Z461" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
@@ -36973,6 +39278,11 @@
       <c r="Y462" t="n">
         <v>633.7842354297553</v>
       </c>
+      <c r="Z462" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
@@ -37052,6 +39362,11 @@
       <c r="Y463" t="n">
         <v>633.5534318876432</v>
       </c>
+      <c r="Z463" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -37131,6 +39446,11 @@
       <c r="Y464" t="n">
         <v>633.3241192219006</v>
       </c>
+      <c r="Z464" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
@@ -37210,6 +39530,11 @@
       <c r="Y465" t="n">
         <v>633.0963838535764</v>
       </c>
+      <c r="Z465" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
@@ -37289,6 +39614,11 @@
       <c r="Y466" t="n">
         <v>632.8703113598218</v>
       </c>
+      <c r="Z466" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
@@ -37368,6 +39698,11 @@
       <c r="Y467" t="n">
         <v>632.6459864354111</v>
       </c>
+      <c r="Z467" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
@@ -37447,6 +39782,11 @@
       <c r="Y468" t="n">
         <v>632.4234928548136</v>
       </c>
+      <c r="Z468" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
@@ -37526,6 +39866,11 @@
       <c r="Y469" t="n">
         <v>632.2029134342154</v>
       </c>
+      <c r="Z469" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
@@ -37605,6 +39950,11 @@
       <c r="Y470" t="n">
         <v>631.9843299944872</v>
       </c>
+      <c r="Z470" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
@@ -37684,6 +40034,11 @@
       <c r="Y471" t="n">
         <v>631.7678233241658</v>
       </c>
+      <c r="Z471" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
@@ -37763,6 +40118,11 @@
       <c r="Y472" t="n">
         <v>631.5534731433222</v>
       </c>
+      <c r="Z472" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
@@ -37842,6 +40202,11 @@
       <c r="Y473" t="n">
         <v>631.3413580673724</v>
       </c>
+      <c r="Z473" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
@@ -37921,6 +40286,11 @@
       <c r="Y474" t="n">
         <v>631.1315555719357</v>
       </c>
+      <c r="Z474" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
@@ -38000,6 +40370,11 @@
       <c r="Y475" t="n">
         <v>630.9241419578857</v>
       </c>
+      <c r="Z475" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -38079,6 +40454,11 @@
       <c r="Y476" t="n">
         <v>630.7191923168743</v>
       </c>
+      <c r="Z476" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
@@ -38158,6 +40538,11 @@
       <c r="Y477" t="n">
         <v>630.5167804977647</v>
       </c>
+      <c r="Z477" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -38237,6 +40622,11 @@
       <c r="Y478" t="n">
         <v>630.3169790733174</v>
       </c>
+      <c r="Z478" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
@@ -38316,6 +40706,11 @@
       <c r="Y479" t="n">
         <v>630.208573884851</v>
       </c>
+      <c r="Z479" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
@@ -38395,6 +40790,11 @@
       <c r="Y480" t="n">
         <v>642.8077389911061</v>
       </c>
+      <c r="Z480" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
@@ -38474,6 +40874,11 @@
       <c r="Y481" t="n">
         <v>642.5917505278643</v>
       </c>
+      <c r="Z481" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
@@ -38553,6 +40958,11 @@
       <c r="Y482" t="n">
         <v>642.3710674623673</v>
       </c>
+      <c r="Z482" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
@@ -38632,6 +41042,11 @@
       <c r="Y483" t="n">
         <v>642.1484340990692</v>
       </c>
+      <c r="Z483" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
@@ -38711,6 +41126,11 @@
       <c r="Y484" t="n">
         <v>641.9239391729105</v>
       </c>
+      <c r="Z484" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
@@ -38790,6 +41210,11 @@
       <c r="Y485" t="n">
         <v>641.6976720965632</v>
       </c>
+      <c r="Z485" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
@@ -38869,6 +41294,11 @@
       <c r="Y486" t="n">
         <v>641.4697229217278</v>
       </c>
+      <c r="Z486" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
@@ -38948,6 +41378,11 @@
       <c r="Y487" t="n">
         <v>641.240182299813</v>
       </c>
+      <c r="Z487" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
@@ -39027,6 +41462,11 @@
       <c r="Y488" t="n">
         <v>641.0091414427328</v>
       </c>
+      <c r="Z488" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
@@ -39106,6 +41546,11 @@
       <c r="Y489" t="n">
         <v>640.776692083066</v>
       </c>
+      <c r="Z489" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
@@ -39185,6 +41630,11 @@
       <c r="Y490" t="n">
         <v>640.542926434068</v>
       </c>
+      <c r="Z490" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
@@ -39264,6 +41714,11 @@
       <c r="Y491" t="n">
         <v>640.307937149565</v>
       </c>
+      <c r="Z491" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
@@ -39343,6 +41798,11 @@
       <c r="Y492" t="n">
         <v>640.0718172832336</v>
       </c>
+      <c r="Z492" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
@@ -39422,6 +41882,11 @@
       <c r="Y493" t="n">
         <v>639.8346602481317</v>
       </c>
+      <c r="Z493" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
@@ -39501,6 +41966,11 @@
       <c r="Y494" t="n">
         <v>639.5965597757315</v>
       </c>
+      <c r="Z494" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
@@ -39580,6 +42050,11 @@
       <c r="Y495" t="n">
         <v>639.3576098746013</v>
       </c>
+      <c r="Z495" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
@@ -39659,6 +42134,11 @@
       <c r="Y496" t="n">
         <v>639.1179047894359</v>
       </c>
+      <c r="Z496" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
@@ -39738,6 +42218,11 @@
       <c r="Y497" t="n">
         <v>638.8775389595208</v>
       </c>
+      <c r="Z497" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
@@ -39817,6 +42302,11 @@
       <c r="Y498" t="n">
         <v>638.6366069770735</v>
       </c>
+      <c r="Z498" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
@@ -39896,6 +42386,11 @@
       <c r="Y499" t="n">
         <v>638.3952035456279</v>
       </c>
+      <c r="Z499" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
@@ -39975,6 +42470,11 @@
       <c r="Y500" t="n">
         <v>638.153423438451</v>
       </c>
+      <c r="Z500" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
@@ -40054,6 +42554,11 @@
       <c r="Y501" t="n">
         <v>637.9113614564475</v>
       </c>
+      <c r="Z501" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
@@ -40133,6 +42638,11 @@
       <c r="Y502" t="n">
         <v>637.669112386342</v>
       </c>
+      <c r="Z502" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
@@ -40212,6 +42722,11 @@
       <c r="Y503" t="n">
         <v>637.4267709587722</v>
       </c>
+      <c r="Z503" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
@@ -40291,6 +42806,11 @@
       <c r="Y504" t="n">
         <v>637.1844318063096</v>
       </c>
+      <c r="Z504" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
@@ -40370,6 +42890,11 @@
       <c r="Y505" t="n">
         <v>636.9421894214561</v>
       </c>
+      <c r="Z505" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
@@ -40449,6 +42974,11 @@
       <c r="Y506" t="n">
         <v>636.7001381148697</v>
       </c>
+      <c r="Z506" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
@@ -40528,6 +43058,11 @@
       <c r="Y507" t="n">
         <v>636.4583719731055</v>
       </c>
+      <c r="Z507" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
@@ -40607,6 +43142,11 @@
       <c r="Y508" t="n">
         <v>636.2169848172312</v>
       </c>
+      <c r="Z508" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
@@ -40686,6 +43226,11 @@
       <c r="Y509" t="n">
         <v>635.9760701606825</v>
       </c>
+      <c r="Z509" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
@@ -40765,6 +43310,11 @@
       <c r="Y510" t="n">
         <v>635.7357211676431</v>
       </c>
+      <c r="Z510" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
@@ -40844,6 +43394,11 @@
       <c r="Y511" t="n">
         <v>635.4960306117962</v>
       </c>
+      <c r="Z511" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
@@ -40923,6 +43478,11 @@
       <c r="Y512" t="n">
         <v>635.2570908345743</v>
       </c>
+      <c r="Z512" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
@@ -41002,6 +43562,11 @@
       <c r="Y513" t="n">
         <v>635.0189937039677</v>
       </c>
+      <c r="Z513" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
@@ -41081,6 +43646,11 @@
       <c r="Y514" t="n">
         <v>634.7818305736415</v>
       </c>
+      <c r="Z514" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
@@ -41160,6 +43730,11 @@
       <c r="Y515" t="n">
         <v>634.5456922418711</v>
       </c>
+      <c r="Z515" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
@@ -41239,6 +43814,11 @@
       <c r="Y516" t="n">
         <v>634.3106689108034</v>
       </c>
+      <c r="Z516" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
@@ -41318,6 +43898,11 @@
       <c r="Y517" t="n">
         <v>634.0768501462832</v>
       </c>
+      <c r="Z517" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
@@ -41397,6 +43982,11 @@
       <c r="Y518" t="n">
         <v>633.8443248375717</v>
       </c>
+      <c r="Z518" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
@@ -41476,6 +44066,11 @@
       <c r="Y519" t="n">
         <v>633.6131811573063</v>
       </c>
+      <c r="Z519" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
@@ -41555,6 +44150,11 @@
       <c r="Y520" t="n">
         <v>633.3835065222709</v>
       </c>
+      <c r="Z520" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
@@ -41634,6 +44234,11 @@
       <c r="Y521" t="n">
         <v>633.155387553761</v>
       </c>
+      <c r="Z521" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
@@ -41713,6 +44318,11 @@
       <c r="Y522" t="n">
         <v>632.9289100387846</v>
       </c>
+      <c r="Z522" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
@@ -41792,6 +44402,11 @@
       <c r="Y523" t="n">
         <v>632.7041588916102</v>
       </c>
+      <c r="Z523" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
@@ -41871,6 +44486,11 @@
       <c r="Y524" t="n">
         <v>632.4812181154805</v>
       </c>
+      <c r="Z524" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
@@ -41950,6 +44570,11 @@
       <c r="Y525" t="n">
         <v>632.2601707646847</v>
       </c>
+      <c r="Z525" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
@@ -42029,6 +44654,11 @@
       <c r="Y526" t="n">
         <v>632.0410989074225</v>
       </c>
+      <c r="Z526" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
@@ -42108,6 +44738,11 @@
       <c r="Y527" t="n">
         <v>631.8240835887184</v>
       </c>
+      <c r="Z527" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
@@ -42187,6 +44822,11 @@
       <c r="Y528" t="n">
         <v>631.6092047939584</v>
       </c>
+      <c r="Z528" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
@@ -42266,6 +44906,11 @@
       <c r="Y529" t="n">
         <v>631.3965414128384</v>
       </c>
+      <c r="Z529" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
@@ -42345,6 +44990,11 @@
       <c r="Y530" t="n">
         <v>631.1861712039994</v>
       </c>
+      <c r="Z530" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
@@ -42424,6 +45074,11 @@
       <c r="Y531" t="n">
         <v>630.9781707597723</v>
       </c>
+      <c r="Z531" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
@@ -42503,6 +45158,11 @@
       <c r="Y532" t="n">
         <v>630.7726154720111</v>
       </c>
+      <c r="Z532" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
@@ -42582,6 +45242,11 @@
       <c r="Y533" t="n">
         <v>630.5695794978978</v>
       </c>
+      <c r="Z533" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
@@ -42661,6 +45326,11 @@
       <c r="Y534" t="n">
         <v>630.3691357267395</v>
       </c>
+      <c r="Z534" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
@@ -42740,6 +45410,11 @@
       <c r="Y535" t="n">
         <v>630.171355747153</v>
       </c>
+      <c r="Z535" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
@@ -42819,6 +45494,11 @@
       <c r="Y536" t="n">
         <v>629.9763098149155</v>
       </c>
+      <c r="Z536" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
@@ -42898,6 +45578,11 @@
       <c r="Y537" t="n">
         <v>629.78406682142</v>
       </c>
+      <c r="Z537" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
@@ -42977,6 +45662,11 @@
       <c r="Y538" t="n">
         <v>629.5946942627739</v>
       </c>
+      <c r="Z538" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
@@ -43056,6 +45746,11 @@
       <c r="Y539" t="n">
         <v>629.4082582094641</v>
       </c>
+      <c r="Z539" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
@@ -43135,6 +45830,11 @@
       <c r="Y540" t="n">
         <v>629.2248232769257</v>
       </c>
+      <c r="Z540" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
@@ -43214,6 +45914,11 @@
       <c r="Y541" t="n">
         <v>629.0444525965459</v>
       </c>
+      <c r="Z541" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
@@ -43293,6 +45998,11 @@
       <c r="Y542" t="n">
         <v>628.8672077875519</v>
       </c>
+      <c r="Z542" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
@@ -43372,6 +46082,11 @@
       <c r="Y543" t="n">
         <v>628.6931489293462</v>
       </c>
+      <c r="Z543" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
@@ -43451,6 +46166,11 @@
       <c r="Y544" t="n">
         <v>628.5223345350965</v>
       </c>
+      <c r="Z544" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
@@ -43530,6 +46250,11 @@
       <c r="Y545" t="n">
         <v>628.3548215254242</v>
       </c>
+      <c r="Z545" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
@@ -43609,6 +46334,11 @@
       <c r="Y546" t="n">
         <v>628.190665203436</v>
       </c>
+      <c r="Z546" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
@@ -43688,6 +46418,11 @@
       <c r="Y547" t="n">
         <v>628.029919230063</v>
       </c>
+      <c r="Z547" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
@@ -43767,6 +46502,11 @@
       <c r="Y548" t="n">
         <v>627.8726356006237</v>
       </c>
+      <c r="Z548" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
@@ -43846,6 +46586,11 @@
       <c r="Y549" t="n">
         <v>627.7188646217736</v>
       </c>
+      <c r="Z549" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
@@ -43925,6 +46670,11 @@
       <c r="Y550" t="n">
         <v>627.5686548896007</v>
       </c>
+      <c r="Z550" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
@@ -44004,6 +46754,11 @@
       <c r="Y551" t="n">
         <v>627.4220532683983</v>
       </c>
+      <c r="Z551" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
@@ -44083,6 +46838,11 @@
       <c r="Y552" t="n">
         <v>627.279104870231</v>
       </c>
+      <c r="Z552" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
@@ -44162,6 +46922,11 @@
       <c r="Y553" t="n">
         <v>627.1398530355534</v>
       </c>
+      <c r="Z553" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
@@ -44241,6 +47006,11 @@
       <c r="Y554" t="n">
         <v>627.0043393144676</v>
       </c>
+      <c r="Z554" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
@@ -44320,6 +47090,11 @@
       <c r="Y555" t="n">
         <v>626.8726034489936</v>
       </c>
+      <c r="Z555" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
@@ -44399,6 +47174,11 @@
       <c r="Y556" t="n">
         <v>626.744683356164</v>
       </c>
+      <c r="Z556" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
@@ -44478,6 +47258,11 @@
       <c r="Y557" t="n">
         <v>626.620615112115</v>
       </c>
+      <c r="Z557" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
@@ -44557,6 +47342,11 @@
       <c r="Y558" t="n">
         <v>626.5004329368332</v>
       </c>
+      <c r="Z558" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
@@ -44636,6 +47426,11 @@
       <c r="Y559" t="n">
         <v>626.4487185481439</v>
       </c>
+      <c r="Z559" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
@@ -44715,6 +47510,11 @@
       <c r="Y560" t="n">
         <v>642.5993553070703</v>
       </c>
+      <c r="Z560" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
@@ -44794,6 +47594,11 @@
       <c r="Y561" t="n">
         <v>642.3835941209031</v>
       </c>
+      <c r="Z561" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
@@ -44873,6 +47678,11 @@
       <c r="Y562" t="n">
         <v>642.161076245327</v>
       </c>
+      <c r="Z562" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
@@ -44952,6 +47762,11 @@
       <c r="Y563" t="n">
         <v>641.9366923589118</v>
       </c>
+      <c r="Z563" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
@@ -45031,6 +47846,11 @@
       <c r="Y564" t="n">
         <v>641.7105318404953</v>
       </c>
+      <c r="Z564" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
@@ -45110,6 +47930,11 @@
       <c r="Y565" t="n">
         <v>641.4826847096547</v>
       </c>
+      <c r="Z565" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
@@ -45189,6 +48014,11 @@
       <c r="Y566" t="n">
         <v>641.2532415876029</v>
       </c>
+      <c r="Z566" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
@@ -45268,6 +48098,11 @@
       <c r="Y567" t="n">
         <v>641.0222936579697</v>
       </c>
+      <c r="Z567" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
@@ -45347,6 +48182,11 @@
       <c r="Y568" t="n">
         <v>640.7899326269179</v>
       </c>
+      <c r="Z568" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
@@ -45426,6 +48266,11 @@
       <c r="Y569" t="n">
         <v>640.5562506830954</v>
       </c>
+      <c r="Z569" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
@@ -45505,6 +48350,11 @@
       <c r="Y570" t="n">
         <v>640.3213404577305</v>
       </c>
+      <c r="Z570" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
@@ -45584,6 +48434,11 @@
       <c r="Y571" t="n">
         <v>640.0852949838101</v>
       </c>
+      <c r="Z571" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
@@ -45663,6 +48518,11 @@
       <c r="Y572" t="n">
         <v>639.848207655658</v>
       </c>
+      <c r="Z572" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
@@ -45742,6 +48602,11 @@
       <c r="Y573" t="n">
         <v>639.6101721877621</v>
       </c>
+      <c r="Z573" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
@@ -45821,6 +48686,11 @@
       <c r="Y574" t="n">
         <v>639.3712825740112</v>
       </c>
+      <c r="Z574" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
@@ -45900,6 +48770,11 @@
       <c r="Y575" t="n">
         <v>639.1316330460452</v>
       </c>
+      <c r="Z575" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
@@ -45979,6 +48854,11 @@
       <c r="Y576" t="n">
         <v>638.8913180322095</v>
       </c>
+      <c r="Z576" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
@@ -46058,6 +48938,11 @@
       <c r="Y577" t="n">
         <v>638.6504321157677</v>
       </c>
+      <c r="Z577" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
@@ -46137,6 +49022,11 @@
       <c r="Y578" t="n">
         <v>638.4090699932848</v>
       </c>
+      <c r="Z578" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
@@ -46216,6 +49106,11 @@
       <c r="Y579" t="n">
         <v>638.1673264329576</v>
       </c>
+      <c r="Z579" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
@@ -46295,6 +49190,11 @@
       <c r="Y580" t="n">
         <v>637.925296232644</v>
       </c>
+      <c r="Z580" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
@@ -46374,6 +49274,11 @@
       <c r="Y581" t="n">
         <v>637.6830741780573</v>
       </c>
+      <c r="Z581" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
@@ -46453,6 +49358,11 @@
       <c r="Y582" t="n">
         <v>637.4407550007945</v>
       </c>
+      <c r="Z582" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
@@ -46532,6 +49442,11 @@
       <c r="Y583" t="n">
         <v>637.1984333363248</v>
       </c>
+      <c r="Z583" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
@@ -46611,6 +49526,11 @@
       <c r="Y584" t="n">
         <v>636.9562036821853</v>
       </c>
+      <c r="Z584" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
@@ -46690,6 +49610,11 @@
       <c r="Y585" t="n">
         <v>636.7141603557908</v>
       </c>
+      <c r="Z585" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
@@ -46769,6 +49694,11 @@
       <c r="Y586" t="n">
         <v>636.4723974527827</v>
       </c>
+      <c r="Z586" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
@@ -46848,6 +49778,11 @@
       <c r="Y587" t="n">
         <v>636.231008804973</v>
       </c>
+      <c r="Z587" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
@@ -46927,6 +49862,11 @@
       <c r="Y588" t="n">
         <v>635.9900879387869</v>
       </c>
+      <c r="Z588" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
@@ -47006,6 +49946,11 @@
       <c r="Y589" t="n">
         <v>635.7497280332651</v>
       </c>
+      <c r="Z589" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
@@ -47085,6 +50030,11 @@
       <c r="Y590" t="n">
         <v>635.5100218788963</v>
       </c>
+      <c r="Z590" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
@@ -47164,6 +50114,11 @@
       <c r="Y591" t="n">
         <v>635.2710618359743</v>
       </c>
+      <c r="Z591" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
@@ -47243,6 +50198,11 @@
       <c r="Y592" t="n">
         <v>635.0329397932152</v>
       </c>
+      <c r="Z592" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
@@ -47322,6 +50282,11 @@
       <c r="Y593" t="n">
         <v>634.7957471270224</v>
       </c>
+      <c r="Z593" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
@@ -47401,6 +50366,11 @@
       <c r="Y594" t="n">
         <v>634.5595746602669</v>
       </c>
+      <c r="Z594" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
@@ -47480,6 +50450,11 @@
       <c r="Y595" t="n">
         <v>634.3245126217681</v>
       </c>
+      <c r="Z595" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
@@ -47559,6 +50534,11 @@
       <c r="Y596" t="n">
         <v>634.0906506058957</v>
       </c>
+      <c r="Z596" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
@@ -47638,6 +50618,11 @@
       <c r="Y597" t="n">
         <v>633.8580775322862</v>
       </c>
+      <c r="Z597" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
@@ -47717,6 +50702,11 @@
       <c r="Y598" t="n">
         <v>633.6268816059935</v>
       </c>
+      <c r="Z598" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
@@ -47796,6 +50786,11 @@
       <c r="Y599" t="n">
         <v>633.3971502778932</v>
       </c>
+      <c r="Z599" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
@@ -47875,6 +50870,11 @@
       <c r="Y600" t="n">
         <v>633.1689702053883</v>
       </c>
+      <c r="Z600" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
@@ -47954,6 +50954,11 @@
       <c r="Y601" t="n">
         <v>632.9424272134751</v>
       </c>
+      <c r="Z601" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
@@ -48033,6 +51038,11 @@
       <c r="Y602" t="n">
         <v>632.7176062561778</v>
       </c>
+      <c r="Z602" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
@@ -48112,6 +51122,11 @@
       <c r="Y603" t="n">
         <v>632.494591378266</v>
       </c>
+      <c r="Z603" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
@@ -48191,6 +51206,11 @@
       <c r="Y604" t="n">
         <v>632.2734656774584</v>
       </c>
+      <c r="Z604" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
@@ -48270,6 +51290,11 @@
       <c r="Y605" t="n">
         <v>632.0543112671235</v>
       </c>
+      <c r="Z605" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
@@ -48348,6 +51373,11 @@
       </c>
       <c r="Y606" t="n">
         <v>631.9454986780213</v>
+      </c>
+      <c r="Z606" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
       </c>
     </row>
   </sheetData>
